--- a/rmonize/data_proc_elem/DPE_LISA_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_LISA_P1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{584CF426-1521-49BE-A9E4-007944A31133}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACFFADD-5B90-4A2B-8924-3CED3F5D4F13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>variable_ID</t>
-  </si>
-  <si>
-    <t>participant identification number</t>
   </si>
   <si>
     <t>integer</t>
@@ -1441,6 +1438,9 @@
   </si>
   <si>
     <t>FFQRIND_15 * 0.5</t>
+  </si>
+  <si>
+    <t>Participant identification number</t>
   </si>
 </sst>
 </file>
@@ -2086,49 +2086,49 @@
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Link" xfId="42" builtinId="8"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2144,7 +2144,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2443,10 +2443,10 @@
   <dimension ref="A1:K128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I57" sqref="I56:I57"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="29" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -2501,29 +2501,29 @@
         <v>11</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="H2" s="18" t="s">
         <v>16</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>17</v>
       </c>
       <c r="I2" s="18"/>
       <c r="J2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>18</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2531,32 +2531,32 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="D3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>23</v>
-      </c>
       <c r="H3" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="18" t="s">
         <v>18</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2564,32 +2564,32 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="D4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="G4" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="18" t="s">
         <v>18</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2597,32 +2597,32 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="13" t="s">
+      <c r="G5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="H5" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>31</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -2630,30 +2630,30 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="D6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="16" t="s">
         <v>36</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>37</v>
       </c>
       <c r="H6" s="22"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2661,32 +2661,32 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>40</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>41</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="16" t="s">
         <v>42</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2694,32 +2694,32 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="D8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>46</v>
-      </c>
       <c r="G8" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="20" t="s">
         <v>18</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2727,32 +2727,32 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="20" t="s">
-        <v>50</v>
-      </c>
       <c r="H9" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="20" t="s">
         <v>18</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="105" x14ac:dyDescent="0.25">
@@ -2760,34 +2760,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="J10" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="23" t="s">
         <v>56</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="23" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2795,31 +2795,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>59</v>
-      </c>
       <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="J11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2827,31 +2827,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>61</v>
-      </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -2859,31 +2859,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="J13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2891,31 +2891,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="J14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2923,31 +2923,31 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>74</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2955,31 +2955,31 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>77</v>
-      </c>
       <c r="G16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2987,31 +2987,31 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>80</v>
-      </c>
       <c r="G17" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -3019,31 +3019,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="28" t="s">
-        <v>82</v>
-      </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3051,31 +3051,31 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="28" t="s">
-        <v>84</v>
-      </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3083,31 +3083,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="28" t="s">
-        <v>86</v>
-      </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3115,31 +3115,31 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="28" t="s">
-        <v>88</v>
-      </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3147,31 +3147,31 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="28" t="s">
-        <v>90</v>
-      </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3179,31 +3179,31 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="28" t="s">
-        <v>92</v>
-      </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3211,31 +3211,31 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>95</v>
-      </c>
       <c r="G24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3243,32 +3243,32 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="5" t="s">
+      <c r="G25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3276,31 +3276,31 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="5" t="s">
+      <c r="G26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="J26" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3308,31 +3308,31 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="D27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="G27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3340,31 +3340,31 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="28" t="s">
-        <v>108</v>
-      </c>
       <c r="D28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3372,31 +3372,31 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="28" t="s">
-        <v>110</v>
-      </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="135" x14ac:dyDescent="0.25">
@@ -3404,31 +3404,31 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="5" t="s">
+      <c r="G30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="J30" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3436,31 +3436,31 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D31" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>117</v>
-      </c>
       <c r="G31" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3468,31 +3468,31 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="D32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D32" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="5" t="s">
+      <c r="G32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="J32" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3500,31 +3500,31 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="D33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D33" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>124</v>
-      </c>
       <c r="G33" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3532,32 +3532,32 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D34" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="G34" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3565,32 +3565,32 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="5" t="s">
+      <c r="G35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3598,32 +3598,32 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="D36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D36" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="G36" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3631,32 +3631,32 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D37" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="G37" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3664,32 +3664,32 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="C38" s="28" t="s">
-        <v>139</v>
-      </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3697,31 +3697,31 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C39" s="28" t="s">
-        <v>141</v>
-      </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K39" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3729,31 +3729,31 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="28" t="s">
-        <v>143</v>
-      </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F40" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K40" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="165" x14ac:dyDescent="0.25">
@@ -3761,31 +3761,31 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="D41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D41" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="5" t="s">
+      <c r="G41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H41" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>147</v>
-      </c>
       <c r="J41" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3793,31 +3793,31 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="C42" s="28" t="s">
-        <v>149</v>
-      </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K42" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3825,31 +3825,31 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="D43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D43" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="5" t="s">
+      <c r="G43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>153</v>
-      </c>
       <c r="J43" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3857,34 +3857,34 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="D44" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D44" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="5" t="s">
+      <c r="G44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H44" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H44" s="5" t="s">
+      <c r="I44" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="I44" s="24" t="s">
-        <v>158</v>
-      </c>
       <c r="J44" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K44" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3892,31 +3892,31 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="C45" s="28" t="s">
-        <v>160</v>
-      </c>
       <c r="D45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F45" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H45" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="J45" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3924,31 +3924,31 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="C46" s="28" t="s">
-        <v>162</v>
-      </c>
       <c r="D46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K46" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3956,31 +3956,31 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="D47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D47" t="s">
-        <v>53</v>
-      </c>
-      <c r="E47" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="5" t="s">
+      <c r="G47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H47" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>166</v>
-      </c>
       <c r="J47" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3988,31 +3988,31 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C48" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="C48" s="28" t="s">
-        <v>168</v>
-      </c>
       <c r="D48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K48" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4020,31 +4020,31 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="D49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D49" t="s">
-        <v>53</v>
-      </c>
-      <c r="E49" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>171</v>
-      </c>
       <c r="G49" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="105" x14ac:dyDescent="0.25">
@@ -4052,31 +4052,31 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="D50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D50" t="s">
-        <v>53</v>
-      </c>
-      <c r="E50" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="7" t="s">
+      <c r="G50" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H50" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>175</v>
-      </c>
       <c r="J50" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4084,31 +4084,31 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="D51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D51" t="s">
-        <v>53</v>
-      </c>
-      <c r="E51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>178</v>
-      </c>
       <c r="G51" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4116,34 +4116,34 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="D52" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D52" t="s">
-        <v>53</v>
-      </c>
-      <c r="E52" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="8" t="s">
+      <c r="G52" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H52" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="I52" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H52" s="25" t="s">
-        <v>384</v>
-      </c>
-      <c r="I52" s="26" t="s">
-        <v>182</v>
-      </c>
       <c r="J52" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4151,34 +4151,34 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="C53" s="28" t="s">
-        <v>184</v>
-      </c>
       <c r="D53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F53" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H53" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="I53" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H53" s="25" t="s">
-        <v>384</v>
-      </c>
-      <c r="I53" s="26" t="s">
-        <v>182</v>
-      </c>
       <c r="J53" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -4186,31 +4186,31 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="C54" s="28" t="s">
+      <c r="D54" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D54" t="s">
-        <v>53</v>
-      </c>
-      <c r="E54" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>187</v>
-      </c>
       <c r="G54" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4218,31 +4218,31 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="C55" s="28" t="s">
-        <v>189</v>
-      </c>
       <c r="D55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F55" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K55" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -4250,31 +4250,31 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C56" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="C56" s="28" t="s">
-        <v>191</v>
-      </c>
       <c r="D56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F56" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K56" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -4282,31 +4282,31 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C57" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="C57" s="28" t="s">
-        <v>193</v>
-      </c>
       <c r="D57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F57" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K57" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -4314,31 +4314,31 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C58" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="C58" s="28" t="s">
+      <c r="D58" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D58" t="s">
-        <v>53</v>
-      </c>
-      <c r="E58" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>196</v>
-      </c>
       <c r="G58" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4346,31 +4346,31 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C59" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="C59" s="28" t="s">
-        <v>198</v>
-      </c>
       <c r="D59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F59" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K59" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -4378,31 +4378,31 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C60" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="C60" s="28" t="s">
-        <v>200</v>
-      </c>
       <c r="D60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F60" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K60" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -4410,31 +4410,31 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C61" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="C61" s="28" t="s">
-        <v>202</v>
-      </c>
       <c r="D61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F61" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K61" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -4442,31 +4442,31 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C62" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="C62" s="28" t="s">
-        <v>204</v>
-      </c>
       <c r="D62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F62" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K62" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -4474,31 +4474,31 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C63" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="C63" s="28" t="s">
-        <v>206</v>
-      </c>
       <c r="D63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F63" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K63" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4506,31 +4506,31 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C64" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="C64" s="28" t="s">
-        <v>208</v>
-      </c>
       <c r="D64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F64" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K64" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4538,31 +4538,31 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C65" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="C65" s="28" t="s">
-        <v>210</v>
-      </c>
       <c r="D65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F65" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K65" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4570,31 +4570,31 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C66" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="C66" s="28" t="s">
+      <c r="D66" t="s">
+        <v>52</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D66" t="s">
-        <v>53</v>
-      </c>
-      <c r="E66" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="5" t="s">
+      <c r="G66" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H66" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>214</v>
-      </c>
       <c r="J66" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4602,31 +4602,31 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C67" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="C67" s="28" t="s">
+      <c r="D67" t="s">
+        <v>52</v>
+      </c>
+      <c r="E67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D67" t="s">
-        <v>53</v>
-      </c>
-      <c r="E67" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>217</v>
-      </c>
       <c r="G67" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K67" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -4634,31 +4634,31 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C68" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="C68" s="28" t="s">
+      <c r="D68" t="s">
+        <v>52</v>
+      </c>
+      <c r="E68" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D68" t="s">
-        <v>53</v>
-      </c>
-      <c r="E68" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="5" t="s">
+      <c r="G68" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H68" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="G68" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="J68" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4666,31 +4666,31 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C69" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="C69" s="28" t="s">
+      <c r="D69" t="s">
+        <v>52</v>
+      </c>
+      <c r="E69" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="D69" t="s">
-        <v>53</v>
-      </c>
-      <c r="E69" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" s="5" t="s">
+      <c r="G69" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H69" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="G69" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>225</v>
-      </c>
       <c r="J69" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4698,31 +4698,31 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C70" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="C70" s="28" t="s">
-        <v>227</v>
-      </c>
       <c r="D70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F70" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K70" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4730,31 +4730,31 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C71" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="C71" s="28" t="s">
+      <c r="D71" t="s">
+        <v>52</v>
+      </c>
+      <c r="E71" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="D71" t="s">
-        <v>53</v>
-      </c>
-      <c r="E71" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" s="7" t="s">
+      <c r="G71" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H71" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>231</v>
-      </c>
       <c r="J71" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4762,32 +4762,32 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>231</v>
+      </c>
+      <c r="C72" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="C72" s="28" t="s">
+      <c r="D72" t="s">
+        <v>52</v>
+      </c>
+      <c r="E72" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="D72" t="s">
-        <v>53</v>
-      </c>
-      <c r="E72" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>234</v>
-      </c>
       <c r="G72" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I72" s="7"/>
       <c r="J72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K72" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4795,31 +4795,31 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>234</v>
+      </c>
+      <c r="C73" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="C73" s="28" t="s">
-        <v>236</v>
-      </c>
       <c r="D73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F73" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K73" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="150" x14ac:dyDescent="0.25">
@@ -4827,31 +4827,31 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>236</v>
+      </c>
+      <c r="C74" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="C74" s="28" t="s">
+      <c r="D74" t="s">
+        <v>52</v>
+      </c>
+      <c r="E74" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="D74" t="s">
-        <v>53</v>
-      </c>
-      <c r="E74" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" s="5" t="s">
+      <c r="G74" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H74" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="G74" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>240</v>
-      </c>
       <c r="J74" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4859,31 +4859,31 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>240</v>
+      </c>
+      <c r="C75" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="C75" s="28" t="s">
+      <c r="D75" t="s">
+        <v>52</v>
+      </c>
+      <c r="E75" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D75" t="s">
-        <v>53</v>
-      </c>
-      <c r="E75" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="5" t="s">
+      <c r="G75" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H75" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="G75" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>244</v>
-      </c>
       <c r="J75" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4891,31 +4891,31 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>244</v>
+      </c>
+      <c r="C76" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="C76" s="28" t="s">
+      <c r="D76" t="s">
+        <v>52</v>
+      </c>
+      <c r="E76" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D76" t="s">
-        <v>53</v>
-      </c>
-      <c r="E76" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="5" t="s">
+      <c r="G76" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H76" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="G76" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H76" s="5" t="s">
-        <v>248</v>
-      </c>
       <c r="J76" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4923,31 +4923,31 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>248</v>
+      </c>
+      <c r="C77" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="C77" s="28" t="s">
+      <c r="D77" t="s">
+        <v>52</v>
+      </c>
+      <c r="E77" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D77" t="s">
-        <v>53</v>
-      </c>
-      <c r="E77" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="5" t="s">
+      <c r="G77" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H77" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="G77" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>252</v>
-      </c>
       <c r="J77" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4955,31 +4955,31 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>252</v>
+      </c>
+      <c r="C78" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="C78" s="28" t="s">
-        <v>254</v>
-      </c>
       <c r="D78" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F78" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K78" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4987,31 +4987,31 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>254</v>
+      </c>
+      <c r="C79" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="C79" s="28" t="s">
-        <v>256</v>
-      </c>
       <c r="D79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F79" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K79" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5019,31 +5019,31 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>256</v>
+      </c>
+      <c r="C80" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="C80" s="28" t="s">
-        <v>258</v>
-      </c>
       <c r="D80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F80" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K80" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -5051,31 +5051,31 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>258</v>
+      </c>
+      <c r="C81" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="C81" s="28" t="s">
+      <c r="D81" t="s">
+        <v>52</v>
+      </c>
+      <c r="E81" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D81" t="s">
-        <v>53</v>
-      </c>
-      <c r="E81" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="5" t="s">
+      <c r="G81" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H81" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="G81" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H81" s="5" t="s">
-        <v>262</v>
-      </c>
       <c r="J81" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5083,31 +5083,31 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>262</v>
+      </c>
+      <c r="C82" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="C82" s="28" t="s">
-        <v>264</v>
-      </c>
       <c r="D82" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F82" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K82" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5115,31 +5115,31 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>264</v>
+      </c>
+      <c r="C83" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="C83" s="28" t="s">
+      <c r="D83" t="s">
+        <v>52</v>
+      </c>
+      <c r="E83" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D83" t="s">
-        <v>53</v>
-      </c>
-      <c r="E83" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="5" t="s">
+      <c r="G83" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H83" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G83" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>268</v>
-      </c>
       <c r="J83" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -5147,31 +5147,31 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C84" s="28" t="s">
         <v>269</v>
       </c>
-      <c r="C84" s="28" t="s">
+      <c r="D84" t="s">
+        <v>52</v>
+      </c>
+      <c r="E84" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="D84" t="s">
-        <v>53</v>
-      </c>
-      <c r="E84" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="G84" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J84" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K84" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5179,31 +5179,31 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>271</v>
+      </c>
+      <c r="C85" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="C85" s="28" t="s">
+      <c r="D85" t="s">
+        <v>52</v>
+      </c>
+      <c r="E85" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D85" t="s">
-        <v>53</v>
-      </c>
-      <c r="E85" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>274</v>
-      </c>
       <c r="G85" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K85" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5211,32 +5211,32 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>274</v>
+      </c>
+      <c r="C86" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="C86" s="28" t="s">
+      <c r="D86" t="s">
+        <v>52</v>
+      </c>
+      <c r="E86" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D86" t="s">
-        <v>53</v>
-      </c>
-      <c r="E86" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>277</v>
-      </c>
       <c r="G86" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I86" s="7"/>
       <c r="J86" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K86" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5244,31 +5244,31 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>277</v>
+      </c>
+      <c r="C87" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="C87" s="28" t="s">
-        <v>279</v>
-      </c>
       <c r="D87" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F87" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K87" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -5276,31 +5276,31 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>279</v>
+      </c>
+      <c r="C88" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="C88" s="28" t="s">
-        <v>281</v>
-      </c>
       <c r="D88" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F88" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K88" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J88" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K88" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5308,31 +5308,31 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>281</v>
+      </c>
+      <c r="C89" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="C89" s="28" t="s">
-        <v>283</v>
-      </c>
       <c r="D89" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F89" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K89" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J89" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K89" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -5340,31 +5340,31 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>283</v>
+      </c>
+      <c r="C90" s="28" t="s">
         <v>284</v>
       </c>
-      <c r="C90" s="28" t="s">
+      <c r="D90" t="s">
+        <v>52</v>
+      </c>
+      <c r="E90" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="D90" t="s">
-        <v>53</v>
-      </c>
-      <c r="E90" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" s="5" t="s">
+      <c r="G90" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H90" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="G90" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H90" s="5" t="s">
-        <v>287</v>
-      </c>
       <c r="J90" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -5372,31 +5372,31 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>287</v>
+      </c>
+      <c r="C91" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="C91" s="28" t="s">
+      <c r="D91" t="s">
+        <v>52</v>
+      </c>
+      <c r="E91" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="D91" t="s">
-        <v>53</v>
-      </c>
-      <c r="E91" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="5" t="s">
+      <c r="G91" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H91" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="G91" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H91" s="5" t="s">
-        <v>291</v>
-      </c>
       <c r="J91" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5404,31 +5404,31 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>291</v>
+      </c>
+      <c r="C92" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="C92" s="28" t="s">
+      <c r="D92" t="s">
+        <v>52</v>
+      </c>
+      <c r="E92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D92" t="s">
-        <v>53</v>
-      </c>
-      <c r="E92" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>294</v>
-      </c>
       <c r="G92" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J92" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K92" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="K92" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="120" x14ac:dyDescent="0.25">
@@ -5436,31 +5436,31 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>294</v>
+      </c>
+      <c r="C93" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="C93" s="28" t="s">
+      <c r="D93" t="s">
+        <v>52</v>
+      </c>
+      <c r="E93" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D93" t="s">
-        <v>53</v>
-      </c>
-      <c r="E93" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" s="5" t="s">
+      <c r="G93" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H93" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="G93" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H93" s="5" t="s">
-        <v>298</v>
-      </c>
       <c r="J93" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -5468,31 +5468,31 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>298</v>
+      </c>
+      <c r="C94" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="C94" s="28" t="s">
+      <c r="D94" t="s">
+        <v>52</v>
+      </c>
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="D94" t="s">
-        <v>53</v>
-      </c>
-      <c r="E94" t="s">
-        <v>14</v>
-      </c>
-      <c r="F94" s="5" t="s">
+      <c r="G94" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H94" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="G94" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>302</v>
-      </c>
       <c r="J94" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5500,31 +5500,31 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>302</v>
+      </c>
+      <c r="C95" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="C95" s="28" t="s">
+      <c r="D95" t="s">
+        <v>52</v>
+      </c>
+      <c r="E95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D95" t="s">
-        <v>53</v>
-      </c>
-      <c r="E95" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="5" t="s">
+      <c r="G95" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H95" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="G95" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H95" s="5" t="s">
-        <v>306</v>
-      </c>
       <c r="J95" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5532,34 +5532,34 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>306</v>
+      </c>
+      <c r="C96" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="C96" s="28" t="s">
+      <c r="D96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E96" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="D96" t="s">
-        <v>53</v>
-      </c>
-      <c r="E96" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" s="4" t="s">
+      <c r="G96" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I96" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="G96" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I96" s="7" t="s">
+      <c r="J96" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K96" s="23" t="s">
         <v>310</v>
-      </c>
-      <c r="J96" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="K96" s="23" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -5567,31 +5567,31 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>311</v>
+      </c>
+      <c r="C97" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="C97" s="28" t="s">
-        <v>313</v>
-      </c>
       <c r="D97" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F97" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K97" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -5599,31 +5599,31 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>313</v>
+      </c>
+      <c r="C98" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="C98" s="28" t="s">
-        <v>315</v>
-      </c>
       <c r="D98" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J98" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K98" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="K98" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5631,31 +5631,31 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>315</v>
+      </c>
+      <c r="C99" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="C99" s="28" t="s">
-        <v>317</v>
-      </c>
       <c r="D99" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F99" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K99" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J99" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K99" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5663,31 +5663,31 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C100" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="C100" s="28" t="s">
-        <v>319</v>
-      </c>
       <c r="D100" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F100" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K100" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J100" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K100" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5695,31 +5695,31 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>319</v>
+      </c>
+      <c r="C101" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="C101" s="28" t="s">
+      <c r="D101" t="s">
+        <v>52</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="D101" t="s">
-        <v>53</v>
-      </c>
-      <c r="E101" t="s">
-        <v>14</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>322</v>
-      </c>
       <c r="G101" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J101" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K101" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="K101" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5727,31 +5727,31 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>322</v>
+      </c>
+      <c r="C102" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="C102" s="28" t="s">
+      <c r="D102" t="s">
+        <v>52</v>
+      </c>
+      <c r="E102" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="D102" t="s">
-        <v>53</v>
-      </c>
-      <c r="E102" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>325</v>
-      </c>
       <c r="G102" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K102" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="K102" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5759,31 +5759,31 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>325</v>
+      </c>
+      <c r="C103" s="28" t="s">
         <v>326</v>
       </c>
-      <c r="C103" s="28" t="s">
+      <c r="D103" t="s">
+        <v>52</v>
+      </c>
+      <c r="E103" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="D103" t="s">
-        <v>53</v>
-      </c>
-      <c r="E103" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>328</v>
-      </c>
       <c r="G103" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J103" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K103" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="K103" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5791,31 +5791,31 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
+        <v>328</v>
+      </c>
+      <c r="C104" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="C104" s="28" t="s">
-        <v>330</v>
-      </c>
       <c r="D104" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F104" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K104" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J104" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K104" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5823,31 +5823,31 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>330</v>
+      </c>
+      <c r="C105" s="28" t="s">
         <v>331</v>
       </c>
-      <c r="C105" s="28" t="s">
+      <c r="D105" t="s">
+        <v>52</v>
+      </c>
+      <c r="E105" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="D105" t="s">
-        <v>53</v>
-      </c>
-      <c r="E105" t="s">
-        <v>14</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>333</v>
-      </c>
       <c r="G105" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J105" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K105" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="K105" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5855,31 +5855,31 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>333</v>
+      </c>
+      <c r="C106" s="28" t="s">
         <v>334</v>
       </c>
-      <c r="C106" s="28" t="s">
-        <v>335</v>
-      </c>
       <c r="D106" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F106" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K106" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K106" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -5887,31 +5887,31 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
+        <v>335</v>
+      </c>
+      <c r="C107" s="28" t="s">
         <v>336</v>
       </c>
-      <c r="C107" s="28" t="s">
-        <v>337</v>
-      </c>
       <c r="D107" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F107" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K107" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K107" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -5919,31 +5919,31 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>337</v>
+      </c>
+      <c r="C108" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="C108" s="28" t="s">
+      <c r="D108" t="s">
+        <v>52</v>
+      </c>
+      <c r="E108" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="D108" t="s">
-        <v>53</v>
-      </c>
-      <c r="E108" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>340</v>
-      </c>
       <c r="G108" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J108" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K108" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="K108" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -5951,31 +5951,31 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>340</v>
+      </c>
+      <c r="C109" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="C109" s="28" t="s">
+      <c r="D109" t="s">
+        <v>52</v>
+      </c>
+      <c r="E109" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="D109" t="s">
-        <v>53</v>
-      </c>
-      <c r="E109" t="s">
-        <v>14</v>
-      </c>
-      <c r="F109" s="29" t="s">
+      <c r="G109" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H109" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="G109" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H109" s="29" t="s">
-        <v>344</v>
-      </c>
       <c r="J109" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5983,31 +5983,31 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
+        <v>344</v>
+      </c>
+      <c r="C110" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="C110" s="28" t="s">
-        <v>346</v>
-      </c>
       <c r="D110" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E110" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F110" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K110" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K110" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -6015,31 +6015,31 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
+        <v>346</v>
+      </c>
+      <c r="C111" s="28" t="s">
         <v>347</v>
       </c>
-      <c r="C111" s="28" t="s">
-        <v>348</v>
-      </c>
       <c r="D111" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F111" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K111" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J111" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K111" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6047,31 +6047,31 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
+        <v>348</v>
+      </c>
+      <c r="C112" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="C112" s="28" t="s">
-        <v>350</v>
-      </c>
       <c r="D112" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F112" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K112" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J112" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K112" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -6079,31 +6079,31 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
+        <v>350</v>
+      </c>
+      <c r="C113" s="28" t="s">
         <v>351</v>
       </c>
-      <c r="C113" s="28" t="s">
-        <v>352</v>
-      </c>
       <c r="D113" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E113" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F113" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K113" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J113" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K113" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -6111,31 +6111,31 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
+        <v>352</v>
+      </c>
+      <c r="C114" s="28" t="s">
         <v>353</v>
       </c>
-      <c r="C114" s="28" t="s">
-        <v>354</v>
-      </c>
       <c r="D114" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F114" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K114" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J114" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K114" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6143,31 +6143,31 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
+        <v>354</v>
+      </c>
+      <c r="C115" s="28" t="s">
         <v>355</v>
       </c>
-      <c r="C115" s="28" t="s">
-        <v>356</v>
-      </c>
       <c r="D115" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F115" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K115" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J115" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K115" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -6175,31 +6175,31 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
+        <v>356</v>
+      </c>
+      <c r="C116" s="28" t="s">
         <v>357</v>
       </c>
-      <c r="C116" s="28" t="s">
-        <v>358</v>
-      </c>
       <c r="D116" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E116" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F116" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K116" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K116" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6207,31 +6207,31 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
+        <v>358</v>
+      </c>
+      <c r="C117" s="28" t="s">
         <v>359</v>
       </c>
-      <c r="C117" s="28" t="s">
-        <v>360</v>
-      </c>
       <c r="D117" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F117" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K117" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K117" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -6239,31 +6239,31 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
+        <v>360</v>
+      </c>
+      <c r="C118" s="28" t="s">
         <v>361</v>
       </c>
-      <c r="C118" s="28" t="s">
-        <v>362</v>
-      </c>
       <c r="D118" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F118" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K118" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J118" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K118" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6271,31 +6271,31 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
+        <v>362</v>
+      </c>
+      <c r="C119" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="C119" s="28" t="s">
-        <v>364</v>
-      </c>
       <c r="D119" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F119" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K119" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J119" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K119" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -6303,31 +6303,31 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
+        <v>364</v>
+      </c>
+      <c r="C120" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="C120" s="28" t="s">
-        <v>366</v>
-      </c>
       <c r="D120" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F120" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K120" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J120" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K120" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6335,31 +6335,31 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
+        <v>366</v>
+      </c>
+      <c r="C121" s="28" t="s">
         <v>367</v>
       </c>
-      <c r="C121" s="28" t="s">
-        <v>368</v>
-      </c>
       <c r="D121" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F121" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K121" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J121" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K121" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -6367,31 +6367,31 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
+        <v>368</v>
+      </c>
+      <c r="C122" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="C122" s="28" t="s">
-        <v>370</v>
-      </c>
       <c r="D122" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F122" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K122" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J122" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K122" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6399,31 +6399,31 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
+        <v>370</v>
+      </c>
+      <c r="C123" s="28" t="s">
         <v>371</v>
       </c>
-      <c r="C123" s="28" t="s">
-        <v>372</v>
-      </c>
       <c r="D123" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E123" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F123" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K123" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J123" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K123" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -6431,31 +6431,31 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
+        <v>372</v>
+      </c>
+      <c r="C124" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="C124" s="28" t="s">
-        <v>374</v>
-      </c>
       <c r="D124" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E124" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F124" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K124" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J124" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K124" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6463,31 +6463,31 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
+        <v>374</v>
+      </c>
+      <c r="C125" s="28" t="s">
         <v>375</v>
       </c>
-      <c r="C125" s="28" t="s">
-        <v>376</v>
-      </c>
       <c r="D125" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E125" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F125" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K125" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J125" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K125" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6495,31 +6495,31 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
+        <v>376</v>
+      </c>
+      <c r="C126" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="C126" s="28" t="s">
-        <v>378</v>
-      </c>
       <c r="D126" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E126" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F126" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K126" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J126" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K126" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6527,31 +6527,31 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
+        <v>378</v>
+      </c>
+      <c r="C127" s="28" t="s">
         <v>379</v>
       </c>
-      <c r="C127" s="28" t="s">
+      <c r="D127" t="s">
+        <v>52</v>
+      </c>
+      <c r="E127" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="D127" t="s">
-        <v>53</v>
-      </c>
-      <c r="E127" t="s">
-        <v>14</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>381</v>
-      </c>
       <c r="G127" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J127" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K127" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="K127" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6559,31 +6559,31 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
+        <v>381</v>
+      </c>
+      <c r="C128" s="28" t="s">
         <v>382</v>
       </c>
-      <c r="C128" s="28" t="s">
-        <v>383</v>
-      </c>
       <c r="D128" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E128" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F128" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K128" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J128" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K128" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -6596,15 +6596,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -6845,6 +6836,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -6858,14 +6858,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E89B3EC5-962B-41D9-9821-3A191D2434CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E439D2B-51AD-4E06-8372-8EFF42F9F325}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6880,6 +6872,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E89B3EC5-962B-41D9-9821-3A191D2434CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/rmonize/data_proc_elem/DPE_LISA_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_LISA_P1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACFFADD-5B90-4A2B-8924-3CED3F5D4F13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E19076-4CAA-402B-BDF9-3A87CCAC7FDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="385">
   <si>
     <t>index</t>
   </si>
@@ -60,22 +60,12 @@
     <t>Mlstr_harmo::status_detail</t>
   </si>
   <si>
-    <t>variable_ID</t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
     <t>LISA_P1</t>
   </si>
   <si>
-    <t>col_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-id_creation</t>
-  </si>
-  <si>
     <t>id_creation</t>
   </si>
   <si>
@@ -110,24 +100,6 @@
   </si>
   <si>
     <t>Education</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">MUTBILD_0 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Mother</t>
-    </r>
   </si>
   <si>
     <t>recode</t>
@@ -563,14 +535,6 @@
     <t>Intake of pastas and rice [g/d]</t>
   </si>
   <si>
-    <t xml:space="preserve">FFQNUD_15;  
-FFQREIS_15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FFQNUD_15 +  
-FFQREIS_15 </t>
-  </si>
-  <si>
     <t>BREAD_PROD_0603</t>
   </si>
   <si>
@@ -630,10 +594,6 @@
   </si>
   <si>
     <t>Intake of fine bakery wares [g/d]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FFQCROIS_15 
-</t>
   </si>
   <si>
     <t>MEAT_PROD_07</t>
@@ -1090,9 +1050,6 @@
     <t>Intake of sponge biscuits and plain cakes [g/d]</t>
   </si>
   <si>
-    <t xml:space="preserve">FFQRUEHRK_15  </t>
-  </si>
-  <si>
     <t>NONALC_BEV_13</t>
   </si>
   <si>
@@ -1203,9 +1160,6 @@
   </si>
   <si>
     <t>Alcoholic beverage intake [g/d]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K_FB_alkgetr_15 </t>
   </si>
   <si>
     <t>WINE_1401</t>
@@ -1442,12 +1396,57 @@
   <si>
     <t>Participant identification number</t>
   </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>MUTBILD_0</t>
+  </si>
+  <si>
+    <t>FFQNUD_15;  
+FFQREIS_15</t>
+  </si>
+  <si>
+    <t>FFQCROIS_15</t>
+  </si>
+  <si>
+    <t>FFQRUEHRK_15</t>
+  </si>
+  <si>
+    <t>K_FB_alkgetr_15</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">K_FB_alkgetr_cocktail_15 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>K_FB_alkgetr_alkopops_15</t>
+    </r>
+  </si>
+  <si>
+    <t>FFQNUD_15 + FFQREIS_15</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1630,11 +1629,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -2009,7 +2003,7 @@
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2045,20 +2039,14 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2066,10 +2054,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2078,7 +2066,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2442,8 +2430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2493,37 +2481,36 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="K2" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2531,32 +2518,32 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>18</v>
+      <c r="H3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2564,32 +2551,32 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>21</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>18</v>
+      <c r="G4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2597,32 +2584,32 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="I5" s="15"/>
+      <c r="J5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -2630,30 +2617,30 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>31</v>
+      <c r="H6" s="20"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2661,32 +2648,32 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="K7" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2694,32 +2681,32 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>18</v>
+        <v>41</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2727,32 +2714,32 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>18</v>
+        <v>44</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="105" x14ac:dyDescent="0.25">
@@ -2760,34 +2747,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="I10" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D10" t="s">
+      <c r="J10" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="21" t="s">
         <v>52</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="23" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2795,31 +2782,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>58</v>
+        <v>53</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2827,31 +2814,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -2859,31 +2846,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2891,31 +2878,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>68</v>
+        <v>63</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2923,31 +2910,31 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2955,31 +2942,31 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>75</v>
+        <v>70</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2987,31 +2974,31 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>78</v>
+        <v>73</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -3019,31 +3006,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>81</v>
+        <v>76</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3051,31 +3038,31 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>83</v>
+        <v>78</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3083,31 +3070,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>85</v>
+        <v>80</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3115,31 +3102,31 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>87</v>
+        <v>82</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3147,31 +3134,31 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>89</v>
+        <v>84</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3179,31 +3166,31 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>91</v>
+        <v>86</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3211,31 +3198,31 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3243,32 +3230,32 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>96</v>
+        <v>91</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>92</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3276,31 +3263,31 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>100</v>
+        <v>95</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3308,31 +3295,31 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>104</v>
+        <v>99</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3340,31 +3327,31 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>107</v>
+        <v>102</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3372,31 +3359,31 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>109</v>
+        <v>104</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>105</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="135" x14ac:dyDescent="0.25">
@@ -3404,31 +3391,31 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>111</v>
+        <v>106</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3436,31 +3423,31 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>115</v>
+        <v>110</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>111</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3468,31 +3455,31 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>118</v>
+        <v>113</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>114</v>
       </c>
       <c r="D32" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3500,31 +3487,31 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>122</v>
+        <v>117</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>118</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3532,32 +3519,32 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>125</v>
+        <v>120</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>121</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3565,32 +3552,32 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>128</v>
+        <v>123</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>124</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K35" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3598,32 +3585,32 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>132</v>
+        <v>127</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>128</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3631,32 +3618,32 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>135</v>
+        <v>130</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>131</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3664,32 +3651,32 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>138</v>
+        <v>133</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>134</v>
       </c>
       <c r="D38" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3697,31 +3684,31 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>140</v>
+        <v>135</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>136</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3729,31 +3716,31 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C40" s="28" t="s">
-        <v>142</v>
+        <v>137</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>138</v>
       </c>
       <c r="D40" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="165" x14ac:dyDescent="0.25">
@@ -3761,31 +3748,31 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>144</v>
+        <v>139</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>140</v>
       </c>
       <c r="D41" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3793,31 +3780,31 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C42" s="28" t="s">
-        <v>148</v>
+        <v>143</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="D42" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3825,31 +3812,31 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C43" s="28" t="s">
-        <v>150</v>
+        <v>145</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>146</v>
       </c>
       <c r="D43" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>151</v>
+        <v>379</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>152</v>
+        <v>384</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3857,34 +3844,34 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>154</v>
+        <v>147</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>148</v>
       </c>
       <c r="D44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I44" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="J44" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="K44" s="21" t="s">
         <v>52</v>
-      </c>
-      <c r="E44" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="I44" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="J44" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="K44" s="23" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3892,31 +3879,31 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C45" s="28" t="s">
-        <v>159</v>
+        <v>152</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>153</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3924,31 +3911,31 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>161</v>
+        <v>154</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>155</v>
       </c>
       <c r="D46" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3956,31 +3943,31 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>163</v>
+        <v>156</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>157</v>
       </c>
       <c r="D47" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3988,31 +3975,31 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>167</v>
+        <v>160</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>161</v>
       </c>
       <c r="D48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4020,31 +4007,31 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C49" s="28" t="s">
-        <v>169</v>
+        <v>162</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>163</v>
       </c>
       <c r="D49" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>170</v>
+        <v>380</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="105" x14ac:dyDescent="0.25">
@@ -4052,31 +4039,31 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C50" s="28" t="s">
-        <v>172</v>
+        <v>164</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>165</v>
       </c>
       <c r="D50" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4084,31 +4071,31 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C51" s="28" t="s">
-        <v>176</v>
+        <v>168</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="D51" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4116,34 +4103,34 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C52" s="28" t="s">
-        <v>179</v>
+        <v>171</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>172</v>
       </c>
       <c r="D52" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H52" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="I52" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K52" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="E52" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H52" s="25" t="s">
-        <v>383</v>
-      </c>
-      <c r="I52" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4151,34 +4138,34 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C53" s="28" t="s">
-        <v>183</v>
+        <v>175</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>176</v>
       </c>
       <c r="D53" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="I53" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K53" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="E53" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H53" s="25" t="s">
-        <v>383</v>
-      </c>
-      <c r="I53" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -4186,31 +4173,31 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C54" s="28" t="s">
-        <v>185</v>
+        <v>177</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>178</v>
       </c>
       <c r="D54" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4218,31 +4205,31 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>188</v>
+        <v>180</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>181</v>
       </c>
       <c r="D55" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -4250,31 +4237,31 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C56" s="28" t="s">
-        <v>190</v>
+        <v>182</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>183</v>
       </c>
       <c r="D56" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -4282,31 +4269,31 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C57" s="28" t="s">
-        <v>192</v>
+        <v>184</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>185</v>
       </c>
       <c r="D57" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -4314,31 +4301,31 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C58" s="28" t="s">
-        <v>194</v>
+        <v>186</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>187</v>
       </c>
       <c r="D58" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4346,31 +4333,31 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C59" s="28" t="s">
-        <v>197</v>
+        <v>189</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>190</v>
       </c>
       <c r="D59" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -4378,31 +4365,31 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C60" s="28" t="s">
-        <v>199</v>
+        <v>191</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="D60" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -4410,31 +4397,31 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C61" s="28" t="s">
-        <v>201</v>
+        <v>193</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>194</v>
       </c>
       <c r="D61" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -4442,31 +4429,31 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C62" s="28" t="s">
-        <v>203</v>
+        <v>195</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>196</v>
       </c>
       <c r="D62" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -4474,31 +4461,31 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C63" s="28" t="s">
-        <v>205</v>
+        <v>197</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>198</v>
       </c>
       <c r="D63" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4506,31 +4493,31 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C64" s="28" t="s">
-        <v>207</v>
+        <v>199</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>200</v>
       </c>
       <c r="D64" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4538,31 +4525,31 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C65" s="28" t="s">
-        <v>209</v>
+        <v>201</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>202</v>
       </c>
       <c r="D65" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4570,31 +4557,31 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C66" s="28" t="s">
-        <v>211</v>
+        <v>203</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>204</v>
       </c>
       <c r="D66" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4602,31 +4589,31 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C67" s="28" t="s">
-        <v>215</v>
+        <v>207</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>208</v>
       </c>
       <c r="D67" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -4634,31 +4621,31 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C68" s="28" t="s">
-        <v>218</v>
+        <v>210</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>211</v>
       </c>
       <c r="D68" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4666,31 +4653,31 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C69" s="28" t="s">
-        <v>222</v>
+        <v>214</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>215</v>
       </c>
       <c r="D69" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4698,31 +4685,31 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C70" s="28" t="s">
-        <v>226</v>
+        <v>218</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>219</v>
       </c>
       <c r="D70" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4730,31 +4717,31 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C71" s="28" t="s">
-        <v>228</v>
+        <v>220</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>221</v>
       </c>
       <c r="D71" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4762,32 +4749,32 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>231</v>
-      </c>
-      <c r="C72" s="28" t="s">
-        <v>232</v>
+        <v>224</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>225</v>
       </c>
       <c r="D72" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I72" s="7"/>
       <c r="J72" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4795,31 +4782,31 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>234</v>
-      </c>
-      <c r="C73" s="28" t="s">
-        <v>235</v>
+        <v>227</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>228</v>
       </c>
       <c r="D73" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="150" x14ac:dyDescent="0.25">
@@ -4827,31 +4814,31 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>236</v>
-      </c>
-      <c r="C74" s="28" t="s">
-        <v>237</v>
+        <v>229</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>230</v>
       </c>
       <c r="D74" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4859,31 +4846,31 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>240</v>
-      </c>
-      <c r="C75" s="28" t="s">
-        <v>241</v>
+        <v>233</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>234</v>
       </c>
       <c r="D75" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4891,31 +4878,31 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>244</v>
-      </c>
-      <c r="C76" s="28" t="s">
-        <v>245</v>
+        <v>237</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>238</v>
       </c>
       <c r="D76" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4923,31 +4910,31 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>248</v>
-      </c>
-      <c r="C77" s="28" t="s">
-        <v>249</v>
+        <v>241</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>242</v>
       </c>
       <c r="D77" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4955,31 +4942,31 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>252</v>
-      </c>
-      <c r="C78" s="28" t="s">
-        <v>253</v>
+        <v>245</v>
+      </c>
+      <c r="C78" s="26" t="s">
+        <v>246</v>
       </c>
       <c r="D78" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4987,31 +4974,31 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>254</v>
-      </c>
-      <c r="C79" s="28" t="s">
-        <v>255</v>
+        <v>247</v>
+      </c>
+      <c r="C79" s="26" t="s">
+        <v>248</v>
       </c>
       <c r="D79" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5019,31 +5006,31 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>256</v>
-      </c>
-      <c r="C80" s="28" t="s">
-        <v>257</v>
+        <v>249</v>
+      </c>
+      <c r="C80" s="26" t="s">
+        <v>250</v>
       </c>
       <c r="D80" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -5051,31 +5038,31 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>258</v>
-      </c>
-      <c r="C81" s="28" t="s">
-        <v>259</v>
+        <v>251</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>252</v>
       </c>
       <c r="D81" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5083,31 +5070,31 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>262</v>
-      </c>
-      <c r="C82" s="28" t="s">
-        <v>263</v>
+        <v>255</v>
+      </c>
+      <c r="C82" s="26" t="s">
+        <v>256</v>
       </c>
       <c r="D82" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5115,31 +5102,31 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>264</v>
-      </c>
-      <c r="C83" s="28" t="s">
-        <v>265</v>
+        <v>257</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>258</v>
       </c>
       <c r="D83" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -5147,31 +5134,31 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C84" s="28" t="s">
-        <v>269</v>
+        <v>261</v>
+      </c>
+      <c r="C84" s="26" t="s">
+        <v>262</v>
       </c>
       <c r="D84" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5179,31 +5166,31 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>271</v>
-      </c>
-      <c r="C85" s="28" t="s">
-        <v>272</v>
+        <v>264</v>
+      </c>
+      <c r="C85" s="26" t="s">
+        <v>265</v>
       </c>
       <c r="D85" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5211,32 +5198,32 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>274</v>
-      </c>
-      <c r="C86" s="28" t="s">
-        <v>275</v>
+        <v>267</v>
+      </c>
+      <c r="C86" s="26" t="s">
+        <v>268</v>
       </c>
       <c r="D86" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I86" s="7"/>
       <c r="J86" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5244,31 +5231,31 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>277</v>
-      </c>
-      <c r="C87" s="28" t="s">
-        <v>278</v>
+        <v>270</v>
+      </c>
+      <c r="C87" s="26" t="s">
+        <v>271</v>
       </c>
       <c r="D87" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -5276,31 +5263,31 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>279</v>
-      </c>
-      <c r="C88" s="28" t="s">
-        <v>280</v>
+        <v>272</v>
+      </c>
+      <c r="C88" s="26" t="s">
+        <v>273</v>
       </c>
       <c r="D88" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5308,31 +5295,31 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>281</v>
-      </c>
-      <c r="C89" s="28" t="s">
-        <v>282</v>
+        <v>274</v>
+      </c>
+      <c r="C89" s="26" t="s">
+        <v>275</v>
       </c>
       <c r="D89" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -5340,31 +5327,31 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>283</v>
-      </c>
-      <c r="C90" s="28" t="s">
-        <v>284</v>
+        <v>276</v>
+      </c>
+      <c r="C90" s="26" t="s">
+        <v>277</v>
       </c>
       <c r="D90" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -5372,31 +5359,31 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>287</v>
-      </c>
-      <c r="C91" s="28" t="s">
-        <v>288</v>
+        <v>280</v>
+      </c>
+      <c r="C91" s="26" t="s">
+        <v>281</v>
       </c>
       <c r="D91" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5404,31 +5391,31 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>291</v>
-      </c>
-      <c r="C92" s="28" t="s">
-        <v>292</v>
+        <v>284</v>
+      </c>
+      <c r="C92" s="26" t="s">
+        <v>285</v>
       </c>
       <c r="D92" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>293</v>
+        <v>381</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="120" x14ac:dyDescent="0.25">
@@ -5436,31 +5423,31 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>294</v>
-      </c>
-      <c r="C93" s="28" t="s">
-        <v>295</v>
+        <v>286</v>
+      </c>
+      <c r="C93" s="26" t="s">
+        <v>287</v>
       </c>
       <c r="D93" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -5468,31 +5455,31 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>298</v>
-      </c>
-      <c r="C94" s="28" t="s">
-        <v>299</v>
+        <v>290</v>
+      </c>
+      <c r="C94" s="26" t="s">
+        <v>291</v>
       </c>
       <c r="D94" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5500,31 +5487,31 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>302</v>
-      </c>
-      <c r="C95" s="28" t="s">
-        <v>303</v>
+        <v>294</v>
+      </c>
+      <c r="C95" s="26" t="s">
+        <v>295</v>
       </c>
       <c r="D95" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5532,34 +5519,34 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>306</v>
-      </c>
-      <c r="C96" s="28" t="s">
-        <v>307</v>
+        <v>298</v>
+      </c>
+      <c r="C96" s="26" t="s">
+        <v>299</v>
       </c>
       <c r="D96" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="J96" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="K96" s="23" t="s">
-        <v>310</v>
+        <v>301</v>
+      </c>
+      <c r="J96" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="K96" s="21" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -5567,31 +5554,31 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>311</v>
-      </c>
-      <c r="C97" s="28" t="s">
-        <v>312</v>
+        <v>303</v>
+      </c>
+      <c r="C97" s="26" t="s">
+        <v>304</v>
       </c>
       <c r="D97" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -5599,31 +5586,31 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>313</v>
-      </c>
-      <c r="C98" s="28" t="s">
-        <v>314</v>
+        <v>305</v>
+      </c>
+      <c r="C98" s="26" t="s">
+        <v>306</v>
       </c>
       <c r="D98" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5631,31 +5618,31 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>315</v>
-      </c>
-      <c r="C99" s="28" t="s">
-        <v>316</v>
+        <v>307</v>
+      </c>
+      <c r="C99" s="26" t="s">
+        <v>308</v>
       </c>
       <c r="D99" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5663,31 +5650,31 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C100" s="28" t="s">
-        <v>318</v>
+        <v>309</v>
+      </c>
+      <c r="C100" s="26" t="s">
+        <v>310</v>
       </c>
       <c r="D100" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5695,31 +5682,31 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>319</v>
-      </c>
-      <c r="C101" s="28" t="s">
-        <v>320</v>
+        <v>311</v>
+      </c>
+      <c r="C101" s="26" t="s">
+        <v>312</v>
       </c>
       <c r="D101" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5727,31 +5714,31 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>322</v>
-      </c>
-      <c r="C102" s="28" t="s">
-        <v>323</v>
+        <v>314</v>
+      </c>
+      <c r="C102" s="26" t="s">
+        <v>315</v>
       </c>
       <c r="D102" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E102" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>324</v>
+        <v>12</v>
+      </c>
+      <c r="F102" s="21" t="s">
+        <v>382</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5759,31 +5746,31 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>325</v>
-      </c>
-      <c r="C103" s="28" t="s">
-        <v>326</v>
+        <v>316</v>
+      </c>
+      <c r="C103" s="26" t="s">
+        <v>317</v>
       </c>
       <c r="D103" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5791,31 +5778,31 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>328</v>
-      </c>
-      <c r="C104" s="28" t="s">
-        <v>329</v>
+        <v>319</v>
+      </c>
+      <c r="C104" s="26" t="s">
+        <v>320</v>
       </c>
       <c r="D104" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5823,31 +5810,31 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>330</v>
-      </c>
-      <c r="C105" s="28" t="s">
-        <v>331</v>
+        <v>321</v>
+      </c>
+      <c r="C105" s="26" t="s">
+        <v>322</v>
       </c>
       <c r="D105" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5855,31 +5842,31 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>333</v>
-      </c>
-      <c r="C106" s="28" t="s">
-        <v>334</v>
+        <v>324</v>
+      </c>
+      <c r="C106" s="26" t="s">
+        <v>325</v>
       </c>
       <c r="D106" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -5887,31 +5874,31 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>335</v>
-      </c>
-      <c r="C107" s="28" t="s">
-        <v>336</v>
+        <v>326</v>
+      </c>
+      <c r="C107" s="26" t="s">
+        <v>327</v>
       </c>
       <c r="D107" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -5919,31 +5906,31 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>337</v>
-      </c>
-      <c r="C108" s="28" t="s">
-        <v>338</v>
+        <v>328</v>
+      </c>
+      <c r="C108" s="26" t="s">
+        <v>329</v>
       </c>
       <c r="D108" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -5951,31 +5938,34 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>340</v>
-      </c>
-      <c r="C109" s="28" t="s">
-        <v>341</v>
+        <v>331</v>
+      </c>
+      <c r="C109" s="26" t="s">
+        <v>332</v>
       </c>
       <c r="D109" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E109" t="s">
-        <v>13</v>
-      </c>
-      <c r="F109" s="29" t="s">
-        <v>342</v>
+        <v>12</v>
+      </c>
+      <c r="F109" s="27" t="s">
+        <v>333</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H109" s="29" t="s">
-        <v>343</v>
+        <v>32</v>
+      </c>
+      <c r="H109" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="I109" s="27" t="s">
+        <v>334</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5983,31 +5973,31 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>344</v>
-      </c>
-      <c r="C110" s="28" t="s">
-        <v>345</v>
+        <v>335</v>
+      </c>
+      <c r="C110" s="26" t="s">
+        <v>336</v>
       </c>
       <c r="D110" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -6015,31 +6005,31 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>346</v>
-      </c>
-      <c r="C111" s="28" t="s">
-        <v>347</v>
+        <v>337</v>
+      </c>
+      <c r="C111" s="26" t="s">
+        <v>338</v>
       </c>
       <c r="D111" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6047,31 +6037,31 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>348</v>
-      </c>
-      <c r="C112" s="28" t="s">
-        <v>349</v>
+        <v>339</v>
+      </c>
+      <c r="C112" s="26" t="s">
+        <v>340</v>
       </c>
       <c r="D112" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -6079,31 +6069,31 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>350</v>
-      </c>
-      <c r="C113" s="28" t="s">
-        <v>351</v>
+        <v>341</v>
+      </c>
+      <c r="C113" s="26" t="s">
+        <v>342</v>
       </c>
       <c r="D113" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -6111,31 +6101,31 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>352</v>
-      </c>
-      <c r="C114" s="28" t="s">
-        <v>353</v>
+        <v>343</v>
+      </c>
+      <c r="C114" s="26" t="s">
+        <v>344</v>
       </c>
       <c r="D114" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6143,31 +6133,31 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>354</v>
-      </c>
-      <c r="C115" s="28" t="s">
-        <v>355</v>
+        <v>345</v>
+      </c>
+      <c r="C115" s="26" t="s">
+        <v>346</v>
       </c>
       <c r="D115" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E115" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -6175,31 +6165,31 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>356</v>
-      </c>
-      <c r="C116" s="28" t="s">
-        <v>357</v>
+        <v>347</v>
+      </c>
+      <c r="C116" s="26" t="s">
+        <v>348</v>
       </c>
       <c r="D116" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E116" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6207,31 +6197,31 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>358</v>
-      </c>
-      <c r="C117" s="28" t="s">
-        <v>359</v>
+        <v>349</v>
+      </c>
+      <c r="C117" s="26" t="s">
+        <v>350</v>
       </c>
       <c r="D117" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E117" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -6239,31 +6229,31 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>360</v>
-      </c>
-      <c r="C118" s="28" t="s">
-        <v>361</v>
+        <v>351</v>
+      </c>
+      <c r="C118" s="26" t="s">
+        <v>352</v>
       </c>
       <c r="D118" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E118" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6271,31 +6261,31 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>362</v>
-      </c>
-      <c r="C119" s="28" t="s">
-        <v>363</v>
+        <v>353</v>
+      </c>
+      <c r="C119" s="26" t="s">
+        <v>354</v>
       </c>
       <c r="D119" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E119" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -6303,31 +6293,31 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>364</v>
-      </c>
-      <c r="C120" s="28" t="s">
-        <v>365</v>
+        <v>355</v>
+      </c>
+      <c r="C120" s="26" t="s">
+        <v>356</v>
       </c>
       <c r="D120" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E120" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6335,31 +6325,31 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>366</v>
-      </c>
-      <c r="C121" s="28" t="s">
-        <v>367</v>
+        <v>357</v>
+      </c>
+      <c r="C121" s="26" t="s">
+        <v>358</v>
       </c>
       <c r="D121" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -6367,31 +6357,31 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>368</v>
-      </c>
-      <c r="C122" s="28" t="s">
-        <v>369</v>
+        <v>359</v>
+      </c>
+      <c r="C122" s="26" t="s">
+        <v>360</v>
       </c>
       <c r="D122" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E122" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6399,31 +6389,31 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>370</v>
-      </c>
-      <c r="C123" s="28" t="s">
-        <v>371</v>
+        <v>361</v>
+      </c>
+      <c r="C123" s="26" t="s">
+        <v>362</v>
       </c>
       <c r="D123" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E123" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -6431,31 +6421,31 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>372</v>
-      </c>
-      <c r="C124" s="28" t="s">
-        <v>373</v>
+        <v>363</v>
+      </c>
+      <c r="C124" s="26" t="s">
+        <v>364</v>
       </c>
       <c r="D124" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6463,31 +6453,31 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>374</v>
-      </c>
-      <c r="C125" s="28" t="s">
-        <v>375</v>
+        <v>365</v>
+      </c>
+      <c r="C125" s="26" t="s">
+        <v>366</v>
       </c>
       <c r="D125" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E125" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6495,31 +6485,31 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>376</v>
-      </c>
-      <c r="C126" s="28" t="s">
-        <v>377</v>
+        <v>367</v>
+      </c>
+      <c r="C126" s="26" t="s">
+        <v>368</v>
       </c>
       <c r="D126" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E126" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6527,31 +6517,31 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>378</v>
-      </c>
-      <c r="C127" s="28" t="s">
-        <v>379</v>
+        <v>369</v>
+      </c>
+      <c r="C127" s="26" t="s">
+        <v>370</v>
       </c>
       <c r="D127" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E127" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6559,31 +6549,31 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>381</v>
-      </c>
-      <c r="C128" s="28" t="s">
-        <v>382</v>
+        <v>372</v>
+      </c>
+      <c r="C128" s="26" t="s">
+        <v>373</v>
       </c>
       <c r="D128" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E128" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -6592,6 +6582,7 @@
     <hyperlink ref="B6" r:id="rId2" display="https://mica.mdc-berlin.de/variable/microbiome-in-health-and-disease-and-in-ageing:TOT_PA_QX:Dataschema" xr:uid="{A33D2099-ED93-4001-8660-F226697C2815}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/rmonize/data_proc_elem/DPE_LISA_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_LISA_P1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E19076-4CAA-402B-BDF9-3A87CCAC7FDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC88F283-E5FC-4534-B840-004D1DA0DE66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1406,10 +1406,6 @@
     <t>MUTBILD_0</t>
   </si>
   <si>
-    <t>FFQNUD_15;  
-FFQREIS_15</t>
-  </si>
-  <si>
     <t>FFQCROIS_15</t>
   </si>
   <si>
@@ -1440,6 +1436,10 @@
   </si>
   <si>
     <t>FFQNUD_15 + FFQREIS_15</t>
+  </si>
+  <si>
+    <t>FFQNUD_15;
+FFQREIS_15</t>
   </si>
 </sst>
 </file>
@@ -2430,8 +2430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="F105" sqref="F105"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3824,13 +3824,13 @@
         <v>12</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>14</v>
@@ -4019,7 +4019,7 @@
         <v>12</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>19</v>
@@ -5403,7 +5403,7 @@
         <v>12</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>19</v>
@@ -5726,7 +5726,7 @@
         <v>12</v>
       </c>
       <c r="F102" s="21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>19</v>
@@ -5956,7 +5956,7 @@
         <v>32</v>
       </c>
       <c r="H109" s="27" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I109" s="27" t="s">
         <v>334</v>

--- a/rmonize/data_proc_elem/DPE_LISA_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_LISA_P1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC88F283-E5FC-4534-B840-004D1DA0DE66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{553C02AC-DDAC-44A1-BFD1-5F0B8B398BAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="390">
   <si>
     <t>index</t>
   </si>
@@ -60,6 +71,12 @@
     <t>Mlstr_harmo::status_detail</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Participant identification number</t>
+  </si>
+  <si>
     <t>integer</t>
   </si>
   <si>
@@ -96,16 +113,44 @@
     <t>KIALTER_15</t>
   </si>
   <si>
+    <t>recode</t>
+  </si>
+  <si>
+    <t>tba</t>
+  </si>
+  <si>
+    <t>Franzi: KIALTER_15 is integer, but we want decimal. So this can't be direct mapping, but needs recoding.</t>
+  </si>
+  <si>
     <t>EDU_LEVEL</t>
   </si>
   <si>
     <t>Education</t>
   </si>
   <si>
-    <t>recode</t>
-  </si>
-  <si>
-    <t>recode(1 = 0; 2=1; 3=3; 4=2; 5= 3; 6= 4; 7= 5;)</t>
+    <t>MUTBILD_0; VATBILD_0;</t>
+  </si>
+  <si>
+    <t>case_when</t>
+  </si>
+  <si>
+    <t>case_when(
+      MUTBILD_0 == 1 &amp; VATBILD_0 == 1 ~ 0L,
+      MUTBILD_0 %in% c(2) | VATBILD_0 %in% c(2) ~ 1L,  
+      MUTBILD_0 %in% c(3) | VATBILD_0 %in% c(3) ~ 2L, 
+      MUTBILD_0 %in% c(4) | VATBILD_0 %in% c(4) ~ 3L, 
+      MUTBILD_0 %in% c(5, 6) | VATBILD_0 %in% c(5, 6) ~ 4L, 
+      MUTBILD_0 %in% c(7) | VATBILD_0 %in% c(7) ~ 5L,  
+      TRUE ~ NA_integer_ 
+    )</t>
+  </si>
+  <si>
+    <t>"None" (0): Both parents have 1 (no certificate).
+"Primary School Completed" (1): Either parent has 2.
+"Technical/Professional School" (2): Either parent has 3.
+"Secondary School" (3): Either parent has 4.
+"Longer Education" (4): Either parent has 5 or 6.
+"Not Specified" (5): Either parent has 7 (other degree).</t>
   </si>
   <si>
     <t>compatible</t>
@@ -129,6 +174,16 @@
   </si>
   <si>
     <t>operation</t>
+  </si>
+  <si>
+    <t>(
+  1.5 * ((aktivleiisommn_15 + aktivleiwintn_15) / 2) +
+  3 * ((aktivmitsommn_15 + aktivmitwintn_15) / 2) +
+  6 * ((aktivschsommn_15 + aktivschwintn_15) / 2)
+) / 7</t>
+  </si>
+  <si>
+    <t>(1.5(average mean of light activities)+ 3(average mean of moderate actvities)+6(average mean of heavy activities)/7</t>
   </si>
   <si>
     <t>SMOKE_ST</t>
@@ -535,6 +590,13 @@
     <t>Intake of pastas and rice [g/d]</t>
   </si>
   <si>
+    <t>FFQNUD_15;
+FFQREIS_15</t>
+  </si>
+  <si>
+    <t>FFQNUD_15 + FFQREIS_15</t>
+  </si>
+  <si>
     <t>BREAD_PROD_0603</t>
   </si>
   <si>
@@ -596,28 +658,16 @@
     <t>Intake of fine bakery wares [g/d]</t>
   </si>
   <si>
+    <t>FFQCROIS_15</t>
+  </si>
+  <si>
     <t>MEAT_PROD_07</t>
   </si>
   <si>
     <t>Intake of meat and meat products [g/d]</t>
   </si>
   <si>
-    <t>FFQSGRUREDMEAT_15;
-FFQHUHN_15;
-FFQAUFSCH_15; 
-FFQBOCK_15;
-FFQBRAT_15;
-FFQSALAM_15;
-FFQINNER_15</t>
-  </si>
-  <si>
-    <t>FFQSGRUREDMEAT_15 +
-FFQHUHN_15 +
-FFQAUFSCH_15 + 
-FFQBOCK_15 +
-FFQBRAT_15 +
-FFQSALAM_15 +
-FFQINNER_15</t>
+    <t>FFQSGRUREDMEAT_15</t>
   </si>
   <si>
     <t>RED_MEAT_0701</t>
@@ -626,7 +676,12 @@
     <t>Intake of red meat (mammals meat) [g/d]</t>
   </si>
   <si>
-    <t>FFQSGRUREDMEAT_15</t>
+    <t>FFQRIND_15;
+FFQSCHW_15</t>
+  </si>
+  <si>
+    <t>FFQRIND_15 +
+FFQSCHW_15</t>
   </si>
   <si>
     <t>BEEF_070101</t>
@@ -636,6 +691,9 @@
   </si>
   <si>
     <t>FFQRIND_15</t>
+  </si>
+  <si>
+    <t>FFQRIND_15 * 0.5</t>
   </si>
   <si>
     <t>Gruppe FFQRind beinhaltet auch Kalbsfleisch, deshalb Gewichtung á 50%</t>
@@ -1050,6 +1108,9 @@
     <t>Intake of sponge biscuits and plain cakes [g/d]</t>
   </si>
   <si>
+    <t>FFQRUEHRK_15</t>
+  </si>
+  <si>
     <t>NONALC_BEV_13</t>
   </si>
   <si>
@@ -1162,6 +1223,9 @@
     <t>Alcoholic beverage intake [g/d]</t>
   </si>
   <si>
+    <t>K_FB_alkgetr_15</t>
+  </si>
+  <si>
     <t>WINE_1401</t>
   </si>
   <si>
@@ -1213,64 +1277,15 @@
     <t>Intake of mixed alcoholic drinks [g/d]</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>K_FB_alkgetr_cocktail_15;
+    <t>K_FB_alkgetr_cocktail_15;
 K_FB_alkgetr_alkopops_15;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>alkgetr_aperitif_15</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">K_FB_alkgetr_cocktail_15 +
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>K_FB_alkgetr_alkopops_15 or</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>alkgetr_aperitif_15?</t>
-    </r>
+  </si>
+  <si>
+    <t>K_FB_alkgetr_cocktail_15 + K_FB_alkgetr_alkopops_15</t>
+  </si>
+  <si>
+    <t>K_FB_alkgetr_cocktail_15 +
+K_FB_alkgetr_alkopops_15</t>
   </si>
   <si>
     <t>CONDIMENT_SAUCES_15</t>
@@ -1389,64 +1404,13 @@
   </si>
   <si>
     <t>intake of amphibians, reptiles, snails, insects [g/d]</t>
-  </si>
-  <si>
-    <t>FFQRIND_15 * 0.5</t>
-  </si>
-  <si>
-    <t>Participant identification number</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>MUTBILD_0</t>
-  </si>
-  <si>
-    <t>FFQCROIS_15</t>
-  </si>
-  <si>
-    <t>FFQRUEHRK_15</t>
-  </si>
-  <si>
-    <t>K_FB_alkgetr_15</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">K_FB_alkgetr_cocktail_15 + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>K_FB_alkgetr_alkopops_15</t>
-    </r>
-  </si>
-  <si>
-    <t>FFQNUD_15 + FFQREIS_15</t>
-  </si>
-  <si>
-    <t>FFQNUD_15;
-FFQREIS_15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1654,8 +1618,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1835,12 +1806,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -2003,7 +1968,7 @@
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2038,26 +2003,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2069,54 +2018,73 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Link" xfId="42" builtinId="8"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2132,7 +2100,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2430,11 +2398,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="29" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -2486,31 +2454,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>376</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>375</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>377</v>
-      </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2518,32 +2486,32 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="K3" s="15" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2551,96 +2519,104 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="300" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>378</v>
+        <v>30</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="15"/>
+        <v>31</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>33</v>
+      </c>
       <c r="J5" s="15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="15"/>
+        <v>39</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>41</v>
+      </c>
       <c r="J6" s="15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2648,32 +2624,32 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>36</v>
+      <c r="H7" s="25" t="s">
+        <v>45</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2681,32 +2657,32 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>15</v>
+        <v>50</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2714,32 +2690,32 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>15</v>
+        <v>53</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="105" x14ac:dyDescent="0.25">
@@ -2747,34 +2723,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>52</v>
+      <c r="K10" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2782,31 +2758,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>54</v>
+        <v>62</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2814,31 +2790,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>56</v>
+        <v>64</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -2846,31 +2822,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>60</v>
+        <v>68</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2878,31 +2854,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>64</v>
+        <v>72</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2910,31 +2886,31 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>68</v>
+        <v>76</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2942,31 +2918,31 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>71</v>
+        <v>79</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2974,31 +2950,31 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>74</v>
+        <v>82</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -3006,31 +2982,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>77</v>
+        <v>85</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3038,31 +3014,31 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>79</v>
+        <v>87</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3070,31 +3046,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>81</v>
+        <v>89</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3102,31 +3078,31 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>83</v>
+        <v>91</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3134,31 +3110,31 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>85</v>
+        <v>93</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3166,31 +3142,31 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>87</v>
+        <v>95</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3198,31 +3174,31 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>89</v>
+        <v>97</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3230,32 +3206,32 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3263,31 +3239,31 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>96</v>
+        <v>104</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3295,31 +3271,31 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>100</v>
+        <v>108</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>109</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3327,31 +3303,31 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>103</v>
+        <v>111</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="D28" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3359,31 +3335,31 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>105</v>
+        <v>113</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="135" x14ac:dyDescent="0.25">
@@ -3391,31 +3367,31 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>107</v>
+        <v>115</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>116</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3423,31 +3399,31 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>111</v>
+        <v>119</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>120</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3455,31 +3431,31 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>114</v>
+        <v>122</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>123</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3487,31 +3463,31 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>118</v>
+        <v>126</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>127</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3519,32 +3495,32 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>121</v>
+        <v>129</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>130</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3552,32 +3528,32 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>124</v>
+        <v>132</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>133</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K35" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3585,32 +3561,32 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>128</v>
+        <v>136</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="D36" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3618,32 +3594,32 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>131</v>
+        <v>139</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="D37" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3651,32 +3627,32 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>134</v>
+        <v>142</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>143</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3684,31 +3660,31 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>136</v>
+        <v>144</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>145</v>
       </c>
       <c r="D39" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3716,31 +3692,31 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>138</v>
+        <v>146</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>147</v>
       </c>
       <c r="D40" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="165" x14ac:dyDescent="0.25">
@@ -3748,31 +3724,31 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>140</v>
+        <v>148</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>149</v>
       </c>
       <c r="D41" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3780,31 +3756,31 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>144</v>
+        <v>152</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>153</v>
       </c>
       <c r="D42" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3812,31 +3788,31 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>146</v>
+        <v>154</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>155</v>
       </c>
       <c r="D43" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>384</v>
+        <v>156</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>383</v>
+        <v>157</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3844,34 +3820,34 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>148</v>
+        <v>158</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>159</v>
       </c>
       <c r="D44" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="I44" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="J44" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="K44" s="21" t="s">
-        <v>52</v>
+        <v>161</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3879,31 +3855,31 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>153</v>
+        <v>163</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>164</v>
       </c>
       <c r="D45" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3911,31 +3887,31 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>155</v>
+        <v>165</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>166</v>
       </c>
       <c r="D46" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E46" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3943,31 +3919,31 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>157</v>
+        <v>167</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>168</v>
       </c>
       <c r="D47" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3975,31 +3951,31 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C48" s="26" t="s">
-        <v>161</v>
+        <v>171</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>172</v>
       </c>
       <c r="D48" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4007,63 +3983,64 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>163</v>
+        <v>173</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>174</v>
       </c>
       <c r="D49" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>379</v>
+        <v>175</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C50" s="26" t="s">
-        <v>165</v>
+        <v>176</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>177</v>
       </c>
       <c r="D50" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="14"/>
+      <c r="J50" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" s="17" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4071,31 +4048,32 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>169</v>
+        <v>179</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>180</v>
       </c>
       <c r="D51" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E51" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="F51" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="I51" s="14"/>
+      <c r="J51" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" s="17" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4103,34 +4081,34 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C52" s="26" t="s">
-        <v>172</v>
+        <v>183</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>184</v>
       </c>
       <c r="D52" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E52" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H52" s="23" t="s">
-        <v>374</v>
-      </c>
-      <c r="I52" s="24" t="s">
-        <v>174</v>
+        <v>39</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4138,34 +4116,34 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>176</v>
+        <v>188</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>189</v>
       </c>
       <c r="D53" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E53" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H53" s="23" t="s">
-        <v>374</v>
-      </c>
-      <c r="I53" s="24" t="s">
-        <v>174</v>
+        <v>39</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -4173,31 +4151,31 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>178</v>
+        <v>190</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>191</v>
       </c>
       <c r="D54" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4205,31 +4183,31 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>181</v>
+        <v>193</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>194</v>
       </c>
       <c r="D55" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E55" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -4237,31 +4215,31 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C56" s="26" t="s">
-        <v>183</v>
+        <v>195</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>196</v>
       </c>
       <c r="D56" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E56" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -4269,31 +4247,31 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>185</v>
+        <v>197</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>198</v>
       </c>
       <c r="D57" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E57" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -4301,31 +4279,31 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C58" s="26" t="s">
-        <v>187</v>
+        <v>199</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>200</v>
       </c>
       <c r="D58" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4333,31 +4311,31 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>190</v>
+        <v>202</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>203</v>
       </c>
       <c r="D59" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E59" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -4365,31 +4343,31 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>192</v>
+        <v>204</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>205</v>
       </c>
       <c r="D60" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E60" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -4397,31 +4375,31 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>194</v>
+        <v>206</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>207</v>
       </c>
       <c r="D61" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E61" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -4429,31 +4407,31 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>196</v>
+        <v>208</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>209</v>
       </c>
       <c r="D62" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E62" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -4461,31 +4439,31 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>198</v>
+        <v>210</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>211</v>
       </c>
       <c r="D63" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E63" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4493,31 +4471,31 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>200</v>
+        <v>212</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>213</v>
       </c>
       <c r="D64" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E64" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4525,31 +4503,31 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C65" s="26" t="s">
-        <v>202</v>
+        <v>214</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>215</v>
       </c>
       <c r="D65" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E65" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4557,31 +4535,31 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C66" s="26" t="s">
-        <v>204</v>
+        <v>216</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>217</v>
       </c>
       <c r="D66" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E66" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4589,31 +4567,31 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>208</v>
+        <v>220</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>221</v>
       </c>
       <c r="D67" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E67" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -4621,31 +4599,31 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C68" s="26" t="s">
-        <v>211</v>
+        <v>223</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>224</v>
       </c>
       <c r="D68" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E68" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4653,31 +4631,31 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C69" s="26" t="s">
-        <v>215</v>
+        <v>227</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>228</v>
       </c>
       <c r="D69" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4685,31 +4663,31 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C70" s="26" t="s">
-        <v>219</v>
+        <v>231</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>232</v>
       </c>
       <c r="D70" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E70" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4717,31 +4695,31 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C71" s="26" t="s">
-        <v>221</v>
+        <v>233</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>234</v>
       </c>
       <c r="D71" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E71" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4749,32 +4727,32 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>224</v>
-      </c>
-      <c r="C72" s="26" t="s">
-        <v>225</v>
+        <v>237</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>238</v>
       </c>
       <c r="D72" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E72" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I72" s="7"/>
       <c r="J72" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4782,31 +4760,31 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>227</v>
-      </c>
-      <c r="C73" s="26" t="s">
-        <v>228</v>
+        <v>240</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>241</v>
       </c>
       <c r="D73" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E73" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="150" x14ac:dyDescent="0.25">
@@ -4814,31 +4792,31 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>229</v>
-      </c>
-      <c r="C74" s="26" t="s">
-        <v>230</v>
+        <v>242</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>243</v>
       </c>
       <c r="D74" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E74" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4846,31 +4824,31 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>233</v>
-      </c>
-      <c r="C75" s="26" t="s">
-        <v>234</v>
+        <v>246</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>247</v>
       </c>
       <c r="D75" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E75" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4878,31 +4856,31 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>237</v>
-      </c>
-      <c r="C76" s="26" t="s">
-        <v>238</v>
+        <v>250</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>251</v>
       </c>
       <c r="D76" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E76" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4910,31 +4888,31 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>241</v>
-      </c>
-      <c r="C77" s="26" t="s">
-        <v>242</v>
+        <v>254</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>255</v>
       </c>
       <c r="D77" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E77" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4942,31 +4920,31 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>245</v>
-      </c>
-      <c r="C78" s="26" t="s">
-        <v>246</v>
+        <v>258</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>259</v>
       </c>
       <c r="D78" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E78" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4974,31 +4952,31 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>247</v>
-      </c>
-      <c r="C79" s="26" t="s">
-        <v>248</v>
+        <v>260</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>261</v>
       </c>
       <c r="D79" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E79" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5006,31 +4984,31 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>249</v>
-      </c>
-      <c r="C80" s="26" t="s">
-        <v>250</v>
+        <v>262</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>263</v>
       </c>
       <c r="D80" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E80" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -5038,31 +5016,31 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>251</v>
-      </c>
-      <c r="C81" s="26" t="s">
-        <v>252</v>
+        <v>264</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>265</v>
       </c>
       <c r="D81" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E81" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5070,31 +5048,31 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>255</v>
-      </c>
-      <c r="C82" s="26" t="s">
-        <v>256</v>
+        <v>268</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>269</v>
       </c>
       <c r="D82" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E82" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5102,31 +5080,31 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>257</v>
-      </c>
-      <c r="C83" s="26" t="s">
-        <v>258</v>
+        <v>270</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>271</v>
       </c>
       <c r="D83" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E83" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -5134,31 +5112,31 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C84" s="26" t="s">
-        <v>262</v>
+        <v>274</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>275</v>
       </c>
       <c r="D84" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E84" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5166,31 +5144,31 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>264</v>
-      </c>
-      <c r="C85" s="26" t="s">
-        <v>265</v>
+        <v>277</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>278</v>
       </c>
       <c r="D85" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E85" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5198,32 +5176,32 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>267</v>
-      </c>
-      <c r="C86" s="26" t="s">
-        <v>268</v>
+        <v>280</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>281</v>
       </c>
       <c r="D86" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E86" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I86" s="7"/>
       <c r="J86" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5231,31 +5209,31 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>270</v>
-      </c>
-      <c r="C87" s="26" t="s">
-        <v>271</v>
+        <v>283</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>284</v>
       </c>
       <c r="D87" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E87" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -5263,31 +5241,31 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>272</v>
-      </c>
-      <c r="C88" s="26" t="s">
-        <v>273</v>
+        <v>285</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>286</v>
       </c>
       <c r="D88" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E88" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5295,31 +5273,31 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>274</v>
-      </c>
-      <c r="C89" s="26" t="s">
-        <v>275</v>
+        <v>287</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>288</v>
       </c>
       <c r="D89" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E89" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -5327,31 +5305,31 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>276</v>
-      </c>
-      <c r="C90" s="26" t="s">
-        <v>277</v>
+        <v>289</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D90" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E90" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -5359,31 +5337,31 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>280</v>
-      </c>
-      <c r="C91" s="26" t="s">
-        <v>281</v>
+        <v>293</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>294</v>
       </c>
       <c r="D91" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E91" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5391,31 +5369,31 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>284</v>
-      </c>
-      <c r="C92" s="26" t="s">
-        <v>285</v>
+        <v>297</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>298</v>
       </c>
       <c r="D92" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E92" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>380</v>
+        <v>299</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="120" x14ac:dyDescent="0.25">
@@ -5423,31 +5401,31 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>286</v>
-      </c>
-      <c r="C93" s="26" t="s">
-        <v>287</v>
+        <v>300</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>301</v>
       </c>
       <c r="D93" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E93" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -5455,31 +5433,31 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>290</v>
-      </c>
-      <c r="C94" s="26" t="s">
-        <v>291</v>
+        <v>304</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>305</v>
       </c>
       <c r="D94" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E94" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5487,31 +5465,31 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>294</v>
-      </c>
-      <c r="C95" s="26" t="s">
-        <v>295</v>
+        <v>308</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>309</v>
       </c>
       <c r="D95" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E95" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5519,34 +5497,34 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>298</v>
-      </c>
-      <c r="C96" s="26" t="s">
-        <v>299</v>
+        <v>312</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>313</v>
       </c>
       <c r="D96" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E96" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="J96" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="K96" s="21" t="s">
-        <v>302</v>
+        <v>315</v>
+      </c>
+      <c r="J96" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K96" s="17" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -5554,31 +5532,31 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>303</v>
-      </c>
-      <c r="C97" s="26" t="s">
-        <v>304</v>
+        <v>317</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>318</v>
       </c>
       <c r="D97" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E97" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -5586,31 +5564,31 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>305</v>
-      </c>
-      <c r="C98" s="26" t="s">
-        <v>306</v>
+        <v>319</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>320</v>
       </c>
       <c r="D98" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E98" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5618,31 +5596,31 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>307</v>
-      </c>
-      <c r="C99" s="26" t="s">
-        <v>308</v>
+        <v>321</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>322</v>
       </c>
       <c r="D99" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E99" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5650,31 +5628,31 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C100" s="26" t="s">
-        <v>310</v>
+        <v>323</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>324</v>
       </c>
       <c r="D100" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E100" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5682,31 +5660,31 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>311</v>
-      </c>
-      <c r="C101" s="26" t="s">
-        <v>312</v>
+        <v>325</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>326</v>
       </c>
       <c r="D101" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E101" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5714,31 +5692,31 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>314</v>
-      </c>
-      <c r="C102" s="26" t="s">
-        <v>315</v>
+        <v>328</v>
+      </c>
+      <c r="C102" s="20" t="s">
+        <v>329</v>
       </c>
       <c r="D102" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E102" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" s="21" t="s">
-        <v>381</v>
+        <v>14</v>
+      </c>
+      <c r="F102" s="29" t="s">
+        <v>330</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5746,31 +5724,31 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>316</v>
-      </c>
-      <c r="C103" s="26" t="s">
-        <v>317</v>
+        <v>331</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>332</v>
       </c>
       <c r="D103" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E103" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5778,31 +5756,31 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>319</v>
-      </c>
-      <c r="C104" s="26" t="s">
-        <v>320</v>
+        <v>334</v>
+      </c>
+      <c r="C104" s="20" t="s">
+        <v>335</v>
       </c>
       <c r="D104" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E104" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5810,31 +5788,31 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>321</v>
-      </c>
-      <c r="C105" s="26" t="s">
-        <v>322</v>
+        <v>336</v>
+      </c>
+      <c r="C105" s="20" t="s">
+        <v>337</v>
       </c>
       <c r="D105" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E105" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5842,31 +5820,31 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>324</v>
-      </c>
-      <c r="C106" s="26" t="s">
-        <v>325</v>
+        <v>339</v>
+      </c>
+      <c r="C106" s="20" t="s">
+        <v>340</v>
       </c>
       <c r="D106" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E106" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -5874,31 +5852,31 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>326</v>
-      </c>
-      <c r="C107" s="26" t="s">
-        <v>327</v>
+        <v>341</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>342</v>
       </c>
       <c r="D107" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E107" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -5906,66 +5884,66 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>328</v>
-      </c>
-      <c r="C108" s="26" t="s">
-        <v>329</v>
+        <v>343</v>
+      </c>
+      <c r="C108" s="20" t="s">
+        <v>344</v>
       </c>
       <c r="D108" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E108" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>331</v>
-      </c>
-      <c r="C109" s="26" t="s">
-        <v>332</v>
+        <v>346</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>347</v>
       </c>
       <c r="D109" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E109" t="s">
-        <v>12</v>
-      </c>
-      <c r="F109" s="27" t="s">
-        <v>333</v>
+        <v>14</v>
+      </c>
+      <c r="F109" s="30" t="s">
+        <v>348</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H109" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="I109" s="27" t="s">
-        <v>334</v>
+        <v>39</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="I109" s="6" t="s">
+        <v>350</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5973,31 +5951,31 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>335</v>
-      </c>
-      <c r="C110" s="26" t="s">
-        <v>336</v>
+        <v>351</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>352</v>
       </c>
       <c r="D110" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E110" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -6005,31 +5983,31 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>337</v>
-      </c>
-      <c r="C111" s="26" t="s">
-        <v>338</v>
+        <v>353</v>
+      </c>
+      <c r="C111" s="20" t="s">
+        <v>354</v>
       </c>
       <c r="D111" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E111" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6037,31 +6015,31 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>339</v>
-      </c>
-      <c r="C112" s="26" t="s">
-        <v>340</v>
+        <v>355</v>
+      </c>
+      <c r="C112" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="D112" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E112" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -6069,31 +6047,31 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>341</v>
-      </c>
-      <c r="C113" s="26" t="s">
-        <v>342</v>
+        <v>357</v>
+      </c>
+      <c r="C113" s="20" t="s">
+        <v>358</v>
       </c>
       <c r="D113" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E113" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -6101,31 +6079,31 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>343</v>
-      </c>
-      <c r="C114" s="26" t="s">
-        <v>344</v>
+        <v>359</v>
+      </c>
+      <c r="C114" s="20" t="s">
+        <v>360</v>
       </c>
       <c r="D114" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E114" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6133,31 +6111,31 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>345</v>
-      </c>
-      <c r="C115" s="26" t="s">
-        <v>346</v>
+        <v>361</v>
+      </c>
+      <c r="C115" s="20" t="s">
+        <v>362</v>
       </c>
       <c r="D115" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E115" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -6165,31 +6143,31 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>347</v>
-      </c>
-      <c r="C116" s="26" t="s">
-        <v>348</v>
+        <v>363</v>
+      </c>
+      <c r="C116" s="20" t="s">
+        <v>364</v>
       </c>
       <c r="D116" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E116" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6197,31 +6175,31 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>349</v>
-      </c>
-      <c r="C117" s="26" t="s">
-        <v>350</v>
+        <v>365</v>
+      </c>
+      <c r="C117" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="D117" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E117" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -6229,31 +6207,31 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>351</v>
-      </c>
-      <c r="C118" s="26" t="s">
-        <v>352</v>
+        <v>367</v>
+      </c>
+      <c r="C118" s="20" t="s">
+        <v>368</v>
       </c>
       <c r="D118" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E118" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6261,31 +6239,31 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>353</v>
-      </c>
-      <c r="C119" s="26" t="s">
-        <v>354</v>
+        <v>369</v>
+      </c>
+      <c r="C119" s="20" t="s">
+        <v>370</v>
       </c>
       <c r="D119" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E119" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -6293,31 +6271,31 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>355</v>
-      </c>
-      <c r="C120" s="26" t="s">
-        <v>356</v>
+        <v>371</v>
+      </c>
+      <c r="C120" s="20" t="s">
+        <v>372</v>
       </c>
       <c r="D120" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E120" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6325,31 +6303,31 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>357</v>
-      </c>
-      <c r="C121" s="26" t="s">
-        <v>358</v>
+        <v>373</v>
+      </c>
+      <c r="C121" s="20" t="s">
+        <v>374</v>
       </c>
       <c r="D121" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E121" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -6357,31 +6335,31 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>359</v>
-      </c>
-      <c r="C122" s="26" t="s">
-        <v>360</v>
+        <v>375</v>
+      </c>
+      <c r="C122" s="20" t="s">
+        <v>376</v>
       </c>
       <c r="D122" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E122" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6389,31 +6367,31 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>361</v>
-      </c>
-      <c r="C123" s="26" t="s">
-        <v>362</v>
+        <v>377</v>
+      </c>
+      <c r="C123" s="20" t="s">
+        <v>378</v>
       </c>
       <c r="D123" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E123" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -6421,31 +6399,31 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>363</v>
-      </c>
-      <c r="C124" s="26" t="s">
-        <v>364</v>
+        <v>379</v>
+      </c>
+      <c r="C124" s="20" t="s">
+        <v>380</v>
       </c>
       <c r="D124" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E124" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6453,31 +6431,31 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>365</v>
-      </c>
-      <c r="C125" s="26" t="s">
-        <v>366</v>
+        <v>381</v>
+      </c>
+      <c r="C125" s="20" t="s">
+        <v>382</v>
       </c>
       <c r="D125" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E125" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6485,31 +6463,31 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>367</v>
-      </c>
-      <c r="C126" s="26" t="s">
-        <v>368</v>
+        <v>383</v>
+      </c>
+      <c r="C126" s="20" t="s">
+        <v>384</v>
       </c>
       <c r="D126" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E126" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6517,31 +6495,31 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>369</v>
-      </c>
-      <c r="C127" s="26" t="s">
-        <v>370</v>
+        <v>385</v>
+      </c>
+      <c r="C127" s="20" t="s">
+        <v>386</v>
       </c>
       <c r="D127" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E127" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6549,31 +6527,31 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>372</v>
-      </c>
-      <c r="C128" s="26" t="s">
-        <v>373</v>
+        <v>388</v>
+      </c>
+      <c r="C128" s="20" t="s">
+        <v>389</v>
       </c>
       <c r="D128" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E128" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -6587,6 +6565,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -6827,7 +6817,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6836,20 +6826,25 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBFC15CC-4CA5-447A-915F-1412CED97222}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E439D2B-51AD-4E06-8372-8EFF42F9F325}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA68FB6B-B5E6-4AB5-ACC7-06ACAB30D951}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -6867,27 +6862,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E89B3EC5-962B-41D9-9821-3A191D2434CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBFC15CC-4CA5-447A-915F-1412CED97222}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_LISA_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_LISA_P1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{553C02AC-DDAC-44A1-BFD1-5F0B8B398BAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{98A36DAB-D993-414E-92A9-832AED68064C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="395">
   <si>
     <t>index</t>
   </si>
@@ -114,12 +103,6 @@
   </si>
   <si>
     <t>recode</t>
-  </si>
-  <si>
-    <t>tba</t>
-  </si>
-  <si>
-    <t>Franzi: KIALTER_15 is integer, but we want decimal. So this can't be direct mapping, but needs recoding.</t>
   </si>
   <si>
     <t>EDU_LEVEL</t>
@@ -1405,12 +1388,33 @@
   <si>
     <t>intake of amphibians, reptiles, snails, insects [g/d]</t>
   </si>
+  <si>
+    <t>compatible, because it is integer in the study and we want decimal</t>
+  </si>
+  <si>
+    <t>DIETARY_ASSESS_INSTR</t>
+  </si>
+  <si>
+    <t>Dietary Assessment Instrument</t>
+  </si>
+  <si>
+    <t>GINI_P1</t>
+  </si>
+  <si>
+    <t>__BLANK__</t>
+  </si>
+  <si>
+    <t>paste</t>
+  </si>
+  <si>
+    <t>1 (FFQ)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1571,12 +1575,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -1609,12 +1607,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1624,6 +1616,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1966,9 +1964,9 @@
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1994,44 +1992,42 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2040,6 +2036,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2396,10 +2398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K128"/>
+  <dimension ref="A1:K129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2514,7 +2516,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2525,7 +2527,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -2533,20 +2535,20 @@
       <c r="F4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>27</v>
+      <c r="G4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>388</v>
       </c>
       <c r="J4" s="15" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="300" x14ac:dyDescent="0.25">
@@ -2554,10 +2556,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>13</v>
@@ -2566,22 +2568,22 @@
         <v>14</v>
       </c>
       <c r="F5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="I5" s="23" t="s">
         <v>31</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>33</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="165" x14ac:dyDescent="0.25">
@@ -2589,34 +2591,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="G6" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="H6" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="I6" s="25" t="s">
         <v>39</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>41</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2624,10 +2626,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>13</v>
@@ -2636,20 +2638,20 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="25" t="s">
-        <v>45</v>
+      <c r="H7" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2657,19 +2659,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>48</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>50</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>21</v>
@@ -2690,25 +2692,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="G9" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>54</v>
-      </c>
       <c r="H9" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="16" t="s">
@@ -2723,34 +2725,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D10" t="s">
+      <c r="G10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="I10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="J10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2758,31 +2760,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2790,31 +2792,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C12" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="D12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -2822,31 +2824,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="G13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="D13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2854,31 +2856,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="G14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="D14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2886,19 +2888,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>21</v>
@@ -2918,19 +2920,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>21</v>
@@ -2950,22 +2952,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>84</v>
-      </c>
       <c r="G17" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>21</v>
@@ -2982,31 +2984,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3014,31 +3016,31 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3046,31 +3048,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3078,31 +3080,31 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3110,31 +3112,31 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3142,31 +3144,31 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3174,19 +3176,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>21</v>
@@ -3206,32 +3208,32 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="G25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="D25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3239,31 +3241,31 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="G26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="D26" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3271,19 +3273,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>21</v>
@@ -3303,31 +3305,31 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3335,31 +3337,31 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="135" x14ac:dyDescent="0.25">
@@ -3367,31 +3369,31 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="G30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="D30" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3399,19 +3401,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>21</v>
@@ -3431,31 +3433,31 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="G32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="D32" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3463,19 +3465,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D33" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>128</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>21</v>
@@ -3495,19 +3497,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="D34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>21</v>
@@ -3528,32 +3530,32 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="G35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="D35" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3561,19 +3563,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="D36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>21</v>
@@ -3594,19 +3596,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="D37" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>21</v>
@@ -3627,19 +3629,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E38" t="s">
         <v>14</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>21</v>
@@ -3660,31 +3662,31 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E39" t="s">
         <v>14</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3692,31 +3694,31 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E40" t="s">
         <v>14</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="165" x14ac:dyDescent="0.25">
@@ -3724,31 +3726,31 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="G41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="D41" t="s">
-        <v>57</v>
-      </c>
-      <c r="E41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3756,31 +3758,31 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E42" t="s">
         <v>14</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3788,31 +3790,31 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="G43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="D43" t="s">
-        <v>57</v>
-      </c>
-      <c r="E43" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3820,34 +3822,34 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="G44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D44" t="s">
-        <v>57</v>
-      </c>
-      <c r="E44" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="5" t="s">
+      <c r="I44" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="J44" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3855,31 +3857,31 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E45" t="s">
         <v>14</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3887,31 +3889,31 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E46" t="s">
         <v>14</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3919,31 +3921,31 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D47" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="G47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H47" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="D47" t="s">
-        <v>57</v>
-      </c>
-      <c r="E47" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3951,31 +3953,31 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E48" t="s">
         <v>14</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3983,19 +3985,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D49" t="s">
-        <v>57</v>
-      </c>
-      <c r="E49" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>21</v>
@@ -4015,19 +4017,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="18" t="s">
         <v>176</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="D50" t="s">
-        <v>57</v>
-      </c>
-      <c r="E50" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="18" t="s">
-        <v>178</v>
       </c>
       <c r="G50" s="17" t="s">
         <v>21</v>
@@ -4048,32 +4050,32 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="G51" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H51" s="18" t="s">
         <v>180</v>
-      </c>
-      <c r="D51" t="s">
-        <v>57</v>
-      </c>
-      <c r="E51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="G51" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H51" s="18" t="s">
-        <v>182</v>
       </c>
       <c r="I51" s="14"/>
       <c r="J51" s="17" t="s">
         <v>16</v>
       </c>
       <c r="K51" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4081,34 +4083,34 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="D52" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="G52" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D52" t="s">
-        <v>57</v>
-      </c>
-      <c r="E52" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="8" t="s">
+      <c r="I52" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="J52" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4116,34 +4118,34 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D53" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E53" t="s">
         <v>14</v>
       </c>
       <c r="F53" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="I53" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="J53" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -4151,19 +4153,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D54" t="s">
+        <v>55</v>
+      </c>
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="D54" t="s">
-        <v>57</v>
-      </c>
-      <c r="E54" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>192</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>21</v>
@@ -4183,31 +4185,31 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D55" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E55" t="s">
         <v>14</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -4215,31 +4217,31 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D56" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E56" t="s">
         <v>14</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -4247,31 +4249,31 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E57" t="s">
         <v>14</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -4279,19 +4281,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D58" t="s">
+        <v>55</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="D58" t="s">
-        <v>57</v>
-      </c>
-      <c r="E58" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>21</v>
@@ -4311,31 +4313,31 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E59" t="s">
         <v>14</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -4343,31 +4345,31 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D60" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E60" t="s">
         <v>14</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -4375,31 +4377,31 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D61" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E61" t="s">
         <v>14</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -4407,31 +4409,31 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D62" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E62" t="s">
         <v>14</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -4439,31 +4441,31 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D63" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E63" t="s">
         <v>14</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4471,31 +4473,31 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D64" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E64" t="s">
         <v>14</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4503,31 +4505,31 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D65" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E65" t="s">
         <v>14</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4535,31 +4537,31 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="D66" t="s">
+        <v>55</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="G66" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H66" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="D66" t="s">
-        <v>57</v>
-      </c>
-      <c r="E66" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>219</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4567,19 +4569,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D67" t="s">
+        <v>55</v>
+      </c>
+      <c r="E67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="D67" t="s">
-        <v>57</v>
-      </c>
-      <c r="E67" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>222</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>21</v>
@@ -4599,31 +4601,31 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="D68" t="s">
+        <v>55</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="G68" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H68" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="D68" t="s">
-        <v>57</v>
-      </c>
-      <c r="E68" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4631,31 +4633,31 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="D69" t="s">
+        <v>55</v>
+      </c>
+      <c r="E69" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="G69" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H69" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="D69" t="s">
-        <v>57</v>
-      </c>
-      <c r="E69" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>230</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4663,31 +4665,31 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D70" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E70" t="s">
         <v>14</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4695,31 +4697,31 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="D71" t="s">
+        <v>55</v>
+      </c>
+      <c r="E71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="G71" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H71" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="D71" t="s">
-        <v>57</v>
-      </c>
-      <c r="E71" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>236</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4727,19 +4729,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>235</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="D72" t="s">
+        <v>55</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="8" t="s">
         <v>237</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="D72" t="s">
-        <v>57</v>
-      </c>
-      <c r="E72" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>239</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>21</v>
@@ -4760,31 +4762,31 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D73" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E73" t="s">
         <v>14</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="150" x14ac:dyDescent="0.25">
@@ -4792,31 +4794,31 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>240</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="D74" t="s">
+        <v>55</v>
+      </c>
+      <c r="E74" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="G74" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H74" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="D74" t="s">
-        <v>57</v>
-      </c>
-      <c r="E74" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>245</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4824,31 +4826,31 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>244</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="D75" t="s">
+        <v>55</v>
+      </c>
+      <c r="E75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="G75" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H75" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="D75" t="s">
-        <v>57</v>
-      </c>
-      <c r="E75" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>249</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4856,31 +4858,31 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>248</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="D76" t="s">
+        <v>55</v>
+      </c>
+      <c r="E76" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="G76" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H76" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="D76" t="s">
-        <v>57</v>
-      </c>
-      <c r="E76" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H76" s="5" t="s">
-        <v>253</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4888,31 +4890,31 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>252</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="D77" t="s">
+        <v>55</v>
+      </c>
+      <c r="E77" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="G77" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H77" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="D77" t="s">
-        <v>57</v>
-      </c>
-      <c r="E77" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4920,31 +4922,31 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D78" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E78" t="s">
         <v>14</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4952,31 +4954,31 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D79" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E79" t="s">
         <v>14</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4984,31 +4986,31 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D80" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E80" t="s">
         <v>14</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -5016,31 +5018,31 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>262</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="D81" t="s">
+        <v>55</v>
+      </c>
+      <c r="E81" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="G81" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H81" s="5" t="s">
         <v>265</v>
-      </c>
-      <c r="D81" t="s">
-        <v>57</v>
-      </c>
-      <c r="E81" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H81" s="5" t="s">
-        <v>267</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5048,31 +5050,31 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D82" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E82" t="s">
         <v>14</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5080,31 +5082,31 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>268</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D83" t="s">
+        <v>55</v>
+      </c>
+      <c r="E83" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="G83" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H83" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="D83" t="s">
-        <v>57</v>
-      </c>
-      <c r="E83" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>273</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -5112,19 +5114,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="D84" t="s">
+        <v>55</v>
+      </c>
+      <c r="E84" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="D84" t="s">
-        <v>57</v>
-      </c>
-      <c r="E84" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>276</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>21</v>
@@ -5144,19 +5146,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>275</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="D85" t="s">
+        <v>55</v>
+      </c>
+      <c r="E85" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="4" t="s">
         <v>277</v>
-      </c>
-      <c r="C85" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D85" t="s">
-        <v>57</v>
-      </c>
-      <c r="E85" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>279</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>21</v>
@@ -5176,19 +5178,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>278</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="D86" t="s">
+        <v>55</v>
+      </c>
+      <c r="E86" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="C86" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="D86" t="s">
-        <v>57</v>
-      </c>
-      <c r="E86" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>282</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>21</v>
@@ -5209,31 +5211,31 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D87" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E87" t="s">
         <v>14</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -5241,31 +5243,31 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D88" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E88" t="s">
         <v>14</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5273,31 +5275,31 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D89" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E89" t="s">
         <v>14</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -5305,31 +5307,31 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>287</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="D90" t="s">
+        <v>55</v>
+      </c>
+      <c r="E90" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C90" s="20" t="s">
+      <c r="G90" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H90" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="D90" t="s">
-        <v>57</v>
-      </c>
-      <c r="E90" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H90" s="5" t="s">
-        <v>292</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -5337,31 +5339,31 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>291</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="D91" t="s">
+        <v>55</v>
+      </c>
+      <c r="E91" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="C91" s="20" t="s">
+      <c r="G91" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H91" s="5" t="s">
         <v>294</v>
-      </c>
-      <c r="D91" t="s">
-        <v>57</v>
-      </c>
-      <c r="E91" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H91" s="5" t="s">
-        <v>296</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5369,19 +5371,19 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>295</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="D92" t="s">
+        <v>55</v>
+      </c>
+      <c r="E92" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="4" t="s">
         <v>297</v>
-      </c>
-      <c r="C92" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="D92" t="s">
-        <v>57</v>
-      </c>
-      <c r="E92" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>299</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>21</v>
@@ -5401,31 +5403,31 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>298</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="D93" t="s">
+        <v>55</v>
+      </c>
+      <c r="E93" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="C93" s="20" t="s">
+      <c r="G93" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H93" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="D93" t="s">
-        <v>57</v>
-      </c>
-      <c r="E93" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H93" s="5" t="s">
-        <v>303</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -5433,31 +5435,31 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>302</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="D94" t="s">
+        <v>55</v>
+      </c>
+      <c r="E94" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C94" s="20" t="s">
+      <c r="G94" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H94" s="5" t="s">
         <v>305</v>
-      </c>
-      <c r="D94" t="s">
-        <v>57</v>
-      </c>
-      <c r="E94" t="s">
-        <v>14</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>307</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5465,31 +5467,31 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>306</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="D95" t="s">
+        <v>55</v>
+      </c>
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="C95" s="20" t="s">
+      <c r="G95" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H95" s="5" t="s">
         <v>309</v>
-      </c>
-      <c r="D95" t="s">
-        <v>57</v>
-      </c>
-      <c r="E95" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H95" s="5" t="s">
-        <v>311</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5497,19 +5499,19 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>310</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="D96" t="s">
+        <v>55</v>
+      </c>
+      <c r="E96" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="C96" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="D96" t="s">
-        <v>57</v>
-      </c>
-      <c r="E96" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>314</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>21</v>
@@ -5518,13 +5520,13 @@
         <v>21</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J96" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K96" s="17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -5532,31 +5534,31 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D97" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E97" t="s">
         <v>14</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -5564,19 +5566,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D98" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E98" t="s">
         <v>14</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>21</v>
@@ -5596,31 +5598,31 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D99" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E99" t="s">
         <v>14</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5628,31 +5630,31 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D100" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E100" t="s">
         <v>14</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5660,19 +5662,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>323</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="D101" t="s">
+        <v>55</v>
+      </c>
+      <c r="E101" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" s="8" t="s">
         <v>325</v>
-      </c>
-      <c r="C101" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="D101" t="s">
-        <v>57</v>
-      </c>
-      <c r="E101" t="s">
-        <v>14</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>327</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>21</v>
@@ -5692,19 +5694,19 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>326</v>
+      </c>
+      <c r="C102" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="D102" t="s">
+        <v>55</v>
+      </c>
+      <c r="E102" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="27" t="s">
         <v>328</v>
-      </c>
-      <c r="C102" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="D102" t="s">
-        <v>57</v>
-      </c>
-      <c r="E102" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="29" t="s">
-        <v>330</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>21</v>
@@ -5724,19 +5726,19 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>329</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="D103" t="s">
+        <v>55</v>
+      </c>
+      <c r="E103" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="4" t="s">
         <v>331</v>
-      </c>
-      <c r="C103" s="20" t="s">
-        <v>332</v>
-      </c>
-      <c r="D103" t="s">
-        <v>57</v>
-      </c>
-      <c r="E103" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>333</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>21</v>
@@ -5756,31 +5758,31 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D104" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E104" t="s">
         <v>14</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5788,19 +5790,19 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>334</v>
+      </c>
+      <c r="C105" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="D105" t="s">
+        <v>55</v>
+      </c>
+      <c r="E105" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="4" t="s">
         <v>336</v>
-      </c>
-      <c r="C105" s="20" t="s">
-        <v>337</v>
-      </c>
-      <c r="D105" t="s">
-        <v>57</v>
-      </c>
-      <c r="E105" t="s">
-        <v>14</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>338</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>21</v>
@@ -5820,31 +5822,31 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D106" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E106" t="s">
         <v>14</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -5852,31 +5854,31 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D107" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E107" t="s">
         <v>14</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -5884,19 +5886,19 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>341</v>
+      </c>
+      <c r="C108" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="D108" t="s">
+        <v>55</v>
+      </c>
+      <c r="E108" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="4" t="s">
         <v>343</v>
-      </c>
-      <c r="C108" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="D108" t="s">
-        <v>57</v>
-      </c>
-      <c r="E108" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>345</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>21</v>
@@ -5916,34 +5918,34 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>344</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="D109" t="s">
+        <v>55</v>
+      </c>
+      <c r="E109" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="28" t="s">
         <v>346</v>
       </c>
-      <c r="C109" s="20" t="s">
+      <c r="G109" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H109" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="D109" t="s">
-        <v>57</v>
-      </c>
-      <c r="E109" t="s">
-        <v>14</v>
-      </c>
-      <c r="F109" s="30" t="s">
+      <c r="I109" s="6" t="s">
         <v>348</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H109" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="I109" s="6" t="s">
-        <v>350</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5951,31 +5953,31 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D110" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E110" t="s">
         <v>14</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -5983,31 +5985,31 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D111" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E111" t="s">
         <v>14</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6015,31 +6017,31 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D112" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E112" t="s">
         <v>14</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -6047,31 +6049,31 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D113" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E113" t="s">
         <v>14</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -6079,31 +6081,31 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D114" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E114" t="s">
         <v>14</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6111,31 +6113,31 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D115" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E115" t="s">
         <v>14</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -6143,31 +6145,31 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D116" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E116" t="s">
         <v>14</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6175,31 +6177,31 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D117" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E117" t="s">
         <v>14</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -6207,31 +6209,31 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D118" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E118" t="s">
         <v>14</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6239,31 +6241,31 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D119" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E119" t="s">
         <v>14</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -6271,31 +6273,31 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D120" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E120" t="s">
         <v>14</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6303,31 +6305,31 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D121" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E121" t="s">
         <v>14</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -6335,31 +6337,31 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D122" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E122" t="s">
         <v>14</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6367,31 +6369,31 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D123" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E123" t="s">
         <v>14</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -6399,31 +6401,31 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D124" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E124" t="s">
         <v>14</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6431,31 +6433,31 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D125" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E125" t="s">
         <v>14</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6463,31 +6465,31 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D126" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E126" t="s">
         <v>14</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6495,19 +6497,19 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
+        <v>383</v>
+      </c>
+      <c r="C127" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="D127" t="s">
+        <v>55</v>
+      </c>
+      <c r="E127" t="s">
+        <v>14</v>
+      </c>
+      <c r="F127" s="4" t="s">
         <v>385</v>
-      </c>
-      <c r="C127" s="20" t="s">
-        <v>386</v>
-      </c>
-      <c r="D127" t="s">
-        <v>57</v>
-      </c>
-      <c r="E127" t="s">
-        <v>14</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>387</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>21</v>
@@ -6527,31 +6529,66 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C128" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="D128" t="s">
+        <v>55</v>
+      </c>
+      <c r="E128" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
         <v>389</v>
       </c>
-      <c r="D128" t="s">
-        <v>57</v>
-      </c>
-      <c r="E128" t="s">
-        <v>14</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J128" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K128" s="2" t="s">
-        <v>67</v>
+      <c r="C129" t="s">
+        <v>390</v>
+      </c>
+      <c r="D129" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E129" t="s">
+        <v>391</v>
+      </c>
+      <c r="F129" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="J129" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="K129" s="32" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -6565,18 +6602,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -6817,7 +6842,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6826,24 +6851,19 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBFC15CC-4CA5-447A-915F-1412CED97222}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA68FB6B-B5E6-4AB5-ACC7-06ACAB30D951}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6862,10 +6882,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E89B3EC5-962B-41D9-9821-3A191D2434CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBFC15CC-4CA5-447A-915F-1412CED97222}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_LISA_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_LISA_P1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{98A36DAB-D993-414E-92A9-832AED68064C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FA1A5B-0FF7-4BAB-A7BE-EEB3CE25F0FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -178,9 +178,6 @@
     <t>K_FB_rauchkind_15</t>
   </si>
   <si>
-    <t>recode(1 = 1; 2=3; 3=3; 4=3;)</t>
-  </si>
-  <si>
     <t>partial</t>
   </si>
   <si>
@@ -1408,6 +1405,9 @@
   </si>
   <si>
     <t>1 (FFQ)</t>
+  </si>
+  <si>
+    <t>recode(1= 1; 2 = 3; 3=3; 4 = 3; 5=3)</t>
   </si>
 </sst>
 </file>
@@ -2400,8 +2400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C137" sqref="C137"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2542,7 +2542,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J4" s="15" t="s">
         <v>16</v>
@@ -2644,14 +2644,14 @@
         <v>25</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>43</v>
+        <v>394</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="15" t="s">
         <v>44</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2659,10 +2659,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>46</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>35</v>
@@ -2671,7 +2671,7 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>21</v>
@@ -2692,10 +2692,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>50</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>35</v>
@@ -2704,13 +2704,13 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="16" t="s">
-        <v>52</v>
-      </c>
       <c r="H9" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="16" t="s">
@@ -2725,34 +2725,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2760,25 +2760,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>61</v>
-      </c>
       <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>16</v>
@@ -2792,31 +2792,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>63</v>
-      </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -2824,25 +2824,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>16</v>
@@ -2856,25 +2856,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>16</v>
@@ -2888,19 +2888,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="D15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>21</v>
@@ -2920,19 +2920,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="D16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>21</v>
@@ -2952,22 +2952,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>82</v>
-      </c>
       <c r="G17" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>21</v>
@@ -2984,31 +2984,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>84</v>
-      </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3016,31 +3016,31 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>86</v>
-      </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3048,31 +3048,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>88</v>
-      </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3080,31 +3080,31 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>90</v>
-      </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3112,31 +3112,31 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="20" t="s">
-        <v>92</v>
-      </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3144,31 +3144,31 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="20" t="s">
-        <v>94</v>
-      </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3176,19 +3176,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="D24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>97</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>21</v>
@@ -3208,25 +3208,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="D25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="2" t="s">
@@ -3241,25 +3241,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="D26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>16</v>
@@ -3273,19 +3273,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="D27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="D27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>108</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>21</v>
@@ -3305,31 +3305,31 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>110</v>
-      </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3337,31 +3337,31 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="20" t="s">
-        <v>112</v>
-      </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="135" x14ac:dyDescent="0.25">
@@ -3369,25 +3369,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="D30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="D30" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>16</v>
@@ -3401,19 +3401,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="D31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="D31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>119</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>21</v>
@@ -3433,25 +3433,25 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="D32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="D32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>16</v>
@@ -3465,19 +3465,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="D33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="D33" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>126</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>21</v>
@@ -3497,19 +3497,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="D34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="D34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>21</v>
@@ -3530,25 +3530,25 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="D35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D35" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2" t="s">
@@ -3563,19 +3563,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="D36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="D36" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>21</v>
@@ -3596,19 +3596,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="D37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="D37" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>21</v>
@@ -3629,19 +3629,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="20" t="s">
-        <v>141</v>
-      </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E38" t="s">
         <v>14</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>21</v>
@@ -3662,31 +3662,31 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C39" s="20" t="s">
-        <v>143</v>
-      </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E39" t="s">
         <v>14</v>
       </c>
       <c r="F39" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K39" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3694,31 +3694,31 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="20" t="s">
-        <v>145</v>
-      </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E40" t="s">
         <v>14</v>
       </c>
       <c r="F40" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K40" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="165" x14ac:dyDescent="0.25">
@@ -3726,25 +3726,25 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="D41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="D41" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>16</v>
@@ -3758,31 +3758,31 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C42" s="20" t="s">
-        <v>151</v>
-      </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E42" t="s">
         <v>14</v>
       </c>
       <c r="F42" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K42" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3790,25 +3790,25 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="D43" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="D43" t="s">
-        <v>55</v>
-      </c>
-      <c r="E43" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>16</v>
@@ -3822,34 +3822,34 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="D44" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="D44" t="s">
-        <v>55</v>
-      </c>
-      <c r="E44" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H44" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I44" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="I44" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="J44" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3857,25 +3857,25 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="C45" s="20" t="s">
-        <v>162</v>
-      </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E45" t="s">
         <v>14</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>16</v>
@@ -3889,31 +3889,31 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="C46" s="20" t="s">
-        <v>164</v>
-      </c>
       <c r="D46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E46" t="s">
         <v>14</v>
       </c>
       <c r="F46" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K46" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3921,25 +3921,25 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="D47" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="D47" t="s">
-        <v>55</v>
-      </c>
-      <c r="E47" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>167</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>16</v>
@@ -3953,31 +3953,31 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C48" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="C48" s="20" t="s">
-        <v>170</v>
-      </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E48" t="s">
         <v>14</v>
       </c>
       <c r="F48" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K48" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3985,19 +3985,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="D49" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="D49" t="s">
-        <v>55</v>
-      </c>
-      <c r="E49" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>21</v>
@@ -4017,19 +4017,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="D50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="18" t="s">
         <v>175</v>
-      </c>
-      <c r="D50" t="s">
-        <v>55</v>
-      </c>
-      <c r="E50" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="18" t="s">
-        <v>176</v>
       </c>
       <c r="G50" s="17" t="s">
         <v>21</v>
@@ -4050,25 +4050,25 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="D51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="26" t="s">
         <v>178</v>
-      </c>
-      <c r="D51" t="s">
-        <v>55</v>
-      </c>
-      <c r="E51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="26" t="s">
-        <v>179</v>
       </c>
       <c r="G51" s="17" t="s">
         <v>37</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I51" s="14"/>
       <c r="J51" s="17" t="s">
@@ -4083,34 +4083,34 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="D52" t="s">
+        <v>54</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="8" t="s">
         <v>182</v>
-      </c>
-      <c r="D52" t="s">
-        <v>55</v>
-      </c>
-      <c r="E52" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>183</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H52" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="I52" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="J52" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4118,34 +4118,34 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="C53" s="20" t="s">
-        <v>187</v>
-      </c>
       <c r="D53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E53" t="s">
         <v>14</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H53" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="I53" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="I53" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="J53" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -4153,19 +4153,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C54" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="D54" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="D54" t="s">
-        <v>55</v>
-      </c>
-      <c r="E54" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>190</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>21</v>
@@ -4185,31 +4185,31 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C55" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="C55" s="20" t="s">
-        <v>192</v>
-      </c>
       <c r="D55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E55" t="s">
         <v>14</v>
       </c>
       <c r="F55" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K55" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -4217,31 +4217,31 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C56" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="C56" s="20" t="s">
-        <v>194</v>
-      </c>
       <c r="D56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E56" t="s">
         <v>14</v>
       </c>
       <c r="F56" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K56" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -4249,31 +4249,31 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C57" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="C57" s="20" t="s">
-        <v>196</v>
-      </c>
       <c r="D57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E57" t="s">
         <v>14</v>
       </c>
       <c r="F57" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K57" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -4281,19 +4281,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C58" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="D58" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="D58" t="s">
-        <v>55</v>
-      </c>
-      <c r="E58" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>21</v>
@@ -4313,31 +4313,31 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C59" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="C59" s="20" t="s">
-        <v>201</v>
-      </c>
       <c r="D59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E59" t="s">
         <v>14</v>
       </c>
       <c r="F59" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K59" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -4345,31 +4345,31 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C60" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="C60" s="20" t="s">
-        <v>203</v>
-      </c>
       <c r="D60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E60" t="s">
         <v>14</v>
       </c>
       <c r="F60" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K60" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -4377,31 +4377,31 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C61" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="C61" s="20" t="s">
-        <v>205</v>
-      </c>
       <c r="D61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E61" t="s">
         <v>14</v>
       </c>
       <c r="F61" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K61" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -4409,31 +4409,31 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C62" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="C62" s="20" t="s">
-        <v>207</v>
-      </c>
       <c r="D62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E62" t="s">
         <v>14</v>
       </c>
       <c r="F62" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K62" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -4441,31 +4441,31 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C63" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="C63" s="20" t="s">
-        <v>209</v>
-      </c>
       <c r="D63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E63" t="s">
         <v>14</v>
       </c>
       <c r="F63" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K63" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4473,31 +4473,31 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C64" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="C64" s="20" t="s">
-        <v>211</v>
-      </c>
       <c r="D64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E64" t="s">
         <v>14</v>
       </c>
       <c r="F64" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K64" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4505,31 +4505,31 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C65" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="C65" s="20" t="s">
-        <v>213</v>
-      </c>
       <c r="D65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E65" t="s">
         <v>14</v>
       </c>
       <c r="F65" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K65" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4537,25 +4537,25 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C66" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="D66" t="s">
+        <v>54</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="D66" t="s">
-        <v>55</v>
-      </c>
-      <c r="E66" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>16</v>
@@ -4569,19 +4569,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C67" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="D67" t="s">
+        <v>54</v>
+      </c>
+      <c r="E67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="8" t="s">
         <v>219</v>
-      </c>
-      <c r="D67" t="s">
-        <v>55</v>
-      </c>
-      <c r="E67" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>220</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>21</v>
@@ -4601,25 +4601,25 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C68" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="D68" t="s">
+        <v>54</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="D68" t="s">
-        <v>55</v>
-      </c>
-      <c r="E68" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>223</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>16</v>
@@ -4633,25 +4633,25 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C69" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="D69" t="s">
+        <v>54</v>
+      </c>
+      <c r="E69" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="D69" t="s">
-        <v>55</v>
-      </c>
-      <c r="E69" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>227</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>16</v>
@@ -4665,31 +4665,31 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C70" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="C70" s="20" t="s">
-        <v>230</v>
-      </c>
       <c r="D70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E70" t="s">
         <v>14</v>
       </c>
       <c r="F70" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K70" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4697,25 +4697,25 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C71" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="D71" t="s">
+        <v>54</v>
+      </c>
+      <c r="E71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="D71" t="s">
-        <v>55</v>
-      </c>
-      <c r="E71" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>16</v>
@@ -4729,19 +4729,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>234</v>
+      </c>
+      <c r="C72" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="D72" t="s">
+        <v>54</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="8" t="s">
         <v>236</v>
-      </c>
-      <c r="D72" t="s">
-        <v>55</v>
-      </c>
-      <c r="E72" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>237</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>21</v>
@@ -4762,31 +4762,31 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>237</v>
+      </c>
+      <c r="C73" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C73" s="20" t="s">
-        <v>239</v>
-      </c>
       <c r="D73" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E73" t="s">
         <v>14</v>
       </c>
       <c r="F73" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K73" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="150" x14ac:dyDescent="0.25">
@@ -4794,25 +4794,25 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>239</v>
+      </c>
+      <c r="C74" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="D74" t="s">
+        <v>54</v>
+      </c>
+      <c r="E74" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="D74" t="s">
-        <v>55</v>
-      </c>
-      <c r="E74" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>242</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>16</v>
@@ -4826,25 +4826,25 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>243</v>
+      </c>
+      <c r="C75" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="D75" t="s">
+        <v>54</v>
+      </c>
+      <c r="E75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="5" t="s">
         <v>245</v>
-      </c>
-      <c r="D75" t="s">
-        <v>55</v>
-      </c>
-      <c r="E75" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>246</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>16</v>
@@ -4858,25 +4858,25 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>247</v>
+      </c>
+      <c r="C76" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="D76" t="s">
+        <v>54</v>
+      </c>
+      <c r="E76" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="D76" t="s">
-        <v>55</v>
-      </c>
-      <c r="E76" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>250</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>16</v>
@@ -4890,25 +4890,25 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>251</v>
+      </c>
+      <c r="C77" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="D77" t="s">
+        <v>54</v>
+      </c>
+      <c r="E77" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="D77" t="s">
-        <v>55</v>
-      </c>
-      <c r="E77" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>254</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>16</v>
@@ -4922,31 +4922,31 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>255</v>
+      </c>
+      <c r="C78" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="C78" s="20" t="s">
-        <v>257</v>
-      </c>
       <c r="D78" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E78" t="s">
         <v>14</v>
       </c>
       <c r="F78" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K78" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4954,31 +4954,31 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>257</v>
+      </c>
+      <c r="C79" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C79" s="20" t="s">
-        <v>259</v>
-      </c>
       <c r="D79" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E79" t="s">
         <v>14</v>
       </c>
       <c r="F79" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K79" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4986,31 +4986,31 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>259</v>
+      </c>
+      <c r="C80" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C80" s="20" t="s">
-        <v>261</v>
-      </c>
       <c r="D80" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E80" t="s">
         <v>14</v>
       </c>
       <c r="F80" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K80" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -5018,25 +5018,25 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>261</v>
+      </c>
+      <c r="C81" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="D81" t="s">
+        <v>54</v>
+      </c>
+      <c r="E81" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="D81" t="s">
-        <v>55</v>
-      </c>
-      <c r="E81" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>264</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>16</v>
@@ -5050,31 +5050,31 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>265</v>
+      </c>
+      <c r="C82" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="C82" s="20" t="s">
-        <v>267</v>
-      </c>
       <c r="D82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E82" t="s">
         <v>14</v>
       </c>
       <c r="F82" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K82" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5082,25 +5082,25 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>267</v>
+      </c>
+      <c r="C83" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="D83" t="s">
+        <v>54</v>
+      </c>
+      <c r="E83" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="5" t="s">
         <v>269</v>
-      </c>
-      <c r="D83" t="s">
-        <v>55</v>
-      </c>
-      <c r="E83" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>270</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>16</v>
@@ -5114,19 +5114,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C84" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="C84" s="20" t="s">
+      <c r="D84" t="s">
+        <v>54</v>
+      </c>
+      <c r="E84" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="4" t="s">
         <v>273</v>
-      </c>
-      <c r="D84" t="s">
-        <v>55</v>
-      </c>
-      <c r="E84" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>274</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>21</v>
@@ -5146,19 +5146,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>274</v>
+      </c>
+      <c r="C85" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="D85" t="s">
+        <v>54</v>
+      </c>
+      <c r="E85" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="D85" t="s">
-        <v>55</v>
-      </c>
-      <c r="E85" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>277</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>21</v>
@@ -5178,19 +5178,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>277</v>
+      </c>
+      <c r="C86" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="D86" t="s">
+        <v>54</v>
+      </c>
+      <c r="E86" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="D86" t="s">
-        <v>55</v>
-      </c>
-      <c r="E86" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>280</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>21</v>
@@ -5211,31 +5211,31 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>280</v>
+      </c>
+      <c r="C87" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="C87" s="20" t="s">
-        <v>282</v>
-      </c>
       <c r="D87" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E87" t="s">
         <v>14</v>
       </c>
       <c r="F87" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K87" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -5243,31 +5243,31 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>282</v>
+      </c>
+      <c r="C88" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="C88" s="20" t="s">
-        <v>284</v>
-      </c>
       <c r="D88" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E88" t="s">
         <v>14</v>
       </c>
       <c r="F88" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K88" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J88" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K88" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5275,31 +5275,31 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>284</v>
+      </c>
+      <c r="C89" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="C89" s="20" t="s">
-        <v>286</v>
-      </c>
       <c r="D89" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E89" t="s">
         <v>14</v>
       </c>
       <c r="F89" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K89" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J89" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K89" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -5307,25 +5307,25 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>286</v>
+      </c>
+      <c r="C90" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="C90" s="20" t="s">
+      <c r="D90" t="s">
+        <v>54</v>
+      </c>
+      <c r="E90" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="5" t="s">
         <v>288</v>
-      </c>
-      <c r="D90" t="s">
-        <v>55</v>
-      </c>
-      <c r="E90" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>289</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>16</v>
@@ -5339,25 +5339,25 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>290</v>
+      </c>
+      <c r="C91" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="C91" s="20" t="s">
+      <c r="D91" t="s">
+        <v>54</v>
+      </c>
+      <c r="E91" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="5" t="s">
         <v>292</v>
-      </c>
-      <c r="D91" t="s">
-        <v>55</v>
-      </c>
-      <c r="E91" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>293</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>16</v>
@@ -5371,19 +5371,19 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>294</v>
+      </c>
+      <c r="C92" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="C92" s="20" t="s">
+      <c r="D92" t="s">
+        <v>54</v>
+      </c>
+      <c r="E92" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="D92" t="s">
-        <v>55</v>
-      </c>
-      <c r="E92" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>297</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>21</v>
@@ -5403,25 +5403,25 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>297</v>
+      </c>
+      <c r="C93" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="C93" s="20" t="s">
+      <c r="D93" t="s">
+        <v>54</v>
+      </c>
+      <c r="E93" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="D93" t="s">
-        <v>55</v>
-      </c>
-      <c r="E93" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>16</v>
@@ -5435,25 +5435,25 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>301</v>
+      </c>
+      <c r="C94" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="C94" s="20" t="s">
+      <c r="D94" t="s">
+        <v>54</v>
+      </c>
+      <c r="E94" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="5" t="s">
         <v>303</v>
-      </c>
-      <c r="D94" t="s">
-        <v>55</v>
-      </c>
-      <c r="E94" t="s">
-        <v>14</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>304</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>16</v>
@@ -5467,25 +5467,25 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>305</v>
+      </c>
+      <c r="C95" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="C95" s="20" t="s">
+      <c r="D95" t="s">
+        <v>54</v>
+      </c>
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="D95" t="s">
-        <v>55</v>
-      </c>
-      <c r="E95" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>37</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>16</v>
@@ -5499,19 +5499,19 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>309</v>
+      </c>
+      <c r="C96" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="C96" s="20" t="s">
+      <c r="D96" t="s">
+        <v>54</v>
+      </c>
+      <c r="E96" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="4" t="s">
         <v>311</v>
-      </c>
-      <c r="D96" t="s">
-        <v>55</v>
-      </c>
-      <c r="E96" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>312</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>21</v>
@@ -5520,13 +5520,13 @@
         <v>21</v>
       </c>
       <c r="I96" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="J96" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K96" s="17" t="s">
         <v>313</v>
-      </c>
-      <c r="J96" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="K96" s="17" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -5534,31 +5534,31 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>314</v>
+      </c>
+      <c r="C97" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="C97" s="20" t="s">
-        <v>316</v>
-      </c>
       <c r="D97" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E97" t="s">
         <v>14</v>
       </c>
       <c r="F97" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K97" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -5566,19 +5566,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>316</v>
+      </c>
+      <c r="C98" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="C98" s="20" t="s">
-        <v>318</v>
-      </c>
       <c r="D98" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E98" t="s">
         <v>14</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>21</v>
@@ -5598,31 +5598,31 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>318</v>
+      </c>
+      <c r="C99" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="C99" s="20" t="s">
-        <v>320</v>
-      </c>
       <c r="D99" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E99" t="s">
         <v>14</v>
       </c>
       <c r="F99" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K99" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J99" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K99" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5630,31 +5630,31 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C100" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="C100" s="20" t="s">
-        <v>322</v>
-      </c>
       <c r="D100" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E100" t="s">
         <v>14</v>
       </c>
       <c r="F100" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K100" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J100" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K100" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5662,19 +5662,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>322</v>
+      </c>
+      <c r="C101" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C101" s="20" t="s">
+      <c r="D101" t="s">
+        <v>54</v>
+      </c>
+      <c r="E101" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" s="8" t="s">
         <v>324</v>
-      </c>
-      <c r="D101" t="s">
-        <v>55</v>
-      </c>
-      <c r="E101" t="s">
-        <v>14</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>325</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>21</v>
@@ -5694,19 +5694,19 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>325</v>
+      </c>
+      <c r="C102" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="C102" s="20" t="s">
+      <c r="D102" t="s">
+        <v>54</v>
+      </c>
+      <c r="E102" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="27" t="s">
         <v>327</v>
-      </c>
-      <c r="D102" t="s">
-        <v>55</v>
-      </c>
-      <c r="E102" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="27" t="s">
-        <v>328</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>21</v>
@@ -5726,19 +5726,19 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>328</v>
+      </c>
+      <c r="C103" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="C103" s="20" t="s">
+      <c r="D103" t="s">
+        <v>54</v>
+      </c>
+      <c r="E103" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="4" t="s">
         <v>330</v>
-      </c>
-      <c r="D103" t="s">
-        <v>55</v>
-      </c>
-      <c r="E103" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>331</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>21</v>
@@ -5758,31 +5758,31 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
+        <v>331</v>
+      </c>
+      <c r="C104" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="C104" s="20" t="s">
-        <v>333</v>
-      </c>
       <c r="D104" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E104" t="s">
         <v>14</v>
       </c>
       <c r="F104" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K104" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J104" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K104" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5790,19 +5790,19 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>333</v>
+      </c>
+      <c r="C105" s="20" t="s">
         <v>334</v>
       </c>
-      <c r="C105" s="20" t="s">
+      <c r="D105" t="s">
+        <v>54</v>
+      </c>
+      <c r="E105" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="4" t="s">
         <v>335</v>
-      </c>
-      <c r="D105" t="s">
-        <v>55</v>
-      </c>
-      <c r="E105" t="s">
-        <v>14</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>336</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>21</v>
@@ -5822,31 +5822,31 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>336</v>
+      </c>
+      <c r="C106" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="C106" s="20" t="s">
-        <v>338</v>
-      </c>
       <c r="D106" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E106" t="s">
         <v>14</v>
       </c>
       <c r="F106" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K106" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K106" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -5854,31 +5854,31 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
+        <v>338</v>
+      </c>
+      <c r="C107" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="C107" s="20" t="s">
-        <v>340</v>
-      </c>
       <c r="D107" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E107" t="s">
         <v>14</v>
       </c>
       <c r="F107" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K107" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K107" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -5886,19 +5886,19 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>340</v>
+      </c>
+      <c r="C108" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="C108" s="20" t="s">
+      <c r="D108" t="s">
+        <v>54</v>
+      </c>
+      <c r="E108" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="D108" t="s">
-        <v>55</v>
-      </c>
-      <c r="E108" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>343</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>21</v>
@@ -5918,28 +5918,28 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>343</v>
+      </c>
+      <c r="C109" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="C109" s="20" t="s">
+      <c r="D109" t="s">
+        <v>54</v>
+      </c>
+      <c r="E109" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="28" t="s">
         <v>345</v>
-      </c>
-      <c r="D109" t="s">
-        <v>55</v>
-      </c>
-      <c r="E109" t="s">
-        <v>14</v>
-      </c>
-      <c r="F109" s="28" t="s">
-        <v>346</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H109" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="I109" s="6" t="s">
         <v>347</v>
-      </c>
-      <c r="I109" s="6" t="s">
-        <v>348</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>16</v>
@@ -5953,31 +5953,31 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
+        <v>348</v>
+      </c>
+      <c r="C110" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="C110" s="20" t="s">
-        <v>350</v>
-      </c>
       <c r="D110" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E110" t="s">
         <v>14</v>
       </c>
       <c r="F110" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K110" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K110" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -5985,31 +5985,31 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
+        <v>350</v>
+      </c>
+      <c r="C111" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="C111" s="20" t="s">
-        <v>352</v>
-      </c>
       <c r="D111" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E111" t="s">
         <v>14</v>
       </c>
       <c r="F111" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K111" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J111" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K111" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6017,31 +6017,31 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
+        <v>352</v>
+      </c>
+      <c r="C112" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="C112" s="20" t="s">
-        <v>354</v>
-      </c>
       <c r="D112" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E112" t="s">
         <v>14</v>
       </c>
       <c r="F112" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K112" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J112" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K112" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -6049,31 +6049,31 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
+        <v>354</v>
+      </c>
+      <c r="C113" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="C113" s="20" t="s">
-        <v>356</v>
-      </c>
       <c r="D113" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E113" t="s">
         <v>14</v>
       </c>
       <c r="F113" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K113" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J113" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K113" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -6081,31 +6081,31 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
+        <v>356</v>
+      </c>
+      <c r="C114" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="C114" s="20" t="s">
-        <v>358</v>
-      </c>
       <c r="D114" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E114" t="s">
         <v>14</v>
       </c>
       <c r="F114" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K114" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J114" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K114" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6113,31 +6113,31 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
+        <v>358</v>
+      </c>
+      <c r="C115" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="C115" s="20" t="s">
-        <v>360</v>
-      </c>
       <c r="D115" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E115" t="s">
         <v>14</v>
       </c>
       <c r="F115" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K115" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J115" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K115" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -6145,31 +6145,31 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
+        <v>360</v>
+      </c>
+      <c r="C116" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="C116" s="20" t="s">
-        <v>362</v>
-      </c>
       <c r="D116" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E116" t="s">
         <v>14</v>
       </c>
       <c r="F116" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K116" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K116" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6177,31 +6177,31 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
+        <v>362</v>
+      </c>
+      <c r="C117" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="C117" s="20" t="s">
-        <v>364</v>
-      </c>
       <c r="D117" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E117" t="s">
         <v>14</v>
       </c>
       <c r="F117" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K117" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K117" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -6209,31 +6209,31 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
+        <v>364</v>
+      </c>
+      <c r="C118" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="C118" s="20" t="s">
-        <v>366</v>
-      </c>
       <c r="D118" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E118" t="s">
         <v>14</v>
       </c>
       <c r="F118" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K118" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J118" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K118" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6241,31 +6241,31 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
+        <v>366</v>
+      </c>
+      <c r="C119" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="C119" s="20" t="s">
-        <v>368</v>
-      </c>
       <c r="D119" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E119" t="s">
         <v>14</v>
       </c>
       <c r="F119" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K119" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J119" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K119" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -6273,31 +6273,31 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
+        <v>368</v>
+      </c>
+      <c r="C120" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="C120" s="20" t="s">
-        <v>370</v>
-      </c>
       <c r="D120" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E120" t="s">
         <v>14</v>
       </c>
       <c r="F120" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K120" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J120" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K120" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6305,31 +6305,31 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
+        <v>370</v>
+      </c>
+      <c r="C121" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="C121" s="20" t="s">
-        <v>372</v>
-      </c>
       <c r="D121" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E121" t="s">
         <v>14</v>
       </c>
       <c r="F121" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K121" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J121" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K121" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -6337,31 +6337,31 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
+        <v>372</v>
+      </c>
+      <c r="C122" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="C122" s="20" t="s">
-        <v>374</v>
-      </c>
       <c r="D122" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E122" t="s">
         <v>14</v>
       </c>
       <c r="F122" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K122" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J122" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K122" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6369,31 +6369,31 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
+        <v>374</v>
+      </c>
+      <c r="C123" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="C123" s="20" t="s">
-        <v>376</v>
-      </c>
       <c r="D123" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E123" t="s">
         <v>14</v>
       </c>
       <c r="F123" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K123" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J123" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K123" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -6401,31 +6401,31 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
+        <v>376</v>
+      </c>
+      <c r="C124" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="C124" s="20" t="s">
-        <v>378</v>
-      </c>
       <c r="D124" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E124" t="s">
         <v>14</v>
       </c>
       <c r="F124" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K124" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J124" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K124" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6433,31 +6433,31 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
+        <v>378</v>
+      </c>
+      <c r="C125" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="C125" s="20" t="s">
-        <v>380</v>
-      </c>
       <c r="D125" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E125" t="s">
         <v>14</v>
       </c>
       <c r="F125" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K125" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J125" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K125" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6465,31 +6465,31 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
+        <v>380</v>
+      </c>
+      <c r="C126" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="C126" s="20" t="s">
-        <v>382</v>
-      </c>
       <c r="D126" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E126" t="s">
         <v>14</v>
       </c>
       <c r="F126" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K126" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J126" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K126" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6497,19 +6497,19 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
+        <v>382</v>
+      </c>
+      <c r="C127" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="C127" s="20" t="s">
+      <c r="D127" t="s">
+        <v>54</v>
+      </c>
+      <c r="E127" t="s">
+        <v>14</v>
+      </c>
+      <c r="F127" s="4" t="s">
         <v>384</v>
-      </c>
-      <c r="D127" t="s">
-        <v>55</v>
-      </c>
-      <c r="E127" t="s">
-        <v>14</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>385</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>21</v>
@@ -6529,31 +6529,31 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
+        <v>385</v>
+      </c>
+      <c r="C128" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="C128" s="20" t="s">
-        <v>387</v>
-      </c>
       <c r="D128" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E128" t="s">
         <v>14</v>
       </c>
       <c r="F128" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K128" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J128" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K128" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -6561,28 +6561,28 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
+        <v>388</v>
+      </c>
+      <c r="C129" t="s">
         <v>389</v>
-      </c>
-      <c r="C129" t="s">
-        <v>390</v>
       </c>
       <c r="D129" s="29" t="s">
         <v>13</v>
       </c>
       <c r="E129" t="s">
+        <v>390</v>
+      </c>
+      <c r="F129" s="30" t="s">
         <v>391</v>
       </c>
-      <c r="F129" s="30" t="s">
+      <c r="G129" s="4" t="s">
         <v>392</v>
-      </c>
-      <c r="G129" s="4" t="s">
-        <v>393</v>
       </c>
       <c r="H129">
         <v>1</v>
       </c>
       <c r="I129" s="31" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J129" s="32" t="s">
         <v>16</v>
@@ -6602,6 +6602,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -6842,28 +6863,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBFC15CC-4CA5-447A-915F-1412CED97222}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E89B3EC5-962B-41D9-9821-3A191D2434CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA68FB6B-B5E6-4AB5-ACC7-06ACAB30D951}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6880,29 +6905,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E89B3EC5-962B-41D9-9821-3A191D2434CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBFC15CC-4CA5-447A-915F-1412CED97222}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_LISA_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_LISA_P1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FA1A5B-0FF7-4BAB-A7BE-EEB3CE25F0FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF21D5A-D4CE-4865-AFA0-906A613E4F7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="394">
   <si>
     <t>index</t>
   </si>
@@ -1393,9 +1393,6 @@
   </si>
   <si>
     <t>Dietary Assessment Instrument</t>
-  </si>
-  <si>
-    <t>GINI_P1</t>
   </si>
   <si>
     <t>__BLANK__</t>
@@ -2400,8 +2397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2644,7 +2641,7 @@
         <v>25</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15" t="s">
@@ -6570,19 +6567,19 @@
         <v>13</v>
       </c>
       <c r="E129" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" s="30" t="s">
         <v>390</v>
       </c>
-      <c r="F129" s="30" t="s">
+      <c r="G129" s="4" t="s">
         <v>391</v>
-      </c>
-      <c r="G129" s="4" t="s">
-        <v>392</v>
       </c>
       <c r="H129">
         <v>1</v>
       </c>
       <c r="I129" s="31" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J129" s="32" t="s">
         <v>16</v>
@@ -6614,15 +6611,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -6863,6 +6851,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBFC15CC-4CA5-447A-915F-1412CED97222}">
   <ds:schemaRefs>
@@ -6881,14 +6878,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E89B3EC5-962B-41D9-9821-3A191D2434CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA68FB6B-B5E6-4AB5-ACC7-06ACAB30D951}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6905,4 +6894,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E89B3EC5-962B-41D9-9821-3A191D2434CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_LISA_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_LISA_P1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF21D5A-D4CE-4865-AFA0-906A613E4F7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BDF3A9-4589-4DCE-963D-59394049EAAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="393">
   <si>
     <t>index</t>
   </si>
@@ -187,9 +187,6 @@
     <t>BMI</t>
   </si>
   <si>
-    <t>Body Mass index at baseline</t>
-  </si>
-  <si>
     <t>UB_bmi_15</t>
   </si>
   <si>
@@ -209,9 +206,6 @@
   </si>
   <si>
     <t>Intake of starchy roots or tubers [g/d]</t>
-  </si>
-  <si>
-    <t>num</t>
   </si>
   <si>
     <t xml:space="preserve">FFQKARTO_15; 
@@ -477,9 +471,6 @@
     <t>CHEESE_0505</t>
   </si>
   <si>
-    <t>Intake of Cheese [g/d]</t>
-  </si>
-  <si>
     <t>FFQHARTK_15; 
 FFQWEICH_15</t>
   </si>
@@ -491,10 +482,6 @@
     <t>DAIRYDESSERT_0506</t>
   </si>
   <si>
-    <t>Intake of dairy dessert and similar
-Starchy pudding [g/d]</t>
-  </si>
-  <si>
     <t>FFQPUDD_15</t>
   </si>
   <si>
@@ -516,9 +503,6 @@
     <t>NONDAIRYCREAM_050702</t>
   </si>
   <si>
-    <t>Intake of Imitation cream, non-dairy coffee creamers and dairy imitates other than milk [g/d]</t>
-  </si>
-  <si>
     <t>MILK_FOR_COFFEE_0508</t>
   </si>
   <si>
@@ -526,10 +510,6 @@
   </si>
   <si>
     <t>CEREAL_PROD_06</t>
-  </si>
-  <si>
-    <t>Intake of cereals and cereal primary derivatives
-Cereal grains (and cereal-like grains) [g/d]</t>
   </si>
   <si>
     <t xml:space="preserve">FFQNUD_15;  
@@ -635,9 +615,6 @@
     <t>DOUGH_PASTRY_0606</t>
   </si>
   <si>
-    <t>Intake of fine bakery wares [g/d]</t>
-  </si>
-  <si>
     <t>FFQCROIS_15</t>
   </si>
   <si>
@@ -724,13 +701,7 @@
     <t>OTHERPOULTRY_070200</t>
   </si>
   <si>
-    <t>Intake of other poultry meat[g/d]</t>
-  </si>
-  <si>
     <t>CHICKEN_070201</t>
-  </si>
-  <si>
-    <t>Intake of chicken meat[g/d]</t>
   </si>
   <si>
     <t>TURKEY_070202</t>
@@ -813,9 +784,6 @@
     <t>FISH_0801</t>
   </si>
   <si>
-    <t>Intake of Fish (meat) [g/d]</t>
-  </si>
-  <si>
     <t xml:space="preserve">FFQSEE_15; 
 FFQSUESS_15 </t>
   </si>
@@ -831,9 +799,6 @@
   </si>
   <si>
     <t>FISH_PROD_0803</t>
-  </si>
-  <si>
-    <t>Intake of processed fish[g/d]</t>
   </si>
   <si>
     <t>FFQBISM_15;
@@ -988,9 +953,6 @@
     <t>CHOCOLATE_1102</t>
   </si>
   <si>
-    <t>Intake of chocolate, chocolate products and chocolate coated conectionary [g/d]</t>
-  </si>
-  <si>
     <t xml:space="preserve">FFQSCHOKOL_15; 
 FFQSCHOKOR_15 </t>
   </si>
@@ -1045,9 +1007,6 @@
   </si>
   <si>
     <t>CAKES_12</t>
-  </si>
-  <si>
-    <t>Intake of cakes and fine bakery wares [g/d]</t>
   </si>
   <si>
     <t xml:space="preserve">FFQKEKS_15;  
@@ -1319,9 +1278,6 @@
     <t>CONDIMENTS_1504</t>
   </si>
   <si>
-    <t>Condiments intakes [g/d]</t>
-  </si>
-  <si>
     <t>SOUP_BOUILLON_16</t>
   </si>
   <si>
@@ -1337,10 +1293,6 @@
     <t>BOUILLON_1602</t>
   </si>
   <si>
-    <t>Intake of mixed vegetables soup, clear
-meat soup, clear [g/d]</t>
-  </si>
-  <si>
     <t>MISCELLANEOUS_17</t>
   </si>
   <si>
@@ -1383,9 +1335,6 @@
     <t>AMPHIBIANS_1704</t>
   </si>
   <si>
-    <t>intake of amphibians, reptiles, snails, insects [g/d]</t>
-  </si>
-  <si>
     <t>compatible, because it is integer in the study and we want decimal</t>
   </si>
   <si>
@@ -1405,13 +1354,58 @@
   </si>
   <si>
     <t>recode(1= 1; 2 = 3; 3=3; 4 = 3; 5=3)</t>
+  </si>
+  <si>
+    <t>Body Mass Index at baseline</t>
+  </si>
+  <si>
+    <t>Intake of cheese [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of dairy dessert and similar starchy pudding [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of imitation cream, non-dairy coffee creamers and dairy imitates other than milk [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of cereals and cereal primary derivatives, cereal grains (and cereal-like grains) [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of fine bakery products [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of other poultry meat [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of chicken meat [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of fish (meat) [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of processed fish [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of chocolate, chocolate products and chocolate coated confectionary [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of cakes and fine bakery products [g/d]</t>
+  </si>
+  <si>
+    <t>Condiments intake [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of mixed vegetables soup, clear meat soup [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of amphibians, reptiles, snails, insects [g/d]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1599,11 +1593,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1963,7 +1952,7 @@
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1990,9 +1979,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2007,12 +1993,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2020,10 +2000,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2033,57 +2013,57 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Link" xfId="42" builtinId="8"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2099,7 +2079,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2397,11 +2377,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="E129" sqref="E129"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="29" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -2464,7 +2444,7 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="18" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
@@ -2484,13 +2464,13 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
@@ -2499,17 +2479,17 @@
       <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15" t="s">
+      <c r="I3" s="14"/>
+      <c r="J3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2517,13 +2497,13 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" t="s">
         <v>35</v>
       </c>
       <c r="E4" t="s">
@@ -2532,19 +2512,19 @@
       <c r="F4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="J4" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="J4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="14" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2552,34 +2532,34 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="14" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2587,13 +2567,13 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" t="s">
         <v>35</v>
       </c>
       <c r="E6" t="s">
@@ -2602,19 +2582,19 @@
       <c r="F6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="14" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2622,13 +2602,13 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7" t="s">
@@ -2637,17 +2617,17 @@
       <c r="F7" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15" t="s">
+      <c r="H7" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2658,29 +2638,29 @@
       <c r="B8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" t="s">
+        <v>378</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16" t="s">
+      <c r="I8" s="15"/>
+      <c r="J8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2689,31 +2669,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16" t="s">
+      <c r="H9" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2722,34 +2702,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>43</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2757,25 +2737,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>16</v>
@@ -2784,36 +2764,36 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -2821,25 +2801,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>16</v>
@@ -2853,25 +2833,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>16</v>
@@ -2885,19 +2865,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>21</v>
@@ -2912,24 +2892,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>21</v>
@@ -2944,27 +2924,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>81</v>
-      </c>
       <c r="G17" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>21</v>
@@ -2981,159 +2961,159 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="C20" t="s">
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
+      </c>
+      <c r="C21" t="s">
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
+      </c>
+      <c r="C22" t="s">
+        <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3141,51 +3121,51 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
+      </c>
+      <c r="C23" t="s">
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>21</v>
@@ -3205,25 +3185,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="2" t="s">
@@ -3238,25 +3218,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>16</v>
@@ -3265,24 +3245,24 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>21</v>
@@ -3297,36 +3277,36 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
+      </c>
+      <c r="C28" t="s">
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3334,31 +3314,31 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="C29" t="s">
+        <v>109</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="135" x14ac:dyDescent="0.25">
@@ -3366,25 +3346,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>16</v>
@@ -3393,24 +3373,24 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>118</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>21</v>
@@ -3425,30 +3405,30 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>16</v>
@@ -3457,24 +3437,24 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="D33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>21</v>
@@ -3489,24 +3469,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>21</v>
@@ -3527,25 +3507,25 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="C35" t="s">
+        <v>379</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2" t="s">
@@ -3555,24 +3535,24 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>134</v>
+        <v>130</v>
+      </c>
+      <c r="C36" t="s">
+        <v>380</v>
       </c>
       <c r="D36" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E36" t="s">
         <v>14</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>21</v>
@@ -3588,24 +3568,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>137</v>
+        <v>132</v>
+      </c>
+      <c r="C37" t="s">
+        <v>133</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E37" t="s">
         <v>14</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>21</v>
@@ -3621,24 +3601,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>140</v>
+        <v>135</v>
+      </c>
+      <c r="C38" t="s">
+        <v>136</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E38" t="s">
         <v>14</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>21</v>
@@ -3654,68 +3634,68 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>142</v>
+        <v>137</v>
+      </c>
+      <c r="C39" t="s">
+        <v>381</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E39" t="s">
         <v>14</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>144</v>
+        <v>138</v>
+      </c>
+      <c r="C40" t="s">
+        <v>139</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E40" t="s">
         <v>14</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="165" x14ac:dyDescent="0.25">
@@ -3723,25 +3703,25 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>382</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E41" t="s">
         <v>14</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>16</v>
@@ -3750,36 +3730,36 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>150</v>
+        <v>143</v>
+      </c>
+      <c r="C42" t="s">
+        <v>144</v>
       </c>
       <c r="D42" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E42" t="s">
         <v>14</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3787,25 +3767,25 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>152</v>
+        <v>145</v>
+      </c>
+      <c r="C43" t="s">
+        <v>146</v>
       </c>
       <c r="D43" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E43" t="s">
         <v>14</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>16</v>
@@ -3819,34 +3799,34 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>156</v>
+        <v>149</v>
+      </c>
+      <c r="C44" t="s">
+        <v>150</v>
       </c>
       <c r="D44" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E44" t="s">
         <v>14</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>43</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3854,25 +3834,25 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>161</v>
+        <v>154</v>
+      </c>
+      <c r="C45" t="s">
+        <v>155</v>
       </c>
       <c r="D45" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E45" t="s">
         <v>14</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>16</v>
@@ -3881,36 +3861,36 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>163</v>
+        <v>156</v>
+      </c>
+      <c r="C46" t="s">
+        <v>157</v>
       </c>
       <c r="D46" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E46" t="s">
         <v>14</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3918,25 +3898,25 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>165</v>
+        <v>158</v>
+      </c>
+      <c r="C47" t="s">
+        <v>159</v>
       </c>
       <c r="D47" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E47" t="s">
         <v>14</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>16</v>
@@ -3945,56 +3925,56 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>169</v>
+        <v>162</v>
+      </c>
+      <c r="C48" t="s">
+        <v>163</v>
       </c>
       <c r="D48" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E48" t="s">
         <v>14</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>171</v>
+        <v>164</v>
+      </c>
+      <c r="C49" t="s">
+        <v>383</v>
       </c>
       <c r="D49" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E49" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>21</v>
@@ -4009,36 +3989,36 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>174</v>
+        <v>166</v>
+      </c>
+      <c r="C50" t="s">
+        <v>167</v>
       </c>
       <c r="D50" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E50" t="s">
         <v>14</v>
       </c>
-      <c r="F50" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="G50" s="17" t="s">
+      <c r="F50" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G50" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H50" s="17" t="s">
+      <c r="H50" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I50" s="14"/>
-      <c r="J50" s="17" t="s">
+      <c r="I50" s="13"/>
+      <c r="J50" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K50" s="17" t="s">
+      <c r="K50" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4047,31 +4027,31 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>177</v>
+        <v>169</v>
+      </c>
+      <c r="C51" t="s">
+        <v>170</v>
       </c>
       <c r="D51" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E51" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="G51" s="17" t="s">
+      <c r="F51" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="G51" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H51" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="I51" s="14"/>
-      <c r="J51" s="17" t="s">
+      <c r="H51" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="I51" s="13"/>
+      <c r="J51" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K51" s="17" t="s">
+      <c r="K51" s="16" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4080,34 +4060,34 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>181</v>
+        <v>173</v>
+      </c>
+      <c r="C52" t="s">
+        <v>174</v>
       </c>
       <c r="D52" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E52" t="s">
         <v>14</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>43</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4115,34 +4095,34 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>186</v>
+        <v>178</v>
+      </c>
+      <c r="C53" t="s">
+        <v>179</v>
       </c>
       <c r="D53" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E53" t="s">
         <v>14</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>43</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -4150,19 +4130,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
+      </c>
+      <c r="C54" t="s">
+        <v>181</v>
       </c>
       <c r="D54" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E54" t="s">
         <v>14</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>21</v>
@@ -4177,36 +4157,36 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>191</v>
+        <v>183</v>
+      </c>
+      <c r="C55" t="s">
+        <v>184</v>
       </c>
       <c r="D55" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E55" t="s">
         <v>14</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -4214,31 +4194,31 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>193</v>
+        <v>185</v>
+      </c>
+      <c r="C56" t="s">
+        <v>186</v>
       </c>
       <c r="D56" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E56" t="s">
         <v>14</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -4246,31 +4226,31 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>195</v>
+        <v>187</v>
+      </c>
+      <c r="C57" t="s">
+        <v>188</v>
       </c>
       <c r="D57" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E57" t="s">
         <v>14</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -4278,19 +4258,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>197</v>
+        <v>189</v>
+      </c>
+      <c r="C58" t="s">
+        <v>190</v>
       </c>
       <c r="D58" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E58" t="s">
         <v>14</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>21</v>
@@ -4305,36 +4285,36 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>200</v>
+        <v>192</v>
+      </c>
+      <c r="C59" t="s">
+        <v>384</v>
       </c>
       <c r="D59" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E59" t="s">
         <v>14</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -4342,31 +4322,31 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>202</v>
+        <v>193</v>
+      </c>
+      <c r="C60" t="s">
+        <v>385</v>
       </c>
       <c r="D60" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E60" t="s">
         <v>14</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -4374,31 +4354,31 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>204</v>
+        <v>194</v>
+      </c>
+      <c r="C61" t="s">
+        <v>195</v>
       </c>
       <c r="D61" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E61" t="s">
         <v>14</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -4406,31 +4386,31 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>206</v>
+        <v>196</v>
+      </c>
+      <c r="C62" t="s">
+        <v>197</v>
       </c>
       <c r="D62" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E62" t="s">
         <v>14</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -4438,31 +4418,31 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>208</v>
+        <v>198</v>
+      </c>
+      <c r="C63" t="s">
+        <v>199</v>
       </c>
       <c r="D63" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E63" t="s">
         <v>14</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4470,31 +4450,31 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>210</v>
+        <v>200</v>
+      </c>
+      <c r="C64" t="s">
+        <v>201</v>
       </c>
       <c r="D64" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E64" t="s">
         <v>14</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4502,31 +4482,31 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>212</v>
+        <v>202</v>
+      </c>
+      <c r="C65" t="s">
+        <v>203</v>
       </c>
       <c r="D65" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E65" t="s">
         <v>14</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4534,25 +4514,25 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>214</v>
+        <v>204</v>
+      </c>
+      <c r="C66" t="s">
+        <v>205</v>
       </c>
       <c r="D66" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E66" t="s">
         <v>14</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>16</v>
@@ -4561,24 +4541,24 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>218</v>
+        <v>208</v>
+      </c>
+      <c r="C67" t="s">
+        <v>209</v>
       </c>
       <c r="D67" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E67" t="s">
         <v>14</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>21</v>
@@ -4598,25 +4578,25 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>221</v>
+        <v>211</v>
+      </c>
+      <c r="C68" t="s">
+        <v>212</v>
       </c>
       <c r="D68" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E68" t="s">
         <v>14</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>16</v>
@@ -4630,25 +4610,25 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>225</v>
+        <v>215</v>
+      </c>
+      <c r="C69" t="s">
+        <v>386</v>
       </c>
       <c r="D69" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E69" t="s">
         <v>14</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>16</v>
@@ -4657,36 +4637,36 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>229</v>
+        <v>218</v>
+      </c>
+      <c r="C70" t="s">
+        <v>219</v>
       </c>
       <c r="D70" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E70" t="s">
         <v>14</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4694,25 +4674,25 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C71" s="20" t="s">
-        <v>231</v>
+        <v>220</v>
+      </c>
+      <c r="C71" t="s">
+        <v>387</v>
       </c>
       <c r="D71" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E71" t="s">
         <v>14</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>16</v>
@@ -4721,24 +4701,24 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>234</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>235</v>
+        <v>223</v>
+      </c>
+      <c r="C72" t="s">
+        <v>224</v>
       </c>
       <c r="D72" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E72" t="s">
         <v>14</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>21</v>
@@ -4759,31 +4739,31 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>237</v>
-      </c>
-      <c r="C73" s="20" t="s">
-        <v>238</v>
+        <v>226</v>
+      </c>
+      <c r="C73" t="s">
+        <v>227</v>
       </c>
       <c r="D73" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E73" t="s">
         <v>14</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="150" x14ac:dyDescent="0.25">
@@ -4791,25 +4771,25 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>239</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>240</v>
+        <v>228</v>
+      </c>
+      <c r="C74" t="s">
+        <v>229</v>
       </c>
       <c r="D74" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E74" t="s">
         <v>14</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>16</v>
@@ -4823,25 +4803,25 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>243</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>244</v>
+        <v>232</v>
+      </c>
+      <c r="C75" t="s">
+        <v>233</v>
       </c>
       <c r="D75" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E75" t="s">
         <v>14</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>16</v>
@@ -4855,25 +4835,25 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>247</v>
-      </c>
-      <c r="C76" s="20" t="s">
-        <v>248</v>
+        <v>236</v>
+      </c>
+      <c r="C76" t="s">
+        <v>237</v>
       </c>
       <c r="D76" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E76" t="s">
         <v>14</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>16</v>
@@ -4887,25 +4867,25 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>251</v>
-      </c>
-      <c r="C77" s="20" t="s">
-        <v>252</v>
+        <v>240</v>
+      </c>
+      <c r="C77" t="s">
+        <v>241</v>
       </c>
       <c r="D77" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E77" t="s">
         <v>14</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>16</v>
@@ -4914,100 +4894,100 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>255</v>
-      </c>
-      <c r="C78" s="20" t="s">
-        <v>256</v>
+        <v>244</v>
+      </c>
+      <c r="C78" t="s">
+        <v>245</v>
       </c>
       <c r="D78" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E78" t="s">
         <v>14</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>257</v>
-      </c>
-      <c r="C79" s="20" t="s">
-        <v>258</v>
+        <v>246</v>
+      </c>
+      <c r="C79" t="s">
+        <v>247</v>
       </c>
       <c r="D79" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E79" t="s">
         <v>14</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>259</v>
-      </c>
-      <c r="C80" s="20" t="s">
-        <v>260</v>
+        <v>248</v>
+      </c>
+      <c r="C80" t="s">
+        <v>249</v>
       </c>
       <c r="D80" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E80" t="s">
         <v>14</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -5015,25 +4995,25 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>261</v>
-      </c>
-      <c r="C81" s="20" t="s">
-        <v>262</v>
+        <v>250</v>
+      </c>
+      <c r="C81" t="s">
+        <v>251</v>
       </c>
       <c r="D81" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E81" t="s">
         <v>14</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>16</v>
@@ -5042,62 +5022,62 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>265</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>266</v>
+        <v>254</v>
+      </c>
+      <c r="C82" t="s">
+        <v>255</v>
       </c>
       <c r="D82" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E82" t="s">
         <v>14</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>267</v>
-      </c>
-      <c r="C83" s="20" t="s">
-        <v>268</v>
+        <v>256</v>
+      </c>
+      <c r="C83" t="s">
+        <v>388</v>
       </c>
       <c r="D83" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E83" t="s">
         <v>14</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>16</v>
@@ -5106,24 +5086,24 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>272</v>
+        <v>259</v>
+      </c>
+      <c r="C84" t="s">
+        <v>260</v>
       </c>
       <c r="D84" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E84" t="s">
         <v>14</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>21</v>
@@ -5138,24 +5118,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>274</v>
-      </c>
-      <c r="C85" s="20" t="s">
-        <v>275</v>
+        <v>262</v>
+      </c>
+      <c r="C85" t="s">
+        <v>263</v>
       </c>
       <c r="D85" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E85" t="s">
         <v>14</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>21</v>
@@ -5170,24 +5150,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>277</v>
-      </c>
-      <c r="C86" s="20" t="s">
-        <v>278</v>
+        <v>265</v>
+      </c>
+      <c r="C86" t="s">
+        <v>266</v>
       </c>
       <c r="D86" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E86" t="s">
         <v>14</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>21</v>
@@ -5203,36 +5183,36 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>280</v>
-      </c>
-      <c r="C87" s="20" t="s">
-        <v>281</v>
+        <v>268</v>
+      </c>
+      <c r="C87" t="s">
+        <v>269</v>
       </c>
       <c r="D87" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E87" t="s">
         <v>14</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -5240,63 +5220,63 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>282</v>
-      </c>
-      <c r="C88" s="20" t="s">
-        <v>283</v>
+        <v>270</v>
+      </c>
+      <c r="C88" t="s">
+        <v>271</v>
       </c>
       <c r="D88" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E88" t="s">
         <v>14</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>284</v>
-      </c>
-      <c r="C89" s="20" t="s">
-        <v>285</v>
+        <v>272</v>
+      </c>
+      <c r="C89" t="s">
+        <v>273</v>
       </c>
       <c r="D89" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E89" t="s">
         <v>14</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -5304,25 +5284,25 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>286</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>287</v>
+        <v>274</v>
+      </c>
+      <c r="C90" t="s">
+        <v>389</v>
       </c>
       <c r="D90" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E90" t="s">
         <v>14</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>16</v>
@@ -5336,25 +5316,25 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>290</v>
-      </c>
-      <c r="C91" s="20" t="s">
-        <v>291</v>
+        <v>277</v>
+      </c>
+      <c r="C91" t="s">
+        <v>278</v>
       </c>
       <c r="D91" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E91" t="s">
         <v>14</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>16</v>
@@ -5363,24 +5343,24 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>294</v>
-      </c>
-      <c r="C92" s="20" t="s">
-        <v>295</v>
+        <v>281</v>
+      </c>
+      <c r="C92" t="s">
+        <v>282</v>
       </c>
       <c r="D92" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E92" t="s">
         <v>14</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>21</v>
@@ -5400,25 +5380,25 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>297</v>
-      </c>
-      <c r="C93" s="20" t="s">
-        <v>298</v>
+        <v>284</v>
+      </c>
+      <c r="C93" t="s">
+        <v>285</v>
       </c>
       <c r="D93" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E93" t="s">
         <v>14</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>16</v>
@@ -5432,25 +5412,25 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>301</v>
-      </c>
-      <c r="C94" s="20" t="s">
-        <v>302</v>
+        <v>288</v>
+      </c>
+      <c r="C94" t="s">
+        <v>289</v>
       </c>
       <c r="D94" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E94" t="s">
         <v>14</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>16</v>
@@ -5464,25 +5444,25 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>305</v>
-      </c>
-      <c r="C95" s="20" t="s">
-        <v>306</v>
+        <v>292</v>
+      </c>
+      <c r="C95" t="s">
+        <v>293</v>
       </c>
       <c r="D95" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E95" t="s">
         <v>14</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>37</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>16</v>
@@ -5491,24 +5471,24 @@
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>309</v>
-      </c>
-      <c r="C96" s="20" t="s">
-        <v>310</v>
+        <v>296</v>
+      </c>
+      <c r="C96" t="s">
+        <v>297</v>
       </c>
       <c r="D96" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E96" t="s">
         <v>14</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>21</v>
@@ -5517,13 +5497,13 @@
         <v>21</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="J96" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="J96" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="K96" s="17" t="s">
-        <v>313</v>
+      <c r="K96" s="16" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -5531,31 +5511,31 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>314</v>
-      </c>
-      <c r="C97" s="20" t="s">
-        <v>315</v>
+        <v>301</v>
+      </c>
+      <c r="C97" t="s">
+        <v>302</v>
       </c>
       <c r="D97" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E97" t="s">
         <v>14</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -5563,19 +5543,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>316</v>
-      </c>
-      <c r="C98" s="20" t="s">
-        <v>317</v>
+        <v>303</v>
+      </c>
+      <c r="C98" t="s">
+        <v>304</v>
       </c>
       <c r="D98" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E98" t="s">
         <v>14</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>21</v>
@@ -5590,88 +5570,88 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>318</v>
-      </c>
-      <c r="C99" s="20" t="s">
-        <v>319</v>
+        <v>305</v>
+      </c>
+      <c r="C99" t="s">
+        <v>306</v>
       </c>
       <c r="D99" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E99" t="s">
         <v>14</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C100" s="20" t="s">
-        <v>321</v>
+        <v>307</v>
+      </c>
+      <c r="C100" t="s">
+        <v>308</v>
       </c>
       <c r="D100" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E100" t="s">
         <v>14</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>322</v>
-      </c>
-      <c r="C101" s="20" t="s">
-        <v>323</v>
+        <v>309</v>
+      </c>
+      <c r="C101" t="s">
+        <v>310</v>
       </c>
       <c r="D101" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E101" t="s">
         <v>14</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>21</v>
@@ -5686,24 +5666,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>325</v>
-      </c>
-      <c r="C102" s="20" t="s">
-        <v>326</v>
+        <v>312</v>
+      </c>
+      <c r="C102" t="s">
+        <v>313</v>
       </c>
       <c r="D102" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E102" t="s">
         <v>14</v>
       </c>
-      <c r="F102" s="27" t="s">
-        <v>327</v>
+      <c r="F102" s="24" t="s">
+        <v>314</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>21</v>
@@ -5718,24 +5698,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>328</v>
-      </c>
-      <c r="C103" s="20" t="s">
-        <v>329</v>
+        <v>315</v>
+      </c>
+      <c r="C103" t="s">
+        <v>316</v>
       </c>
       <c r="D103" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E103" t="s">
         <v>14</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>21</v>
@@ -5750,56 +5730,56 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>331</v>
-      </c>
-      <c r="C104" s="20" t="s">
-        <v>332</v>
+        <v>318</v>
+      </c>
+      <c r="C104" t="s">
+        <v>319</v>
       </c>
       <c r="D104" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E104" t="s">
         <v>14</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>333</v>
-      </c>
-      <c r="C105" s="20" t="s">
-        <v>334</v>
+        <v>320</v>
+      </c>
+      <c r="C105" t="s">
+        <v>321</v>
       </c>
       <c r="D105" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E105" t="s">
         <v>14</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>21</v>
@@ -5814,36 +5794,36 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>336</v>
-      </c>
-      <c r="C106" s="20" t="s">
-        <v>337</v>
+        <v>323</v>
+      </c>
+      <c r="C106" t="s">
+        <v>324</v>
       </c>
       <c r="D106" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E106" t="s">
         <v>14</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -5851,31 +5831,31 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>338</v>
-      </c>
-      <c r="C107" s="20" t="s">
-        <v>339</v>
+        <v>325</v>
+      </c>
+      <c r="C107" t="s">
+        <v>326</v>
       </c>
       <c r="D107" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E107" t="s">
         <v>14</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -5883,19 +5863,19 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>340</v>
-      </c>
-      <c r="C108" s="20" t="s">
-        <v>341</v>
+        <v>327</v>
+      </c>
+      <c r="C108" t="s">
+        <v>328</v>
       </c>
       <c r="D108" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E108" t="s">
         <v>14</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>21</v>
@@ -5915,28 +5895,28 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>343</v>
-      </c>
-      <c r="C109" s="20" t="s">
-        <v>344</v>
+        <v>330</v>
+      </c>
+      <c r="C109" t="s">
+        <v>331</v>
       </c>
       <c r="D109" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E109" t="s">
         <v>14</v>
       </c>
-      <c r="F109" s="28" t="s">
-        <v>345</v>
+      <c r="F109" s="25" t="s">
+        <v>332</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>16</v>
@@ -5945,36 +5925,36 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>348</v>
-      </c>
-      <c r="C110" s="20" t="s">
-        <v>349</v>
+        <v>335</v>
+      </c>
+      <c r="C110" t="s">
+        <v>336</v>
       </c>
       <c r="D110" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E110" t="s">
         <v>14</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -5982,63 +5962,63 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>350</v>
-      </c>
-      <c r="C111" s="20" t="s">
-        <v>351</v>
+        <v>337</v>
+      </c>
+      <c r="C111" t="s">
+        <v>338</v>
       </c>
       <c r="D111" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E111" t="s">
         <v>14</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>352</v>
-      </c>
-      <c r="C112" s="20" t="s">
-        <v>353</v>
+        <v>339</v>
+      </c>
+      <c r="C112" t="s">
+        <v>340</v>
       </c>
       <c r="D112" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E112" t="s">
         <v>14</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -6046,31 +6026,31 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>354</v>
-      </c>
-      <c r="C113" s="20" t="s">
-        <v>355</v>
+        <v>341</v>
+      </c>
+      <c r="C113" t="s">
+        <v>342</v>
       </c>
       <c r="D113" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E113" t="s">
         <v>14</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -6078,63 +6058,63 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>356</v>
-      </c>
-      <c r="C114" s="20" t="s">
-        <v>357</v>
+        <v>343</v>
+      </c>
+      <c r="C114" t="s">
+        <v>344</v>
       </c>
       <c r="D114" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E114" t="s">
         <v>14</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>358</v>
-      </c>
-      <c r="C115" s="20" t="s">
-        <v>359</v>
+        <v>345</v>
+      </c>
+      <c r="C115" t="s">
+        <v>346</v>
       </c>
       <c r="D115" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E115" t="s">
         <v>14</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -6142,63 +6122,63 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>360</v>
-      </c>
-      <c r="C116" s="20" t="s">
-        <v>361</v>
+        <v>347</v>
+      </c>
+      <c r="C116" t="s">
+        <v>348</v>
       </c>
       <c r="D116" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E116" t="s">
         <v>14</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>362</v>
-      </c>
-      <c r="C117" s="20" t="s">
-        <v>363</v>
+        <v>349</v>
+      </c>
+      <c r="C117" t="s">
+        <v>350</v>
       </c>
       <c r="D117" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E117" t="s">
         <v>14</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -6206,63 +6186,63 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>364</v>
-      </c>
-      <c r="C118" s="20" t="s">
-        <v>365</v>
+        <v>351</v>
+      </c>
+      <c r="C118" t="s">
+        <v>390</v>
       </c>
       <c r="D118" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E118" t="s">
         <v>14</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>366</v>
-      </c>
-      <c r="C119" s="20" t="s">
-        <v>367</v>
+        <v>352</v>
+      </c>
+      <c r="C119" t="s">
+        <v>353</v>
       </c>
       <c r="D119" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E119" t="s">
         <v>14</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -6270,63 +6250,63 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>368</v>
-      </c>
-      <c r="C120" s="20" t="s">
-        <v>369</v>
+        <v>354</v>
+      </c>
+      <c r="C120" t="s">
+        <v>355</v>
       </c>
       <c r="D120" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E120" t="s">
         <v>14</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>370</v>
-      </c>
-      <c r="C121" s="20" t="s">
-        <v>371</v>
+        <v>356</v>
+      </c>
+      <c r="C121" t="s">
+        <v>391</v>
       </c>
       <c r="D121" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E121" t="s">
         <v>14</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -6334,63 +6314,63 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>372</v>
-      </c>
-      <c r="C122" s="20" t="s">
-        <v>373</v>
+        <v>357</v>
+      </c>
+      <c r="C122" t="s">
+        <v>358</v>
       </c>
       <c r="D122" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E122" t="s">
         <v>14</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>374</v>
-      </c>
-      <c r="C123" s="20" t="s">
-        <v>375</v>
+        <v>359</v>
+      </c>
+      <c r="C123" t="s">
+        <v>360</v>
       </c>
       <c r="D123" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E123" t="s">
         <v>14</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -6398,115 +6378,115 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>376</v>
-      </c>
-      <c r="C124" s="20" t="s">
-        <v>377</v>
+        <v>361</v>
+      </c>
+      <c r="C124" t="s">
+        <v>362</v>
       </c>
       <c r="D124" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E124" t="s">
         <v>14</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>378</v>
-      </c>
-      <c r="C125" s="20" t="s">
-        <v>379</v>
+        <v>363</v>
+      </c>
+      <c r="C125" t="s">
+        <v>364</v>
       </c>
       <c r="D125" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E125" t="s">
         <v>14</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>380</v>
-      </c>
-      <c r="C126" s="20" t="s">
-        <v>381</v>
+        <v>365</v>
+      </c>
+      <c r="C126" t="s">
+        <v>366</v>
       </c>
       <c r="D126" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E126" t="s">
         <v>14</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>382</v>
-      </c>
-      <c r="C127" s="20" t="s">
-        <v>383</v>
+        <v>367</v>
+      </c>
+      <c r="C127" t="s">
+        <v>368</v>
       </c>
       <c r="D127" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E127" t="s">
         <v>14</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>21</v>
@@ -6521,36 +6501,36 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>385</v>
-      </c>
-      <c r="C128" s="20" t="s">
-        <v>386</v>
+        <v>370</v>
+      </c>
+      <c r="C128" t="s">
+        <v>392</v>
       </c>
       <c r="D128" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E128" t="s">
         <v>14</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -6558,33 +6538,33 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="C129" t="s">
-        <v>389</v>
-      </c>
-      <c r="D129" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="D129" t="s">
         <v>13</v>
       </c>
       <c r="E129" t="s">
         <v>14</v>
       </c>
-      <c r="F129" s="30" t="s">
-        <v>390</v>
+      <c r="F129" s="26" t="s">
+        <v>374</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="H129">
         <v>1</v>
       </c>
-      <c r="I129" s="31" t="s">
-        <v>392</v>
-      </c>
-      <c r="J129" s="32" t="s">
+      <c r="I129" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="J129" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="K129" s="32" t="s">
+      <c r="K129" s="28" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6599,18 +6579,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -6851,6 +6819,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6861,23 +6841,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBFC15CC-4CA5-447A-915F-1412CED97222}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA68FB6B-B5E6-4AB5-ACC7-06ACAB30D951}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6896,6 +6859,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBFC15CC-4CA5-447A-915F-1412CED97222}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E89B3EC5-962B-41D9-9821-3A191D2434CD}">
   <ds:schemaRefs>

--- a/rmonize/data_proc_elem/DPE_LISA_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_LISA_P1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BDF3A9-4589-4DCE-963D-59394049EAAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B86F1B-9E5D-4104-973C-870BBD751452}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>AGE_BASE</t>
   </si>
   <si>
-    <t>Age at exposure measure</t>
-  </si>
-  <si>
     <t>KIALTER_15</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
   </si>
   <si>
     <t>TOT_PA_QX</t>
-  </si>
-  <si>
-    <t>Physical activity from questionnaire data</t>
   </si>
   <si>
     <t>decimal</t>
@@ -1356,9 +1350,6 @@
     <t>recode(1= 1; 2 = 3; 3=3; 4 = 3; 5=3)</t>
   </si>
   <si>
-    <t>Body Mass Index at baseline</t>
-  </si>
-  <si>
     <t>Intake of cheese [g/d]</t>
   </si>
   <si>
@@ -1399,6 +1390,15 @@
   </si>
   <si>
     <t>Intake of amphibians, reptiles, snails, insects [g/d]</t>
+  </si>
+  <si>
+    <t>Age at exposure measure [years]</t>
+  </si>
+  <si>
+    <t>Physical activity from questionnaire data [MET-hr/day]</t>
+  </si>
+  <si>
+    <t>Body Mass Index at baseline [kg/m²]</t>
   </si>
 </sst>
 </file>
@@ -2377,13 +2377,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="29" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="138.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.42578125" bestFit="1" customWidth="1"/>
@@ -2501,16 +2502,16 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>21</v>
@@ -2519,13 +2520,13 @@
         <v>21</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="300" x14ac:dyDescent="0.25">
@@ -2533,10 +2534,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -2545,22 +2546,22 @@
         <v>14</v>
       </c>
       <c r="F5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="H5" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="I5" s="20" t="s">
         <v>30</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>31</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="165" x14ac:dyDescent="0.25">
@@ -2568,34 +2569,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
+        <v>391</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="H6" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="I6" s="22" t="s">
         <v>37</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>39</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2603,10 +2604,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -2615,20 +2616,20 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2636,19 +2637,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>21</v>
@@ -2669,25 +2670,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
         <v>47</v>
       </c>
-      <c r="C9" t="s">
+      <c r="G9" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>50</v>
-      </c>
       <c r="H9" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15" t="s">
@@ -2702,34 +2703,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C10" t="s">
+      <c r="G10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="I10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="J10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2737,31 +2738,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="H11" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2769,31 +2770,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -2801,31 +2802,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C13" t="s">
+      <c r="G13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2833,31 +2834,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C14" t="s">
+      <c r="G14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2865,19 +2866,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="C15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>21</v>
@@ -2897,19 +2898,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="C16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>21</v>
@@ -2929,22 +2930,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="G17" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>21</v>
@@ -2961,31 +2962,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2993,31 +2994,31 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -3025,31 +3026,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -3057,31 +3058,31 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3089,31 +3090,31 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3121,31 +3122,31 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -3153,19 +3154,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="C24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>21</v>
@@ -3185,32 +3186,32 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C25" t="s">
+      <c r="G25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="D25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3218,31 +3219,31 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C26" t="s">
+      <c r="G26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="D26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -3250,19 +3251,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="C27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>21</v>
@@ -3282,31 +3283,31 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3314,31 +3315,31 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="135" x14ac:dyDescent="0.25">
@@ -3346,31 +3347,31 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C30" t="s">
+      <c r="G30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="D30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -3378,19 +3379,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="C31" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>116</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>21</v>
@@ -3410,31 +3411,31 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C32" t="s">
+      <c r="G32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="D32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -3442,19 +3443,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="C33" t="s">
-        <v>122</v>
-      </c>
-      <c r="D33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>123</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>21</v>
@@ -3474,19 +3475,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="C34" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>21</v>
@@ -3507,32 +3508,32 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" t="s">
+        <v>376</v>
+      </c>
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="C35" t="s">
-        <v>379</v>
-      </c>
-      <c r="D35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -3540,19 +3541,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C36" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E36" t="s">
         <v>14</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>21</v>
@@ -3573,19 +3574,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="C37" t="s">
-        <v>133</v>
-      </c>
-      <c r="D37" t="s">
-        <v>35</v>
-      </c>
-      <c r="E37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>21</v>
@@ -3606,19 +3607,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C38" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E38" t="s">
         <v>14</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>21</v>
@@ -3639,31 +3640,31 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E39" t="s">
         <v>14</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -3671,31 +3672,31 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D40" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E40" t="s">
         <v>14</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="165" x14ac:dyDescent="0.25">
@@ -3703,31 +3704,31 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>382</v>
-      </c>
-      <c r="D41" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -3735,31 +3736,31 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C42" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E42" t="s">
         <v>14</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3767,31 +3768,31 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C43" t="s">
+      <c r="G43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H43" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="D43" t="s">
-        <v>35</v>
-      </c>
-      <c r="E43" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3799,34 +3800,34 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C44" t="s">
+      <c r="G44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H44" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D44" t="s">
-        <v>35</v>
-      </c>
-      <c r="E44" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="5" t="s">
+      <c r="I44" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="J44" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3834,31 +3835,31 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C45" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="H45" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -3866,31 +3867,31 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C46" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D46" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E46" t="s">
         <v>14</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3898,31 +3899,31 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47" t="s">
+        <v>157</v>
+      </c>
+      <c r="D47" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C47" t="s">
+      <c r="G47" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="D47" t="s">
-        <v>35</v>
-      </c>
-      <c r="E47" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>161</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -3930,31 +3931,31 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C48" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D48" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E48" t="s">
         <v>14</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3962,19 +3963,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C49" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D49" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E49" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>21</v>
@@ -3994,19 +3995,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C50" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="17" t="s">
         <v>166</v>
-      </c>
-      <c r="C50" t="s">
-        <v>167</v>
-      </c>
-      <c r="D50" t="s">
-        <v>35</v>
-      </c>
-      <c r="E50" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>168</v>
       </c>
       <c r="G50" s="16" t="s">
         <v>21</v>
@@ -4027,32 +4028,32 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C51" t="s">
+        <v>168</v>
+      </c>
+      <c r="D51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="C51" t="s">
+      <c r="G51" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H51" s="17" t="s">
         <v>170</v>
-      </c>
-      <c r="D51" t="s">
-        <v>35</v>
-      </c>
-      <c r="E51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="G51" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H51" s="17" t="s">
-        <v>172</v>
       </c>
       <c r="I51" s="13"/>
       <c r="J51" s="16" t="s">
         <v>16</v>
       </c>
       <c r="K51" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4060,34 +4061,34 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C52" t="s">
+        <v>172</v>
+      </c>
+      <c r="D52" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C52" t="s">
+      <c r="G52" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H52" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D52" t="s">
-        <v>35</v>
-      </c>
-      <c r="E52" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="8" t="s">
+      <c r="I52" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="J52" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4095,34 +4096,34 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C53" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D53" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E53" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="8" t="s">
+      <c r="H53" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="I53" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="J53" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -4130,19 +4131,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C54" t="s">
+        <v>179</v>
+      </c>
+      <c r="D54" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="8" t="s">
         <v>180</v>
-      </c>
-      <c r="C54" t="s">
-        <v>181</v>
-      </c>
-      <c r="D54" t="s">
-        <v>35</v>
-      </c>
-      <c r="E54" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>182</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>21</v>
@@ -4162,31 +4163,31 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C55" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D55" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E55" t="s">
         <v>14</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -4194,31 +4195,31 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C56" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D56" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E56" t="s">
         <v>14</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -4226,31 +4227,31 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C57" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D57" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E57" t="s">
         <v>14</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -4258,19 +4259,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58" t="s">
+        <v>188</v>
+      </c>
+      <c r="D58" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="C58" t="s">
-        <v>190</v>
-      </c>
-      <c r="D58" t="s">
-        <v>35</v>
-      </c>
-      <c r="E58" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>21</v>
@@ -4290,31 +4291,31 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C59" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D59" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E59" t="s">
         <v>14</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -4322,31 +4323,31 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C60" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D60" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E60" t="s">
         <v>14</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -4354,31 +4355,31 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C61" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D61" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E61" t="s">
         <v>14</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -4386,31 +4387,31 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C62" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D62" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E62" t="s">
         <v>14</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -4418,31 +4419,31 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C63" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D63" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E63" t="s">
         <v>14</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4450,31 +4451,31 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C64" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D64" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E64" t="s">
         <v>14</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4482,31 +4483,31 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C65" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D65" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E65" t="s">
         <v>14</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4514,31 +4515,31 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C66" t="s">
+        <v>203</v>
+      </c>
+      <c r="D66" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C66" t="s">
+      <c r="G66" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H66" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="D66" t="s">
-        <v>35</v>
-      </c>
-      <c r="E66" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -4546,19 +4547,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C67" t="s">
+        <v>207</v>
+      </c>
+      <c r="D67" t="s">
+        <v>33</v>
+      </c>
+      <c r="E67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="8" t="s">
         <v>208</v>
-      </c>
-      <c r="C67" t="s">
-        <v>209</v>
-      </c>
-      <c r="D67" t="s">
-        <v>35</v>
-      </c>
-      <c r="E67" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>210</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>21</v>
@@ -4578,31 +4579,31 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C68" t="s">
+        <v>210</v>
+      </c>
+      <c r="D68" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C68" t="s">
+      <c r="G68" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H68" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="D68" t="s">
-        <v>35</v>
-      </c>
-      <c r="E68" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>214</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4610,31 +4611,31 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C69" t="s">
+        <v>383</v>
+      </c>
+      <c r="D69" t="s">
+        <v>33</v>
+      </c>
+      <c r="E69" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H69" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="C69" t="s">
-        <v>386</v>
-      </c>
-      <c r="D69" t="s">
-        <v>35</v>
-      </c>
-      <c r="E69" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -4642,31 +4643,31 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C70" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D70" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E70" t="s">
         <v>14</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4674,31 +4675,31 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C71" t="s">
+        <v>384</v>
+      </c>
+      <c r="D71" t="s">
+        <v>33</v>
+      </c>
+      <c r="E71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H71" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="C71" t="s">
-        <v>387</v>
-      </c>
-      <c r="D71" t="s">
-        <v>35</v>
-      </c>
-      <c r="E71" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>222</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4706,19 +4707,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>221</v>
+      </c>
+      <c r="C72" t="s">
+        <v>222</v>
+      </c>
+      <c r="D72" t="s">
+        <v>33</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="8" t="s">
         <v>223</v>
-      </c>
-      <c r="C72" t="s">
-        <v>224</v>
-      </c>
-      <c r="D72" t="s">
-        <v>35</v>
-      </c>
-      <c r="E72" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>225</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>21</v>
@@ -4739,31 +4740,31 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C73" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D73" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E73" t="s">
         <v>14</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="150" x14ac:dyDescent="0.25">
@@ -4771,31 +4772,31 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>226</v>
+      </c>
+      <c r="C74" t="s">
+        <v>227</v>
+      </c>
+      <c r="D74" t="s">
+        <v>33</v>
+      </c>
+      <c r="E74" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C74" t="s">
+      <c r="G74" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H74" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="D74" t="s">
-        <v>35</v>
-      </c>
-      <c r="E74" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>231</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4803,31 +4804,31 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>230</v>
+      </c>
+      <c r="C75" t="s">
+        <v>231</v>
+      </c>
+      <c r="D75" t="s">
+        <v>33</v>
+      </c>
+      <c r="E75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C75" t="s">
+      <c r="G75" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H75" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="D75" t="s">
-        <v>35</v>
-      </c>
-      <c r="E75" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4835,31 +4836,31 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>234</v>
+      </c>
+      <c r="C76" t="s">
+        <v>235</v>
+      </c>
+      <c r="D76" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C76" t="s">
+      <c r="G76" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H76" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="D76" t="s">
-        <v>35</v>
-      </c>
-      <c r="E76" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H76" s="5" t="s">
-        <v>239</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4867,31 +4868,31 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>238</v>
+      </c>
+      <c r="C77" t="s">
+        <v>239</v>
+      </c>
+      <c r="D77" t="s">
+        <v>33</v>
+      </c>
+      <c r="E77" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C77" t="s">
+      <c r="G77" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H77" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="D77" t="s">
-        <v>35</v>
-      </c>
-      <c r="E77" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>243</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4899,31 +4900,31 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C78" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D78" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E78" t="s">
         <v>14</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4931,31 +4932,31 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C79" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D79" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E79" t="s">
         <v>14</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -4963,31 +4964,31 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C80" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D80" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E80" t="s">
         <v>14</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -4995,31 +4996,31 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>248</v>
+      </c>
+      <c r="C81" t="s">
+        <v>249</v>
+      </c>
+      <c r="D81" t="s">
+        <v>33</v>
+      </c>
+      <c r="E81" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C81" t="s">
+      <c r="G81" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H81" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="D81" t="s">
-        <v>35</v>
-      </c>
-      <c r="E81" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H81" s="5" t="s">
-        <v>253</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -5027,31 +5028,31 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C82" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D82" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E82" t="s">
         <v>14</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5059,31 +5060,31 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>254</v>
+      </c>
+      <c r="C83" t="s">
+        <v>385</v>
+      </c>
+      <c r="D83" t="s">
+        <v>33</v>
+      </c>
+      <c r="E83" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H83" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="C83" t="s">
-        <v>388</v>
-      </c>
-      <c r="D83" t="s">
-        <v>35</v>
-      </c>
-      <c r="E83" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>258</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -5091,19 +5092,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C84" t="s">
+        <v>258</v>
+      </c>
+      <c r="D84" t="s">
+        <v>33</v>
+      </c>
+      <c r="E84" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="C84" t="s">
-        <v>260</v>
-      </c>
-      <c r="D84" t="s">
-        <v>35</v>
-      </c>
-      <c r="E84" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>261</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>21</v>
@@ -5123,19 +5124,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>260</v>
+      </c>
+      <c r="C85" t="s">
+        <v>261</v>
+      </c>
+      <c r="D85" t="s">
+        <v>33</v>
+      </c>
+      <c r="E85" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="C85" t="s">
-        <v>263</v>
-      </c>
-      <c r="D85" t="s">
-        <v>35</v>
-      </c>
-      <c r="E85" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>264</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>21</v>
@@ -5155,19 +5156,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>263</v>
+      </c>
+      <c r="C86" t="s">
+        <v>264</v>
+      </c>
+      <c r="D86" t="s">
+        <v>33</v>
+      </c>
+      <c r="E86" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="C86" t="s">
-        <v>266</v>
-      </c>
-      <c r="D86" t="s">
-        <v>35</v>
-      </c>
-      <c r="E86" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>267</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>21</v>
@@ -5188,31 +5189,31 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C87" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D87" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E87" t="s">
         <v>14</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -5220,31 +5221,31 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C88" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D88" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E88" t="s">
         <v>14</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -5252,31 +5253,31 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C89" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D89" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E89" t="s">
         <v>14</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -5284,31 +5285,31 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>272</v>
+      </c>
+      <c r="C90" t="s">
+        <v>386</v>
+      </c>
+      <c r="D90" t="s">
+        <v>33</v>
+      </c>
+      <c r="E90" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H90" s="5" t="s">
         <v>274</v>
-      </c>
-      <c r="C90" t="s">
-        <v>389</v>
-      </c>
-      <c r="D90" t="s">
-        <v>35</v>
-      </c>
-      <c r="E90" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H90" s="5" t="s">
-        <v>276</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -5316,31 +5317,31 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>275</v>
+      </c>
+      <c r="C91" t="s">
+        <v>276</v>
+      </c>
+      <c r="D91" t="s">
+        <v>33</v>
+      </c>
+      <c r="E91" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C91" t="s">
+      <c r="G91" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H91" s="5" t="s">
         <v>278</v>
-      </c>
-      <c r="D91" t="s">
-        <v>35</v>
-      </c>
-      <c r="E91" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H91" s="5" t="s">
-        <v>280</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -5348,19 +5349,19 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>279</v>
+      </c>
+      <c r="C92" t="s">
+        <v>280</v>
+      </c>
+      <c r="D92" t="s">
+        <v>33</v>
+      </c>
+      <c r="E92" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="C92" t="s">
-        <v>282</v>
-      </c>
-      <c r="D92" t="s">
-        <v>35</v>
-      </c>
-      <c r="E92" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>21</v>
@@ -5380,31 +5381,31 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>282</v>
+      </c>
+      <c r="C93" t="s">
+        <v>283</v>
+      </c>
+      <c r="D93" t="s">
+        <v>33</v>
+      </c>
+      <c r="E93" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C93" t="s">
+      <c r="G93" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H93" s="5" t="s">
         <v>285</v>
-      </c>
-      <c r="D93" t="s">
-        <v>35</v>
-      </c>
-      <c r="E93" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H93" s="5" t="s">
-        <v>287</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -5412,31 +5413,31 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>286</v>
+      </c>
+      <c r="C94" t="s">
+        <v>287</v>
+      </c>
+      <c r="D94" t="s">
+        <v>33</v>
+      </c>
+      <c r="E94" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="C94" t="s">
+      <c r="G94" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H94" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="D94" t="s">
-        <v>35</v>
-      </c>
-      <c r="E94" t="s">
-        <v>14</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>291</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5444,31 +5445,31 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>290</v>
+      </c>
+      <c r="C95" t="s">
+        <v>291</v>
+      </c>
+      <c r="D95" t="s">
+        <v>33</v>
+      </c>
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="C95" t="s">
+      <c r="G95" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H95" s="5" t="s">
         <v>293</v>
-      </c>
-      <c r="D95" t="s">
-        <v>35</v>
-      </c>
-      <c r="E95" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H95" s="5" t="s">
-        <v>295</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5476,19 +5477,19 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>294</v>
+      </c>
+      <c r="C96" t="s">
+        <v>295</v>
+      </c>
+      <c r="D96" t="s">
+        <v>33</v>
+      </c>
+      <c r="E96" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="C96" t="s">
-        <v>297</v>
-      </c>
-      <c r="D96" t="s">
-        <v>35</v>
-      </c>
-      <c r="E96" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>298</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>21</v>
@@ -5497,13 +5498,13 @@
         <v>21</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J96" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K96" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -5511,31 +5512,31 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C97" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D97" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E97" t="s">
         <v>14</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -5543,19 +5544,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C98" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D98" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E98" t="s">
         <v>14</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>21</v>
@@ -5575,31 +5576,31 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C99" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D99" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E99" t="s">
         <v>14</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -5607,31 +5608,31 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C100" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D100" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E100" t="s">
         <v>14</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -5639,19 +5640,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>307</v>
+      </c>
+      <c r="C101" t="s">
+        <v>308</v>
+      </c>
+      <c r="D101" t="s">
+        <v>33</v>
+      </c>
+      <c r="E101" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" s="8" t="s">
         <v>309</v>
-      </c>
-      <c r="C101" t="s">
-        <v>310</v>
-      </c>
-      <c r="D101" t="s">
-        <v>35</v>
-      </c>
-      <c r="E101" t="s">
-        <v>14</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>311</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>21</v>
@@ -5671,19 +5672,19 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>310</v>
+      </c>
+      <c r="C102" t="s">
+        <v>311</v>
+      </c>
+      <c r="D102" t="s">
+        <v>33</v>
+      </c>
+      <c r="E102" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="24" t="s">
         <v>312</v>
-      </c>
-      <c r="C102" t="s">
-        <v>313</v>
-      </c>
-      <c r="D102" t="s">
-        <v>35</v>
-      </c>
-      <c r="E102" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="24" t="s">
-        <v>314</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>21</v>
@@ -5703,19 +5704,19 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>313</v>
+      </c>
+      <c r="C103" t="s">
+        <v>314</v>
+      </c>
+      <c r="D103" t="s">
+        <v>33</v>
+      </c>
+      <c r="E103" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="4" t="s">
         <v>315</v>
-      </c>
-      <c r="C103" t="s">
-        <v>316</v>
-      </c>
-      <c r="D103" t="s">
-        <v>35</v>
-      </c>
-      <c r="E103" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>317</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>21</v>
@@ -5735,31 +5736,31 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C104" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D104" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E104" t="s">
         <v>14</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -5767,19 +5768,19 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>318</v>
+      </c>
+      <c r="C105" t="s">
+        <v>319</v>
+      </c>
+      <c r="D105" t="s">
+        <v>33</v>
+      </c>
+      <c r="E105" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C105" t="s">
-        <v>321</v>
-      </c>
-      <c r="D105" t="s">
-        <v>35</v>
-      </c>
-      <c r="E105" t="s">
-        <v>14</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>322</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>21</v>
@@ -5799,31 +5800,31 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C106" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D106" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E106" t="s">
         <v>14</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -5831,31 +5832,31 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C107" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D107" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E107" t="s">
         <v>14</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -5863,19 +5864,19 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>325</v>
+      </c>
+      <c r="C108" t="s">
+        <v>326</v>
+      </c>
+      <c r="D108" t="s">
+        <v>33</v>
+      </c>
+      <c r="E108" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="C108" t="s">
-        <v>328</v>
-      </c>
-      <c r="D108" t="s">
-        <v>35</v>
-      </c>
-      <c r="E108" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>329</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>21</v>
@@ -5895,34 +5896,34 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>328</v>
+      </c>
+      <c r="C109" t="s">
+        <v>329</v>
+      </c>
+      <c r="D109" t="s">
+        <v>33</v>
+      </c>
+      <c r="E109" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="25" t="s">
         <v>330</v>
       </c>
-      <c r="C109" t="s">
+      <c r="G109" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H109" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="D109" t="s">
-        <v>35</v>
-      </c>
-      <c r="E109" t="s">
-        <v>14</v>
-      </c>
-      <c r="F109" s="25" t="s">
+      <c r="I109" s="6" t="s">
         <v>332</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H109" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I109" s="6" t="s">
-        <v>334</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -5930,31 +5931,31 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C110" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D110" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E110" t="s">
         <v>14</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -5962,31 +5963,31 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C111" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D111" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E111" t="s">
         <v>14</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -5994,31 +5995,31 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C112" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D112" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E112" t="s">
         <v>14</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -6026,31 +6027,31 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C113" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D113" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E113" t="s">
         <v>14</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -6058,31 +6059,31 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C114" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D114" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E114" t="s">
         <v>14</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -6090,31 +6091,31 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C115" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D115" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E115" t="s">
         <v>14</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -6122,31 +6123,31 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C116" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D116" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E116" t="s">
         <v>14</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -6154,31 +6155,31 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C117" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D117" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E117" t="s">
         <v>14</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -6186,31 +6187,31 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C118" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D118" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E118" t="s">
         <v>14</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -6218,31 +6219,31 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C119" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D119" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E119" t="s">
         <v>14</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -6250,31 +6251,31 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C120" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D120" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E120" t="s">
         <v>14</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -6282,31 +6283,31 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C121" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D121" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E121" t="s">
         <v>14</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -6314,31 +6315,31 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C122" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D122" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E122" t="s">
         <v>14</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -6346,31 +6347,31 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C123" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D123" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E123" t="s">
         <v>14</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -6378,31 +6379,31 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C124" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D124" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E124" t="s">
         <v>14</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -6410,31 +6411,31 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C125" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D125" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E125" t="s">
         <v>14</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -6442,31 +6443,31 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C126" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D126" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E126" t="s">
         <v>14</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -6474,19 +6475,19 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
+        <v>365</v>
+      </c>
+      <c r="C127" t="s">
+        <v>366</v>
+      </c>
+      <c r="D127" t="s">
+        <v>33</v>
+      </c>
+      <c r="E127" t="s">
+        <v>14</v>
+      </c>
+      <c r="F127" s="4" t="s">
         <v>367</v>
-      </c>
-      <c r="C127" t="s">
-        <v>368</v>
-      </c>
-      <c r="D127" t="s">
-        <v>35</v>
-      </c>
-      <c r="E127" t="s">
-        <v>14</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>369</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>21</v>
@@ -6506,31 +6507,31 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C128" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D128" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E128" t="s">
         <v>14</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -6538,10 +6539,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C129" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D129" t="s">
         <v>13</v>
@@ -6550,16 +6551,16 @@
         <v>14</v>
       </c>
       <c r="F129" s="26" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H129">
         <v>1</v>
       </c>
       <c r="I129" s="27" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J129" s="28" t="s">
         <v>16</v>
@@ -6579,6 +6580,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -6819,42 +6841,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA68FB6B-B5E6-4AB5-ACC7-06ACAB30D951}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E89B3EC5-962B-41D9-9821-3A191D2434CD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6877,9 +6867,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E89B3EC5-962B-41D9-9821-3A191D2434CD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA68FB6B-B5E6-4AB5-ACC7-06ACAB30D951}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_LISA_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_LISA_P1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B86F1B-9E5D-4104-973C-870BBD751452}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{12D2F8EC-5124-4816-9BE9-70D96A8BD0D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,9 +108,6 @@
     <t>Education</t>
   </si>
   <si>
-    <t>MUTBILD_0; VATBILD_0;</t>
-  </si>
-  <si>
     <t>case_when</t>
   </si>
   <si>
@@ -142,14 +139,6 @@
     <t>decimal</t>
   </si>
   <si>
-    <t>aktivleiisommn_15;
-aktivleiwintn_15;
-aktivmitsommn_15;
-aktivmitwintn_15;
-aktivschsommn_15;
-aktivschwintn_15</t>
-  </si>
-  <si>
     <t>operation</t>
   </si>
   <si>
@@ -202,10 +191,6 @@
     <t>Intake of starchy roots or tubers [g/d]</t>
   </si>
   <si>
-    <t xml:space="preserve">FFQKARTO_15; 
-FFQPOMM_15 </t>
-  </si>
-  <si>
     <t xml:space="preserve">FFQKARTO_15 + 
 FFQPOMM_15 </t>
   </si>
@@ -238,13 +223,6 @@
   </si>
   <si>
     <t>Vegetable intake [g/d]</t>
-  </si>
-  <si>
-    <t>FFQSALAT_15;
-FFQKOHL_15;
-FFQSPIN_15;
-FFQPAPR_15; 
-FFQKAROT_15</t>
   </si>
   <si>
     <t>FFQSALAT_15 +
@@ -260,10 +238,6 @@
     <t>Leafy vegetable intake [g/d]</t>
   </si>
   <si>
-    <t>FFQSALAT_15;
-FFQSPIN_15</t>
-  </si>
-  <si>
     <t>FFQSALAT_15
 + FFQSPIN_15</t>
   </si>
@@ -337,19 +311,10 @@
     <t>Intake fresh seeds (without pod) from legumes (beans, peas etc.) [g/d]</t>
   </si>
   <si>
-    <t>FFQKERN_15</t>
-  </si>
-  <si>
     <t>FRUITS_TOT_04</t>
   </si>
   <si>
     <t>Total fruit intake [g/d]</t>
-  </si>
-  <si>
-    <t>FFQAPFEL_15;
-FFQBEERE_15;
-FFQSUED_15;
-FFQNUSS_15</t>
   </si>
   <si>
     <t>FFQAPFEL_15 +
@@ -363,11 +328,6 @@
     <t>Intake of fresh fruits [g/d]</t>
   </si>
   <si>
-    <t>FFQAPFEL_15;
-FFQBEERE_15;
-FFQSUED_15</t>
-  </si>
-  <si>
     <t>FFQAPFEL_15 +
 FFQBEERE_15 +
 FFQSUED_15</t>
@@ -379,9 +339,6 @@
     <t>Intake of tree nuts and seeds [g/d]</t>
   </si>
   <si>
-    <t>FFQNUSS_15</t>
-  </si>
-  <si>
     <t>MIXEDFRUITS_0403</t>
   </si>
   <si>
@@ -398,17 +355,6 @@
   </si>
   <si>
     <t>Intake of milk and dairy products and milk and milk products (dairy) [g/d]</t>
-  </si>
-  <si>
-    <t>FFQMIL_15; 
-FFQMOLK_15;
-FFQKAKAO_15;
-FFQJOGH_15;
-FFQQUARK_15;
-FFQWEICH_15;
-FFQPUDD_15;
-FFQSAHN_15;
-FFQHARTK_15</t>
   </si>
   <si>
     <t>FFQMIL_15 +
@@ -436,10 +382,6 @@
     <t>Intake of buttermilk, traditional buttermilk, flavoured milk, flavoured whey and milk-based drinks (as part-nature) [g/d]</t>
   </si>
   <si>
-    <t>FFQMOLK_15;
-FFQKAKAO_15</t>
-  </si>
-  <si>
     <t>FFQMOLK_15 +
 FFQKAKAO_15</t>
   </si>
@@ -465,10 +407,6 @@
     <t>CHEESE_0505</t>
   </si>
   <si>
-    <t>FFQHARTK_15; 
-FFQWEICH_15</t>
-  </si>
-  <si>
     <t>FFQHARTK_15 + 
 FFQWEICH_15</t>
   </si>
@@ -504,19 +442,6 @@
   </si>
   <si>
     <t>CEREAL_PROD_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FFQNUD_15;  
-FFQREIS_15;
-FFQBROE_15;
-FFQROGGEN_15;
-FFQROSIN_15;
-FFQTOAST_15;
-FFQVOLLK_15;
-FFQCORN_15;
-FFQMUES_15;
-FFQCROIS_15;
-FFQGEBAE_15 </t>
   </si>
   <si>
     <t xml:space="preserve">FFQNUD_15 + 
@@ -544,10 +469,6 @@
     <t>Intake of pastas and rice [g/d]</t>
   </si>
   <si>
-    <t>FFQNUD_15;
-FFQREIS_15</t>
-  </si>
-  <si>
     <t>FFQNUD_15 + FFQREIS_15</t>
   </si>
   <si>
@@ -555,13 +476,6 @@
   </si>
   <si>
     <t>Intake of bread and bread products [g/d]</t>
-  </si>
-  <si>
-    <t>FFQBROE_15;
-FFQROGGEN_15;
-FFQROSIN_15;
-FFQTOAST_15;
-FFQVOLLK_15</t>
   </si>
   <si>
     <t>FFQBROE_15 +
@@ -592,10 +506,6 @@
     <t>Intake of breakfast cereals [g/d]</t>
   </si>
   <si>
-    <t xml:space="preserve">FFQCORN_15; 
-FFQMUES_15 </t>
-  </si>
-  <si>
     <t xml:space="preserve">FFQCORN_15 +
 FFQMUES_15 </t>
   </si>
@@ -627,10 +537,6 @@
     <t>Intake of red meat (mammals meat) [g/d]</t>
   </si>
   <si>
-    <t>FFQRIND_15;
-FFQSCHW_15</t>
-  </si>
-  <si>
     <t>FFQRIND_15 +
 FFQSCHW_15</t>
   </si>
@@ -732,12 +638,6 @@
   </si>
   <si>
     <t>Intake of processed or preserved meat [g/d]</t>
-  </si>
-  <si>
-    <t>FFQAUFSCH_15; 
-FFQBOCK_15;
-FFQBRAT_15;
-FFQSALAM_15</t>
   </si>
   <si>
     <t>FFQAUFSCH_15 +
@@ -759,13 +659,6 @@
   </si>
   <si>
     <t>Intake of fish and seafood and products thereof [g/d]</t>
-  </si>
-  <si>
-    <t>FFQSEE_15; 
-FFQSUESS_15; 
-FFQBISM_15;
-FFQKONS_15;
-FFQSTAEB_15</t>
   </si>
   <si>
     <t>FFQSEE_15 +
@@ -778,10 +671,6 @@
     <t>FISH_0801</t>
   </si>
   <si>
-    <t xml:space="preserve">FFQSEE_15; 
-FFQSUESS_15 </t>
-  </si>
-  <si>
     <t xml:space="preserve">FFQSEE_15 +
 FFQSUESS_15 </t>
   </si>
@@ -793,11 +682,6 @@
   </si>
   <si>
     <t>FISH_PROD_0803</t>
-  </si>
-  <si>
-    <t>FFQBISM_15;
-FFQKONS_15;
-FFQSTAEB_15</t>
   </si>
   <si>
     <t>FFQBISM_15 +
@@ -824,18 +708,6 @@
   </si>
   <si>
     <t>Intake of animal and vegetable fats and oils [g/d]</t>
-  </si>
-  <si>
-    <t>FFQPFLA_15;  
-FFQMAISK_15; 
-FFQSONN_15;
-FFQWAOEL_15;
-FFQBUTKO_15;
-FFQBUTT_15; 
-FFQMARG_15; 
-FFQMARKO_15; 
-FFQREFKO_15;
-FFQREFO_15</t>
   </si>
   <si>
     <t>FFQPFLA_15 +
@@ -856,12 +728,6 @@
     <t>Intake of vegetable fats and oils [g/d]</t>
   </si>
   <si>
-    <t>FFQPFLA_15; 
-FFQMAISK_15; 
-FFQSONN_15;
-FFQWAOEL_15</t>
-  </si>
-  <si>
     <t>FFQPFLA_15 + 
 FFQMAISK_15 + 
 FFQSONN_15 +
@@ -874,10 +740,6 @@
     <t>Intake of butter [g/d]</t>
   </si>
   <si>
-    <t xml:space="preserve">FFQBUTKO_15; 
-FFQBUTT_15 </t>
-  </si>
-  <si>
     <t xml:space="preserve">FFQBUTKO_15 +
 FFQBUTT_15 </t>
   </si>
@@ -886,12 +748,6 @@
   </si>
   <si>
     <t>Intake of margarines and similar [g/d]</t>
-  </si>
-  <si>
-    <t>FFQMARG_15; 
-FFQMARKO_15; 
-FFQREFKO_15;
-FFQREFO_15</t>
   </si>
   <si>
     <t>FFQMARG_15 +
@@ -922,13 +778,6 @@
   </si>
   <si>
     <t>Intake of sugar and similar, confectionery and water-based sweet desserts [g/d]</t>
-  </si>
-  <si>
-    <t>FFQSCHOKOL_15; 
-FFQSCHOKOR_15;
-FFQGUMMIB_15;
-FFQZUCK_15;
-FFQEIS_15</t>
   </si>
   <si>
     <t>FFQSCHOKOL_15 +
@@ -947,10 +796,6 @@
     <t>CHOCOLATE_1102</t>
   </si>
   <si>
-    <t xml:space="preserve">FFQSCHOKOL_15; 
-FFQSCHOKOR_15 </t>
-  </si>
-  <si>
     <t xml:space="preserve">FFQSCHOKOL_15 +
 FFQSCHOKOR_15 </t>
   </si>
@@ -1001,13 +846,6 @@
   </si>
   <si>
     <t>CAKES_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FFQKEKS_15;  
-FFQOBSTK_15;  
-FFQTORTE_15; 
-FFQGEBAE_15;
-FFQRUEHRK_15  </t>
   </si>
   <si>
     <t xml:space="preserve">FFQKEKS_15 +
@@ -1023,12 +861,6 @@
     <t>Intake of various pastry [g/d]</t>
   </si>
   <si>
-    <t>FFQKEKS_15;  
-FFQOBSTK_15;  
-FFQTORTE_15; 
-FFQGEBAE_15</t>
-  </si>
-  <si>
     <t xml:space="preserve">FFQKEKS_15 +
 FFQOBSTK_15 +
 FFQTORTE_15 +
@@ -1048,16 +880,6 @@
   </si>
   <si>
     <t>Intake of non-alcoholic beverages [g/d]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FFQNEKT_15;
-FFQFRSAFT_15;
-FFQGESAFT_15;
-FFQENERG_15; 
-FFQSCHOR_15; 
-FFQCOLA_15;
-FFQWASS_15;
-FFQTEE_15 </t>
   </si>
   <si>
     <t xml:space="preserve">FFQNEKT_15 +
@@ -1076,12 +898,6 @@
     <t>Intake of fruit and vegetable juices [g/d]</t>
   </si>
   <si>
-    <t xml:space="preserve">FFQNEKT_15;  
-FFQFRSAFT_15;  
-FFQGESAFT_15;  
-FFQSCHOR_15  </t>
-  </si>
-  <si>
     <t>FFQNEKT_15 +
 FFQFRSAFT_15 +
 FFQGESAFT_15 +  
@@ -1094,10 +910,6 @@
     <t>Intake of soft drinks [g/d]</t>
   </si>
   <si>
-    <t xml:space="preserve">FFQENERG_15;  
-FFQCOLA_15  </t>
-  </si>
-  <si>
     <t xml:space="preserve">FFQENERG_15 +
 FFQCOLA_15  </t>
   </si>
@@ -1210,10 +1022,6 @@
     <t>Intake of mixed alcoholic drinks [g/d]</t>
   </si>
   <si>
-    <t>K_FB_alkgetr_cocktail_15;
-K_FB_alkgetr_alkopops_15;</t>
-  </si>
-  <si>
     <t>K_FB_alkgetr_cocktail_15 + K_FB_alkgetr_alkopops_15</t>
   </si>
   <si>
@@ -1399,24 +1207,117 @@
   </si>
   <si>
     <t>Body Mass Index at baseline [kg/m²]</t>
+  </si>
+  <si>
+    <t>FFQNUSS_15;FFQKERN_15</t>
+  </si>
+  <si>
+    <t>FFQNUSS_15 + FFQKERN_15</t>
+  </si>
+  <si>
+    <t>MUTBILD_0;VATBILD_0;</t>
+  </si>
+  <si>
+    <t>aktivleiisommn_15;aktivleiwintn_15;aktivmitsommn_15;aktivmitwintn_15;aktivschsommn_15;aktivschwintn_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFQKARTO_15;FFQPOMM_15 </t>
+  </si>
+  <si>
+    <t>FFQSALAT_15;FFQKOHL_15;FFQSPIN_15;FFQPAPR_15;FFQKAROT_15</t>
+  </si>
+  <si>
+    <t>FFQSALAT_15;FFQSPIN_15</t>
+  </si>
+  <si>
+    <t>FFQAPFEL_15;FFQBEERE_15;FFQSUED_15;FFQNUSS_15</t>
+  </si>
+  <si>
+    <t>FFQAPFEL_15;FFQBEERE_15;FFQSUED_15</t>
+  </si>
+  <si>
+    <t>FFQMIL_15;FFQMOLK_15;FFQKAKAO_15;FFQJOGH_15;FFQQUARK_15;FFQWEICH_15;FFQPUDD_15;FFQSAHN_15;FFQHARTK_15</t>
+  </si>
+  <si>
+    <t>FFQMOLK_15;FFQKAKAO_15</t>
+  </si>
+  <si>
+    <t>FFQHARTK_15;FFQWEICH_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFQNUD_15;FFQREIS_15;FFQBROE_15;FFQROGGEN_15;FFQROSIN_15;FFQTOAST_15;FFQVOLLK_15;FFQCORN_15;FFQMUES_15;FFQCROIS_15;FFQGEBAE_15 </t>
+  </si>
+  <si>
+    <t>FFQNUD_15;FFQREIS_15</t>
+  </si>
+  <si>
+    <t>FFQBROE_15;FFQROGGEN_15;FFQROSIN_15;FFQTOAST_15;FFQVOLLK_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFQCORN_15;FFQMUES_15 </t>
+  </si>
+  <si>
+    <t>FFQRIND_15;FFQSCHW_15</t>
+  </si>
+  <si>
+    <t>FFQAUFSCH_15;FFQBOCK_15;FFQBRAT_15;FFQSALAM_15</t>
+  </si>
+  <si>
+    <t>FFQSEE_15;FFQSUESS_15;FFQBISM_15;FFQKONS_15;FFQSTAEB_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFQSEE_15;FFQSUESS_15 </t>
+  </si>
+  <si>
+    <t>FFQBISM_15;FFQKONS_15;FFQSTAEB_15</t>
+  </si>
+  <si>
+    <t>FFQPFLA_15;FFQMAISK_15;FFQSONN_15;FFQWAOEL_15;FFQBUTKO_15;FFQBUTT_15;FFQMARG_15;FFQMARKO_15;FFQREFKO_15;FFQREFO_15</t>
+  </si>
+  <si>
+    <t>FFQPFLA_15;FFQMAISK_15;FFQSONN_15;FFQWAOEL_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFQBUTKO_15;FFQBUTT_15 </t>
+  </si>
+  <si>
+    <t>FFQMARG_15;FFQMARKO_15;FFQREFKO_15;FFQREFO_15</t>
+  </si>
+  <si>
+    <t>FFQSCHOKOL_15;FFQSCHOKOR_15;FFQGUMMIB_15;FFQZUCK_15;FFQEIS_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFQSCHOKOL_15;FFQSCHOKOR_15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFQKEKS_15;FFQOBSTK_15;FFQTORTE_15;FFQGEBAE_15;FFQRUEHRK_15 </t>
+  </si>
+  <si>
+    <t>FFQKEKS_15;FFQOBSTK_15;FFQTORTE_15;FFQGEBAE_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFQNEKT_15;FFQFRSAFT_15;FFQGESAFT_15;FFQENERG_15;FFQSCHOR_15;FFQCOLA_15;FFQWASS_15;FFQTEE_15 </t>
+  </si>
+  <si>
+    <t>FFQNEKT_15;FFQFRSAFT_15;FFQGESAFT_15;FFQSCHOR_15</t>
+  </si>
+  <si>
+    <t>FFQENERG_15;FFQCOLA_15</t>
+  </si>
+  <si>
+    <t>K_FB_alkgetr_cocktail_15;K_FB_alkgetr_alkopops_15;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1557,12 +1458,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1583,29 +1485,16 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1909,58 +1798,58 @@
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1969,101 +1858,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Link" xfId="42" builtinId="8"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2079,7 +1959,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2377,18 +2257,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L111" sqref="L111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="138.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -2445,13 +2326,13 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="19" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J2" t="s">
@@ -2480,17 +2361,17 @@
       <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14" t="s">
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2502,10 +2383,10 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -2513,23 +2394,23 @@
       <c r="F4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="25" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="J4" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="300" x14ac:dyDescent="0.25">
+      <c r="K4" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="240" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2545,69 +2426,69 @@
       <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="H5" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="I5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="J5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>391</v>
+        <v>358</v>
       </c>
       <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="I6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K6" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -2615,21 +2496,21 @@
       <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>375</v>
-      </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2637,31 +2518,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="15" t="s">
+      <c r="F8" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15" t="s">
+      <c r="I8" s="13"/>
+      <c r="J8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2670,31 +2551,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C9" t="s">
+      <c r="G9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15" t="s">
+      <c r="H9" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2703,66 +2584,66 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C10" t="s">
+      <c r="I10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="J10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>52</v>
+      <c r="H11" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2770,95 +2651,95 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>64</v>
+      <c r="H13" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>68</v>
+      <c r="H14" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2866,19 +2747,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>21</v>
@@ -2898,19 +2779,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>21</v>
@@ -2930,22 +2811,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>21</v>
@@ -2962,31 +2843,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2994,31 +2875,31 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -3026,31 +2907,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -3058,31 +2939,31 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3090,31 +2971,31 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3122,31 +3003,31 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -3154,96 +3035,96 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>92</v>
+      <c r="F24" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>96</v>
+      <c r="H25" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>100</v>
+      <c r="H26" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -3251,31 +3132,31 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="H27" s="2" t="s">
-        <v>21</v>
+        <v>361</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -3283,31 +3164,31 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3315,63 +3196,63 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C30" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>111</v>
+      <c r="H30" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -3379,19 +3260,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>21</v>
@@ -3406,36 +3287,36 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>118</v>
+      <c r="H32" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -3443,19 +3324,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C33" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>21</v>
@@ -3475,19 +3356,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C34" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>124</v>
+      <c r="F34" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>21</v>
@@ -3503,37 +3384,37 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C35" t="s">
-        <v>376</v>
+        <v>343</v>
       </c>
       <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E35" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>127</v>
+      <c r="H35" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -3541,19 +3422,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C36" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
       <c r="D36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E36" t="s">
         <v>14</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>21</v>
@@ -3574,19 +3455,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E37" t="s">
         <v>14</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>21</v>
@@ -3607,19 +3488,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E38" t="s">
         <v>14</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>21</v>
@@ -3640,31 +3521,31 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C39" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E39" t="s">
         <v>14</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -3672,63 +3553,63 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E40" t="s">
         <v>14</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>379</v>
+        <v>126</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>346</v>
       </c>
       <c r="D41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>140</v>
+      <c r="H41" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -3736,130 +3617,130 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C42" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E42" t="s">
         <v>14</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C43" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E43" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>146</v>
+      <c r="H43" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C44" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E44" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>150</v>
+      <c r="H44" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C45" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="D45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>150</v>
+      <c r="H45" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -3867,63 +3748,63 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C46" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E46" t="s">
         <v>14</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C47" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="D47" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E47" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>159</v>
+      <c r="H47" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -3931,31 +3812,31 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C48" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="D48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E48" t="s">
         <v>14</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3963,19 +3844,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="C49" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="D49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E49" t="s">
         <v>14</v>
       </c>
-      <c r="F49" s="5" t="s">
-        <v>163</v>
+      <c r="F49" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>21</v>
@@ -3995,65 +3876,65 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="C50" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="D50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E50" t="s">
         <v>14</v>
       </c>
-      <c r="F50" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="G50" s="16" t="s">
+      <c r="F50" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="G50" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H50" s="16" t="s">
+      <c r="H50" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I50" s="13"/>
-      <c r="J50" s="16" t="s">
+      <c r="I50" s="10"/>
+      <c r="J50" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K50" s="16" t="s">
+      <c r="K50" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C51" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="D51" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="G51" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="G51" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H51" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="I51" s="13"/>
-      <c r="J51" s="16" t="s">
+      <c r="H51" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="I51" s="10"/>
+      <c r="J51" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K51" s="16" t="s">
-        <v>31</v>
+      <c r="K51" s="21" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4061,34 +3942,34 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="C52" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="D52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E52" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="H52" s="8" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4096,34 +3977,34 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="C53" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D53" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E53" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="H53" s="8" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -4131,19 +4012,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C54" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="D54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E54" t="s">
         <v>14</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>21</v>
@@ -4163,31 +4044,31 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="C55" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="D55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E55" t="s">
         <v>14</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -4195,31 +4076,31 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C56" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="D56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E56" t="s">
         <v>14</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -4227,31 +4108,31 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="C57" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="D57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E57" t="s">
         <v>14</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -4259,19 +4140,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C58" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="D58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E58" t="s">
         <v>14</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>21</v>
@@ -4291,31 +4172,31 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="C59" t="s">
-        <v>381</v>
+        <v>348</v>
       </c>
       <c r="D59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E59" t="s">
         <v>14</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -4323,31 +4204,31 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="C60" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="D60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E60" t="s">
         <v>14</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -4355,31 +4236,31 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C61" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="D61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E61" t="s">
         <v>14</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -4387,31 +4268,31 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="C62" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="D62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E62" t="s">
         <v>14</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -4419,31 +4300,31 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="C63" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="D63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E63" t="s">
         <v>14</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4451,31 +4332,31 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="C64" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="D64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E64" t="s">
         <v>14</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4483,63 +4364,63 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="C65" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="D65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E65" t="s">
         <v>14</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="C66" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="D66" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E66" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>205</v>
+      <c r="H66" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -4547,19 +4428,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="C67" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="D67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E67" t="s">
         <v>14</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>21</v>
@@ -4574,68 +4455,68 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="C68" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="D68" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E68" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>212</v>
+      <c r="H68" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="C69" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="D69" t="s">
+        <v>32</v>
+      </c>
+      <c r="E69" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E69" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>215</v>
+      <c r="H69" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -4643,63 +4524,63 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C70" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="D70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E70" t="s">
         <v>14</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="C71" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="D71" t="s">
+        <v>32</v>
+      </c>
+      <c r="E71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E71" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>220</v>
+      <c r="H71" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4707,19 +4588,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="C72" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="D72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E72" t="s">
         <v>14</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>21</v>
@@ -4740,159 +4621,159 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="C73" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="D73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E73" t="s">
         <v>14</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="C74" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="D74" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E74" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>229</v>
+      <c r="H74" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C75" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="D75" t="s">
+        <v>32</v>
+      </c>
+      <c r="E75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E75" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>233</v>
+      <c r="H75" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="C76" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="D76" t="s">
+        <v>32</v>
+      </c>
+      <c r="E76" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E76" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H76" s="5" t="s">
-        <v>237</v>
+      <c r="H76" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="C77" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="D77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E77" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E77" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>241</v>
+      <c r="H77" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4900,31 +4781,31 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="C78" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="D78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E78" t="s">
         <v>14</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4932,31 +4813,31 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="C79" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="D79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E79" t="s">
         <v>14</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -4964,63 +4845,63 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="C80" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="D80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E80" t="s">
         <v>14</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="C81" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="D81" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E81" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H81" s="5" t="s">
-        <v>251</v>
+      <c r="H81" s="4" t="s">
+        <v>225</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -5028,63 +4909,63 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="C82" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="D82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E82" t="s">
         <v>14</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="C83" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="D83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E83" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E83" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>256</v>
+      <c r="H83" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -5092,19 +4973,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="C84" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="D84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E84" t="s">
         <v>14</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>21</v>
@@ -5124,19 +5005,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="C85" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="D85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E85" t="s">
         <v>14</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>21</v>
@@ -5156,19 +5037,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="C86" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="D86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E86" t="s">
         <v>14</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>21</v>
@@ -5189,31 +5070,31 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="C87" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="D87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E87" t="s">
         <v>14</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -5221,31 +5102,31 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="C88" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="D88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E88" t="s">
         <v>14</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -5253,95 +5134,95 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="C89" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="D89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E89" t="s">
         <v>14</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="C90" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="D90" t="s">
+        <v>32</v>
+      </c>
+      <c r="E90" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E90" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H90" s="5" t="s">
-        <v>274</v>
+      <c r="H90" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="C91" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="D91" t="s">
+        <v>32</v>
+      </c>
+      <c r="E91" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E91" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H91" s="5" t="s">
-        <v>278</v>
+      <c r="H91" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -5349,19 +5230,19 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="C92" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="D92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E92" t="s">
         <v>14</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>21</v>
@@ -5376,100 +5257,100 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="C93" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="D93" t="s">
+        <v>32</v>
+      </c>
+      <c r="E93" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E93" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H93" s="5" t="s">
-        <v>285</v>
+      <c r="H93" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="C94" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="D94" t="s">
+        <v>32</v>
+      </c>
+      <c r="E94" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E94" t="s">
-        <v>14</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>289</v>
+      <c r="H94" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="C95" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="D95" t="s">
+        <v>32</v>
+      </c>
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="G95" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E95" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H95" s="5" t="s">
-        <v>293</v>
+      <c r="H95" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5477,19 +5358,19 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="C96" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="D96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E96" t="s">
         <v>14</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>21</v>
@@ -5498,13 +5379,13 @@
         <v>21</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="J96" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K96" s="16" t="s">
-        <v>298</v>
+        <v>265</v>
+      </c>
+      <c r="J96" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K96" s="21" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -5512,31 +5393,31 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="C97" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="D97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E97" t="s">
         <v>14</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -5544,19 +5425,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="C98" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="D98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E98" t="s">
         <v>14</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>21</v>
@@ -5576,31 +5457,31 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="C99" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="D99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E99" t="s">
         <v>14</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -5608,31 +5489,31 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="C100" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="D100" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E100" t="s">
         <v>14</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -5640,19 +5521,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="C101" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="D101" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E101" t="s">
         <v>14</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>21</v>
@@ -5672,19 +5553,19 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="C102" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="D102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E102" t="s">
         <v>14</v>
       </c>
-      <c r="F102" s="24" t="s">
-        <v>312</v>
+      <c r="F102" s="15" t="s">
+        <v>280</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>21</v>
@@ -5704,19 +5585,19 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="C103" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="D103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E103" t="s">
         <v>14</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>21</v>
@@ -5736,31 +5617,31 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="C104" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="D104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E104" t="s">
         <v>14</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -5768,19 +5649,19 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="C105" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="D105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E105" t="s">
         <v>14</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>21</v>
@@ -5800,31 +5681,31 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="C106" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="D106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E106" t="s">
         <v>14</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -5832,31 +5713,31 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="C107" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="D107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E107" t="s">
         <v>14</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -5864,19 +5745,19 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="C108" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="D108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E108" t="s">
         <v>14</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>21</v>
@@ -5896,34 +5777,34 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="C109" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="D109" t="s">
+        <v>32</v>
+      </c>
+      <c r="E109" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E109" t="s">
-        <v>14</v>
-      </c>
-      <c r="F109" s="25" t="s">
-        <v>330</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H109" s="6" t="s">
-        <v>331</v>
+      <c r="H109" s="15" t="s">
+        <v>298</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -5931,31 +5812,31 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="C110" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="D110" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E110" t="s">
         <v>14</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -5963,31 +5844,31 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="C111" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="D111" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E111" t="s">
         <v>14</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -5995,31 +5876,31 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="C112" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="D112" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E112" t="s">
         <v>14</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -6027,31 +5908,31 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="C113" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="D113" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E113" t="s">
         <v>14</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -6059,31 +5940,31 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="C114" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="D114" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E114" t="s">
         <v>14</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -6091,31 +5972,31 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="C115" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="D115" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E115" t="s">
         <v>14</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -6123,31 +6004,31 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="C116" t="s">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="D116" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E116" t="s">
         <v>14</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -6155,31 +6036,31 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="C117" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="D117" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E117" t="s">
         <v>14</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -6187,31 +6068,31 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="C118" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="D118" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E118" t="s">
         <v>14</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -6219,31 +6100,31 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="C119" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="D119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E119" t="s">
         <v>14</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -6251,31 +6132,31 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="C120" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="D120" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E120" t="s">
         <v>14</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -6283,31 +6164,31 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="C121" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="D121" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E121" t="s">
         <v>14</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -6315,31 +6196,31 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="C122" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="D122" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E122" t="s">
         <v>14</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -6347,31 +6228,31 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="C123" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="D123" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E123" t="s">
         <v>14</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -6379,31 +6260,31 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="C124" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="D124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E124" t="s">
         <v>14</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -6411,31 +6292,31 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="C125" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="D125" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E125" t="s">
         <v>14</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -6443,31 +6324,31 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>363</v>
+        <v>330</v>
       </c>
       <c r="C126" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="D126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E126" t="s">
         <v>14</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -6475,19 +6356,19 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="C127" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="D127" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E127" t="s">
         <v>14</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>21</v>
@@ -6507,31 +6388,31 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="C128" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="D128" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E128" t="s">
         <v>14</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -6539,10 +6420,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="C129" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="D129" t="s">
         <v>13</v>
@@ -6550,22 +6431,22 @@
       <c r="E129" t="s">
         <v>14</v>
       </c>
-      <c r="F129" s="26" t="s">
-        <v>372</v>
+      <c r="F129" s="20" t="s">
+        <v>339</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="H129">
+        <v>340</v>
+      </c>
+      <c r="H129" s="18">
         <v>1</v>
       </c>
-      <c r="I129" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="J129" s="28" t="s">
+      <c r="I129" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="J129" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K129" s="28" t="s">
+      <c r="K129" s="17" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6580,27 +6461,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -6841,32 +6701,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E89B3EC5-962B-41D9-9821-3A191D2434CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBFC15CC-4CA5-447A-915F-1412CED97222}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA68FB6B-B5E6-4AB5-ACC7-06ACAB30D951}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6883,4 +6739,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBFC15CC-4CA5-447A-915F-1412CED97222}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E89B3EC5-962B-41D9-9821-3A191D2434CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_LISA_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_LISA_P1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{12D2F8EC-5124-4816-9BE9-70D96A8BD0D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F54842-1D9A-4767-9CAD-1E9759DCC8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="22260" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements_templa" sheetId="1" r:id="rId1"/>
@@ -111,25 +111,6 @@
     <t>case_when</t>
   </si>
   <si>
-    <t>case_when(
-      MUTBILD_0 == 1 &amp; VATBILD_0 == 1 ~ 0L,
-      MUTBILD_0 %in% c(2) | VATBILD_0 %in% c(2) ~ 1L,  
-      MUTBILD_0 %in% c(3) | VATBILD_0 %in% c(3) ~ 2L, 
-      MUTBILD_0 %in% c(4) | VATBILD_0 %in% c(4) ~ 3L, 
-      MUTBILD_0 %in% c(5, 6) | VATBILD_0 %in% c(5, 6) ~ 4L, 
-      MUTBILD_0 %in% c(7) | VATBILD_0 %in% c(7) ~ 5L,  
-      TRUE ~ NA_integer_ 
-    )</t>
-  </si>
-  <si>
-    <t>"None" (0): Both parents have 1 (no certificate).
-"Primary School Completed" (1): Either parent has 2.
-"Technical/Professional School" (2): Either parent has 3.
-"Secondary School" (3): Either parent has 4.
-"Longer Education" (4): Either parent has 5 or 6.
-"Not Specified" (5): Either parent has 7 (other degree).</t>
-  </si>
-  <si>
     <t>compatible</t>
   </si>
   <si>
@@ -1306,6 +1287,25 @@
   </si>
   <si>
     <t>K_FB_alkgetr_cocktail_15;K_FB_alkgetr_alkopops_15;</t>
+  </si>
+  <si>
+    <t>case_when(
+      MUTBILD_0 == 1 &amp; VATBILD_0 == 1 ~ 0L,
+      MUTBILD_0 %in% c(2) | VATBILD_0 %in% c(2) ~ 1L,  
+      MUTBILD_0 %in% c(3) | VATBILD_0 %in% c(3) ~ 3L, 
+      MUTBILD_0 %in% c(4) | VATBILD_0 %in% c(4) ~ 2L, 
+      MUTBILD_0 %in% c(5, 6) | VATBILD_0 %in% c(5, 6) ~ 4L, 
+      MUTBILD_0 %in% c(7) | VATBILD_0 %in% c(7) ~ 5L,  
+      TRUE ~ NA_integer_
+    )</t>
+  </si>
+  <si>
+    <t>"None" (0): Both parents have 1 (no certificate).
+"Primary School Completed" (1): Either parent has 2.
+"Technical/Professional School" (2): Either parent has 4.
+"Secondary School" (3): Either parent has 3.
+"Longer Education" (4): Either parent has 5 or 6.
+"Not Specified" (5): Either parent has 7 (other degree).</t>
   </si>
 </sst>
 </file>
@@ -1841,7 +1841,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1899,51 +1899,54 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Link" xfId="42" builtinId="8"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1959,9 +1962,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1999,7 +2002,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2105,7 +2108,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2247,7 +2250,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2257,11 +2260,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L111" sqref="L111"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="138.140625" bestFit="1" customWidth="1"/>
@@ -2383,10 +2386,10 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -2401,16 +2404,16 @@
         <v>21</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="240" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2427,22 +2430,22 @@
         <v>14</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="26" t="s">
-        <v>28</v>
+      <c r="H5" s="27" t="s">
+        <v>391</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>29</v>
+        <v>392</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="105" x14ac:dyDescent="0.25">
@@ -2450,34 +2453,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
-        <v>358</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="H6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="G6" s="12" t="s">
+      <c r="I6" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2485,10 +2488,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -2497,20 +2500,20 @@
         <v>14</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>24</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2518,19 +2521,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>21</v>
@@ -2551,25 +2554,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C9" t="s">
+      <c r="G9" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>46</v>
-      </c>
       <c r="H9" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="13" t="s">
@@ -2584,34 +2587,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C10" t="s">
+      <c r="I10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="J10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2619,31 +2622,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2651,31 +2654,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2683,31 +2686,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="C13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2715,31 +2718,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="C14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2747,19 +2750,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="C15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>21</v>
@@ -2779,19 +2782,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>21</v>
@@ -2811,22 +2814,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>72</v>
-      </c>
       <c r="G17" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>21</v>
@@ -2843,31 +2846,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2875,31 +2878,31 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2907,31 +2910,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2939,31 +2942,31 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2971,31 +2974,31 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3003,31 +3006,31 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -3035,31 +3038,31 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -3067,32 +3070,32 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="C25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -3100,31 +3103,31 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="C26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -3132,31 +3135,31 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -3164,31 +3167,31 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3196,31 +3199,31 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -3228,31 +3231,31 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="C30" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -3260,19 +3263,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="C31" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>21</v>
@@ -3292,31 +3295,31 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="C32" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -3324,19 +3327,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="C33" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>110</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>21</v>
@@ -3356,19 +3359,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="C34" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>21</v>
@@ -3389,32 +3392,32 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -3422,19 +3425,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C36" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E36" t="s">
         <v>14</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>21</v>
@@ -3455,19 +3458,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="C37" t="s">
-        <v>119</v>
-      </c>
-      <c r="D37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>21</v>
@@ -3488,19 +3491,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E38" t="s">
         <v>14</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>21</v>
@@ -3521,31 +3524,31 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C39" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E39" t="s">
         <v>14</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -3553,31 +3556,31 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E40" t="s">
         <v>14</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -3585,31 +3588,31 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E41" t="s">
         <v>14</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -3617,31 +3620,31 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C42" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D42" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E42" t="s">
         <v>14</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -3649,31 +3652,31 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="C43" t="s">
-        <v>131</v>
-      </c>
-      <c r="D43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -3681,34 +3684,34 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C44" t="s">
+      <c r="I44" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>136</v>
-      </c>
       <c r="J44" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -3716,31 +3719,31 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E45" t="s">
         <v>14</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -3748,31 +3751,31 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C46" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E46" t="s">
         <v>14</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -3780,31 +3783,31 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="C47" t="s">
-        <v>142</v>
-      </c>
-      <c r="D47" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -3812,31 +3815,31 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C48" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E48" t="s">
         <v>14</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3844,19 +3847,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C49" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D49" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E49" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>21</v>
@@ -3876,19 +3879,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="21" t="s">
         <v>148</v>
-      </c>
-      <c r="C50" t="s">
-        <v>149</v>
-      </c>
-      <c r="D50" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="21" t="s">
-        <v>150</v>
       </c>
       <c r="G50" s="21" t="s">
         <v>21</v>
@@ -3909,32 +3912,32 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="G51" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="21" t="s">
         <v>151</v>
-      </c>
-      <c r="C51" t="s">
-        <v>152</v>
-      </c>
-      <c r="D51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="G51" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="H51" s="21" t="s">
-        <v>153</v>
       </c>
       <c r="I51" s="10"/>
       <c r="J51" s="21" t="s">
         <v>16</v>
       </c>
       <c r="K51" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3942,34 +3945,34 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" t="s">
+        <v>153</v>
+      </c>
+      <c r="D52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C52" t="s">
+      <c r="G52" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H52" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D52" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="8" t="s">
+      <c r="I52" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>158</v>
-      </c>
       <c r="J52" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3977,34 +3980,34 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C53" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E53" t="s">
         <v>14</v>
       </c>
       <c r="F53" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I53" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>158</v>
-      </c>
       <c r="J53" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -4012,19 +4015,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" t="s">
+        <v>160</v>
+      </c>
+      <c r="D54" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="C54" t="s">
-        <v>162</v>
-      </c>
-      <c r="D54" t="s">
-        <v>32</v>
-      </c>
-      <c r="E54" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>163</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>21</v>
@@ -4044,31 +4047,31 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C55" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E55" t="s">
         <v>14</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -4076,31 +4079,31 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C56" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E56" t="s">
         <v>14</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -4108,31 +4111,31 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C57" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D57" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E57" t="s">
         <v>14</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -4140,19 +4143,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" t="s">
+        <v>169</v>
+      </c>
+      <c r="D58" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="C58" t="s">
-        <v>171</v>
-      </c>
-      <c r="D58" t="s">
-        <v>32</v>
-      </c>
-      <c r="E58" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>21</v>
@@ -4172,31 +4175,31 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C59" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D59" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E59" t="s">
         <v>14</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -4204,31 +4207,31 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C60" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D60" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E60" t="s">
         <v>14</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -4236,31 +4239,31 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C61" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D61" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E61" t="s">
         <v>14</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -4268,31 +4271,31 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C62" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D62" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E62" t="s">
         <v>14</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -4300,31 +4303,31 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C63" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D63" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E63" t="s">
         <v>14</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4332,31 +4335,31 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C64" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D64" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E64" t="s">
         <v>14</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4364,31 +4367,31 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C65" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D65" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E65" t="s">
         <v>14</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -4396,31 +4399,31 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C66" t="s">
+        <v>184</v>
+      </c>
+      <c r="D66" t="s">
+        <v>30</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H66" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="C66" t="s">
-        <v>186</v>
-      </c>
-      <c r="D66" t="s">
-        <v>32</v>
-      </c>
-      <c r="E66" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -4428,19 +4431,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" t="s">
+        <v>187</v>
+      </c>
+      <c r="D67" t="s">
+        <v>30</v>
+      </c>
+      <c r="E67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="8" t="s">
         <v>188</v>
-      </c>
-      <c r="C67" t="s">
-        <v>189</v>
-      </c>
-      <c r="D67" t="s">
-        <v>32</v>
-      </c>
-      <c r="E67" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>190</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>21</v>
@@ -4460,31 +4463,31 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C68" t="s">
+        <v>190</v>
+      </c>
+      <c r="D68" t="s">
+        <v>30</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H68" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="C68" t="s">
-        <v>192</v>
-      </c>
-      <c r="D68" t="s">
-        <v>32</v>
-      </c>
-      <c r="E68" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -4492,31 +4495,31 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C69" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D69" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E69" t="s">
         <v>14</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -4524,31 +4527,31 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C70" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D70" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E70" t="s">
         <v>14</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -4556,31 +4559,31 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C71" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D71" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E71" t="s">
         <v>14</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4588,19 +4591,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>198</v>
+      </c>
+      <c r="C72" t="s">
+        <v>199</v>
+      </c>
+      <c r="D72" t="s">
+        <v>30</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="8" t="s">
         <v>200</v>
-      </c>
-      <c r="C72" t="s">
-        <v>201</v>
-      </c>
-      <c r="D72" t="s">
-        <v>32</v>
-      </c>
-      <c r="E72" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>202</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>21</v>
@@ -4621,31 +4624,31 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C73" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D73" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E73" t="s">
         <v>14</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -4653,31 +4656,31 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>203</v>
+      </c>
+      <c r="C74" t="s">
+        <v>204</v>
+      </c>
+      <c r="D74" t="s">
+        <v>30</v>
+      </c>
+      <c r="E74" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H74" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="C74" t="s">
-        <v>206</v>
-      </c>
-      <c r="D74" t="s">
-        <v>32</v>
-      </c>
-      <c r="E74" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>207</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -4685,31 +4688,31 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>206</v>
+      </c>
+      <c r="C75" t="s">
+        <v>207</v>
+      </c>
+      <c r="D75" t="s">
+        <v>30</v>
+      </c>
+      <c r="E75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H75" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="C75" t="s">
-        <v>209</v>
-      </c>
-      <c r="D75" t="s">
-        <v>32</v>
-      </c>
-      <c r="E75" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -4717,31 +4720,31 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>209</v>
+      </c>
+      <c r="C76" t="s">
+        <v>210</v>
+      </c>
+      <c r="D76" t="s">
+        <v>30</v>
+      </c>
+      <c r="E76" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H76" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="C76" t="s">
-        <v>212</v>
-      </c>
-      <c r="D76" t="s">
-        <v>32</v>
-      </c>
-      <c r="E76" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4749,31 +4752,31 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>212</v>
+      </c>
+      <c r="C77" t="s">
+        <v>213</v>
+      </c>
+      <c r="D77" t="s">
+        <v>30</v>
+      </c>
+      <c r="E77" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H77" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="C77" t="s">
-        <v>215</v>
-      </c>
-      <c r="D77" t="s">
-        <v>32</v>
-      </c>
-      <c r="E77" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4781,31 +4784,31 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C78" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D78" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E78" t="s">
         <v>14</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4813,31 +4816,31 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C79" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D79" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E79" t="s">
         <v>14</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -4845,31 +4848,31 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C80" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D80" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E80" t="s">
         <v>14</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4877,31 +4880,31 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>221</v>
+      </c>
+      <c r="C81" t="s">
+        <v>222</v>
+      </c>
+      <c r="D81" t="s">
+        <v>30</v>
+      </c>
+      <c r="E81" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H81" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="C81" t="s">
-        <v>224</v>
-      </c>
-      <c r="D81" t="s">
-        <v>32</v>
-      </c>
-      <c r="E81" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4909,31 +4912,31 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C82" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D82" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E82" t="s">
         <v>14</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -4941,31 +4944,31 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C83" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D83" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E83" t="s">
         <v>14</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -4973,19 +4976,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C84" t="s">
+        <v>229</v>
+      </c>
+      <c r="D84" t="s">
+        <v>30</v>
+      </c>
+      <c r="E84" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="C84" t="s">
-        <v>231</v>
-      </c>
-      <c r="D84" t="s">
-        <v>32</v>
-      </c>
-      <c r="E84" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>21</v>
@@ -5005,19 +5008,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>231</v>
+      </c>
+      <c r="C85" t="s">
+        <v>232</v>
+      </c>
+      <c r="D85" t="s">
+        <v>30</v>
+      </c>
+      <c r="E85" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="C85" t="s">
-        <v>234</v>
-      </c>
-      <c r="D85" t="s">
-        <v>32</v>
-      </c>
-      <c r="E85" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>235</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>21</v>
@@ -5037,19 +5040,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>234</v>
+      </c>
+      <c r="C86" t="s">
+        <v>235</v>
+      </c>
+      <c r="D86" t="s">
+        <v>30</v>
+      </c>
+      <c r="E86" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="C86" t="s">
-        <v>237</v>
-      </c>
-      <c r="D86" t="s">
-        <v>32</v>
-      </c>
-      <c r="E86" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>238</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>21</v>
@@ -5070,31 +5073,31 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C87" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D87" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E87" t="s">
         <v>14</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -5102,31 +5105,31 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C88" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D88" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E88" t="s">
         <v>14</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -5134,31 +5137,31 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C89" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D89" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E89" t="s">
         <v>14</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -5166,31 +5169,31 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C90" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D90" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E90" t="s">
         <v>14</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -5198,31 +5201,31 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>245</v>
+      </c>
+      <c r="C91" t="s">
+        <v>246</v>
+      </c>
+      <c r="D91" t="s">
+        <v>30</v>
+      </c>
+      <c r="E91" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H91" s="4" t="s">
         <v>247</v>
-      </c>
-      <c r="C91" t="s">
-        <v>248</v>
-      </c>
-      <c r="D91" t="s">
-        <v>32</v>
-      </c>
-      <c r="E91" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>249</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -5230,19 +5233,19 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>248</v>
+      </c>
+      <c r="C92" t="s">
+        <v>249</v>
+      </c>
+      <c r="D92" t="s">
+        <v>30</v>
+      </c>
+      <c r="E92" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="C92" t="s">
-        <v>251</v>
-      </c>
-      <c r="D92" t="s">
-        <v>32</v>
-      </c>
-      <c r="E92" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>252</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>21</v>
@@ -5262,31 +5265,31 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>251</v>
+      </c>
+      <c r="C93" t="s">
+        <v>252</v>
+      </c>
+      <c r="D93" t="s">
+        <v>30</v>
+      </c>
+      <c r="E93" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H93" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="C93" t="s">
-        <v>254</v>
-      </c>
-      <c r="D93" t="s">
-        <v>32</v>
-      </c>
-      <c r="E93" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -5294,31 +5297,31 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>254</v>
+      </c>
+      <c r="C94" t="s">
+        <v>255</v>
+      </c>
+      <c r="D94" t="s">
+        <v>30</v>
+      </c>
+      <c r="E94" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H94" s="4" t="s">
         <v>256</v>
-      </c>
-      <c r="C94" t="s">
-        <v>257</v>
-      </c>
-      <c r="D94" t="s">
-        <v>32</v>
-      </c>
-      <c r="E94" t="s">
-        <v>14</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>258</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -5326,31 +5329,31 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>257</v>
+      </c>
+      <c r="C95" t="s">
+        <v>258</v>
+      </c>
+      <c r="D95" t="s">
+        <v>30</v>
+      </c>
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H95" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="C95" t="s">
-        <v>260</v>
-      </c>
-      <c r="D95" t="s">
-        <v>32</v>
-      </c>
-      <c r="E95" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>261</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5358,19 +5361,19 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>260</v>
+      </c>
+      <c r="C96" t="s">
+        <v>261</v>
+      </c>
+      <c r="D96" t="s">
+        <v>30</v>
+      </c>
+      <c r="E96" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="C96" t="s">
-        <v>263</v>
-      </c>
-      <c r="D96" t="s">
-        <v>32</v>
-      </c>
-      <c r="E96" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>264</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>21</v>
@@ -5379,13 +5382,13 @@
         <v>21</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J96" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K96" s="21" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -5393,31 +5396,31 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C97" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D97" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E97" t="s">
         <v>14</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -5425,19 +5428,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C98" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D98" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E98" t="s">
         <v>14</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>21</v>
@@ -5457,31 +5460,31 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C99" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D99" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E99" t="s">
         <v>14</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -5489,31 +5492,31 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C100" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D100" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E100" t="s">
         <v>14</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -5521,19 +5524,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>273</v>
+      </c>
+      <c r="C101" t="s">
+        <v>274</v>
+      </c>
+      <c r="D101" t="s">
+        <v>30</v>
+      </c>
+      <c r="E101" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" s="8" t="s">
         <v>275</v>
-      </c>
-      <c r="C101" t="s">
-        <v>276</v>
-      </c>
-      <c r="D101" t="s">
-        <v>32</v>
-      </c>
-      <c r="E101" t="s">
-        <v>14</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>277</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>21</v>
@@ -5553,19 +5556,19 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>276</v>
+      </c>
+      <c r="C102" t="s">
+        <v>277</v>
+      </c>
+      <c r="D102" t="s">
+        <v>30</v>
+      </c>
+      <c r="E102" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="15" t="s">
         <v>278</v>
-      </c>
-      <c r="C102" t="s">
-        <v>279</v>
-      </c>
-      <c r="D102" t="s">
-        <v>32</v>
-      </c>
-      <c r="E102" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="15" t="s">
-        <v>280</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>21</v>
@@ -5585,19 +5588,19 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>279</v>
+      </c>
+      <c r="C103" t="s">
+        <v>280</v>
+      </c>
+      <c r="D103" t="s">
+        <v>30</v>
+      </c>
+      <c r="E103" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="C103" t="s">
-        <v>282</v>
-      </c>
-      <c r="D103" t="s">
-        <v>32</v>
-      </c>
-      <c r="E103" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>21</v>
@@ -5617,31 +5620,31 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C104" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D104" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E104" t="s">
         <v>14</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -5649,19 +5652,19 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>284</v>
+      </c>
+      <c r="C105" t="s">
+        <v>285</v>
+      </c>
+      <c r="D105" t="s">
+        <v>30</v>
+      </c>
+      <c r="E105" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="4" t="s">
         <v>286</v>
-      </c>
-      <c r="C105" t="s">
-        <v>287</v>
-      </c>
-      <c r="D105" t="s">
-        <v>32</v>
-      </c>
-      <c r="E105" t="s">
-        <v>14</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>288</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>21</v>
@@ -5681,31 +5684,31 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C106" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D106" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E106" t="s">
         <v>14</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -5713,31 +5716,31 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C107" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D107" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E107" t="s">
         <v>14</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -5745,19 +5748,19 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>291</v>
+      </c>
+      <c r="C108" t="s">
+        <v>292</v>
+      </c>
+      <c r="D108" t="s">
+        <v>30</v>
+      </c>
+      <c r="E108" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="4" t="s">
         <v>293</v>
-      </c>
-      <c r="C108" t="s">
-        <v>294</v>
-      </c>
-      <c r="D108" t="s">
-        <v>32</v>
-      </c>
-      <c r="E108" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>295</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>21</v>
@@ -5777,34 +5780,34 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>294</v>
+      </c>
+      <c r="C109" t="s">
+        <v>295</v>
+      </c>
+      <c r="D109" t="s">
+        <v>30</v>
+      </c>
+      <c r="E109" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H109" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="C109" t="s">
+      <c r="I109" s="6" t="s">
         <v>297</v>
-      </c>
-      <c r="D109" t="s">
-        <v>32</v>
-      </c>
-      <c r="E109" t="s">
-        <v>14</v>
-      </c>
-      <c r="F109" s="24" t="s">
-        <v>392</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H109" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="I109" s="6" t="s">
-        <v>299</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -5812,31 +5815,31 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C110" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D110" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E110" t="s">
         <v>14</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -5844,31 +5847,31 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C111" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D111" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E111" t="s">
         <v>14</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -5876,31 +5879,31 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C112" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D112" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E112" t="s">
         <v>14</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -5908,31 +5911,31 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C113" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D113" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E113" t="s">
         <v>14</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -5940,31 +5943,31 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C114" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D114" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E114" t="s">
         <v>14</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -5972,31 +5975,31 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C115" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D115" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E115" t="s">
         <v>14</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -6004,31 +6007,31 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C116" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D116" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E116" t="s">
         <v>14</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -6036,31 +6039,31 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C117" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D117" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E117" t="s">
         <v>14</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -6068,31 +6071,31 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C118" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D118" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E118" t="s">
         <v>14</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -6100,31 +6103,31 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C119" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D119" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E119" t="s">
         <v>14</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -6132,31 +6135,31 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C120" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D120" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E120" t="s">
         <v>14</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -6164,31 +6167,31 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C121" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D121" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E121" t="s">
         <v>14</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -6196,31 +6199,31 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C122" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D122" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E122" t="s">
         <v>14</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -6228,31 +6231,31 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C123" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D123" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E123" t="s">
         <v>14</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -6260,31 +6263,31 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C124" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D124" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E124" t="s">
         <v>14</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -6292,31 +6295,31 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C125" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D125" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E125" t="s">
         <v>14</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -6324,31 +6327,31 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C126" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D126" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E126" t="s">
         <v>14</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -6356,19 +6359,19 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
+        <v>330</v>
+      </c>
+      <c r="C127" t="s">
+        <v>331</v>
+      </c>
+      <c r="D127" t="s">
+        <v>30</v>
+      </c>
+      <c r="E127" t="s">
+        <v>14</v>
+      </c>
+      <c r="F127" s="4" t="s">
         <v>332</v>
-      </c>
-      <c r="C127" t="s">
-        <v>333</v>
-      </c>
-      <c r="D127" t="s">
-        <v>32</v>
-      </c>
-      <c r="E127" t="s">
-        <v>14</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>334</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>21</v>
@@ -6388,31 +6391,31 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C128" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D128" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E128" t="s">
         <v>14</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -6420,10 +6423,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C129" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D129" t="s">
         <v>13</v>
@@ -6432,16 +6435,16 @@
         <v>14</v>
       </c>
       <c r="F129" s="20" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H129" s="18">
         <v>1</v>
       </c>
       <c r="I129" s="16" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J129" s="17" t="s">
         <v>16</v>
@@ -6702,6 +6705,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
@@ -6711,15 +6723,6 @@
     <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6742,6 +6745,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E89B3EC5-962B-41D9-9821-3A191D2434CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBFC15CC-4CA5-447A-915F-1412CED97222}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -6756,12 +6767,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E89B3EC5-962B-41D9-9821-3A191D2434CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_LISA_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_LISA_P1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F54842-1D9A-4767-9CAD-1E9759DCC8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C4AFFB-BF15-49AD-B498-31C3584DB89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="22260" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11025" yWindow="0" windowWidth="11025" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements_templa" sheetId="1" r:id="rId1"/>
@@ -1290,21 +1290,19 @@
   </si>
   <si>
     <t>case_when(
-      MUTBILD_0 == 1 &amp; VATBILD_0 == 1 ~ 0L,
-      MUTBILD_0 %in% c(2) | VATBILD_0 %in% c(2) ~ 1L,  
-      MUTBILD_0 %in% c(3) | VATBILD_0 %in% c(3) ~ 3L, 
-      MUTBILD_0 %in% c(4) | VATBILD_0 %in% c(4) ~ 2L, 
-      MUTBILD_0 %in% c(5, 6) | VATBILD_0 %in% c(5, 6) ~ 4L, 
-      MUTBILD_0 %in% c(7) | VATBILD_0 %in% c(7) ~ 5L,  
+      MUTBILD_0 %in% c(5, 6) | VATBILD_0 %in% c(5, 6) ~ 4L,
+      MUTBILD_0 %in% c(3,4) | VATBILD_0 %in% c(3,4) ~ 3L,
+      MUTBILD_0 %in% c(2) | VATBILD_0 %in% c(2) ~ 1L,
+      MUTBILD_0 == 1 | VATBILD_0 == 1 ~ 0L,
+      MUTBILD_0 %in% c(7) | VATBILD_0 %in% c(7) ~ 5L,
       TRUE ~ NA_integer_
     )</t>
   </si>
   <si>
-    <t>"None" (0): Both parents have 1 (no certificate).
+    <t>"Longer Education" (4): Either parent has 5 or 6.
+"Secondary School" (3): Either parent has 3 or 4.
 "Primary School Completed" (1): Either parent has 2.
-"Technical/Professional School" (2): Either parent has 4.
-"Secondary School" (3): Either parent has 3.
-"Longer Education" (4): Either parent has 5 or 6.
+"None" (0): Either parent has 1 (no certificate).
 "Not Specified" (5): Either parent has 7 (other degree).</t>
   </si>
 </sst>
@@ -1899,7 +1897,7 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2260,8 +2258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2413,7 +2411,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="255" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6464,6 +6462,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -6704,15 +6711,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -6726,6 +6724,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E89B3EC5-962B-41D9-9821-3A191D2434CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA68FB6B-B5E6-4AB5-ACC7-06ACAB30D951}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6740,14 +6746,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E89B3EC5-962B-41D9-9821-3A191D2434CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/rmonize/data_proc_elem/DPE_LISA_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_LISA_P1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C4AFFB-BF15-49AD-B498-31C3584DB89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7677C5CF-C35A-466D-B3B9-7ADB0B5934DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11025" yWindow="0" windowWidth="11025" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1196,9 +1196,6 @@
     <t>FFQNUSS_15 + FFQKERN_15</t>
   </si>
   <si>
-    <t>MUTBILD_0;VATBILD_0;</t>
-  </si>
-  <si>
     <t>aktivleiisommn_15;aktivleiwintn_15;aktivmitsommn_15;aktivmitwintn_15;aktivschsommn_15;aktivschwintn_15</t>
   </si>
   <si>
@@ -1289,21 +1286,24 @@
     <t>K_FB_alkgetr_cocktail_15;K_FB_alkgetr_alkopops_15;</t>
   </si>
   <si>
+    <t>MUTBILD_0;VATBILD_0; MUTBERU_0; VATBERU_0</t>
+  </si>
+  <si>
     <t>case_when(
-      MUTBILD_0 %in% c(5, 6) | VATBILD_0 %in% c(5, 6) ~ 4L,
-      MUTBILD_0 %in% c(3,4) | VATBILD_0 %in% c(3,4) ~ 3L,
-      MUTBILD_0 %in% c(2) | VATBILD_0 %in% c(2) ~ 1L,
-      MUTBILD_0 == 1 | VATBILD_0 == 1 ~ 0L,
-      MUTBILD_0 %in% c(7) | VATBILD_0 %in% c(7) ~ 5L,
-      TRUE ~ NA_integer_
-    )</t>
-  </si>
-  <si>
-    <t>"Longer Education" (4): Either parent has 5 or 6.
-"Secondary School" (3): Either parent has 3 or 4.
-"Primary School Completed" (1): Either parent has 2.
-"None" (0): Either parent has 1 (no certificate).
-"Not Specified" (5): Either parent has 7 (other degree).</t>
+  MUTBERU_0 %in% c(7) | VATBERU_0 %in% c(7) ~ 7L,
+  MUTBERU_0 %in% c(5,6) | VATBERU_0 %in% c(5,6) ~ 6L,
+  MUTBERU_0 %in% c(3,4) |VATBERU_0 %in% c(3,4) ~ 4L,
+  MUTBERU_0 %in% c(8) |VATBERU_0 %in% c(8) ~ 9L,
+  MUTBILD_0 %in% c(5,6) | VATBILD_0 %in% c(5,6) ~ 3L,
+  MUTBILD_0 %in% c(2,3,4) | VATBILD_0 %in% c(2,3,4) ~ 2L,
+  MUTBILD_0 %in% c(1) &amp; VATBILD_0 %in% c(1) ~ 0L,
+  is.na(MUTBILD_0) &amp; VATBILD_0 %in% c(1) ~ 0L,
+  MUTBILD_0 %in% c(1) &amp; is.na(VATBILD_0) ~ 0L,
+  MUTBILD_0 %in% c(7) | VATBILD_0 %in% c(7) ~ 9L,
+  TRUE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>Education according to the ISCED 2011 classification</t>
   </si>
 </sst>
 </file>
@@ -1902,49 +1902,49 @@
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Link" xfId="42" builtinId="8"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1960,9 +1960,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2000,7 +2000,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2106,7 +2106,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2248,7 +2248,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2258,18 +2258,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="138.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="129.42578125" style="18" customWidth="1"/>
     <col min="9" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.42578125" bestFit="1" customWidth="1"/>
@@ -2411,7 +2411,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="255" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>27</v>
@@ -2440,10 +2440,10 @@
         <v>392</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="105" x14ac:dyDescent="0.25">
@@ -2463,7 +2463,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>31</v>
@@ -2597,7 +2597,7 @@
         <v>14</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>31</v>
@@ -2632,7 +2632,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>31</v>
@@ -2696,7 +2696,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>31</v>
@@ -2728,7 +2728,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>31</v>
@@ -3080,7 +3080,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>31</v>
@@ -3113,7 +3113,7 @@
         <v>14</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>31</v>
@@ -3241,7 +3241,7 @@
         <v>14</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>31</v>
@@ -3305,7 +3305,7 @@
         <v>14</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>31</v>
@@ -3402,7 +3402,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>31</v>
@@ -3598,7 +3598,7 @@
         <v>14</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>31</v>
@@ -3662,7 +3662,7 @@
         <v>14</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>31</v>
@@ -3694,7 +3694,7 @@
         <v>14</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>31</v>
@@ -3729,7 +3729,7 @@
         <v>14</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>31</v>
@@ -3793,7 +3793,7 @@
         <v>14</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>31</v>
@@ -3922,7 +3922,7 @@
         <v>14</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G51" s="21" t="s">
         <v>31</v>
@@ -4409,7 +4409,7 @@
         <v>14</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>31</v>
@@ -4473,7 +4473,7 @@
         <v>14</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>31</v>
@@ -4505,7 +4505,7 @@
         <v>14</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>31</v>
@@ -4569,7 +4569,7 @@
         <v>14</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>31</v>
@@ -4666,7 +4666,7 @@
         <v>14</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>31</v>
@@ -4698,7 +4698,7 @@
         <v>14</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>31</v>
@@ -4730,7 +4730,7 @@
         <v>14</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>31</v>
@@ -4762,7 +4762,7 @@
         <v>14</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>31</v>
@@ -4890,7 +4890,7 @@
         <v>14</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>31</v>
@@ -4954,7 +4954,7 @@
         <v>14</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>31</v>
@@ -5179,7 +5179,7 @@
         <v>14</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>31</v>
@@ -5211,7 +5211,7 @@
         <v>14</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>31</v>
@@ -5275,7 +5275,7 @@
         <v>14</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>31</v>
@@ -5307,7 +5307,7 @@
         <v>14</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>31</v>
@@ -5339,7 +5339,7 @@
         <v>14</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>31</v>
@@ -5790,7 +5790,7 @@
         <v>14</v>
       </c>
       <c r="F109" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>31</v>
